--- a/BackTest/2019-11-17 BackTest FX.xlsx
+++ b/BackTest/2019-11-17 BackTest FX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>8</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-25</v>
+      </c>
       <c r="L12" t="n">
         <v>117.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>117.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>9</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L14" t="n">
         <v>117</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L15" t="n">
         <v>117</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>11</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>71.42857142857143</v>
+      </c>
       <c r="L16" t="n">
         <v>117.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>12</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>117.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>12</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>118</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>12</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>60</v>
+      </c>
       <c r="L19" t="n">
         <v>118.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>12</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
       <c r="L20" t="n">
         <v>118.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>12</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21" t="n">
         <v>118.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>12</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>118.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>12</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>119</v>
@@ -1515,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L25" t="n">
         <v>119.1</v>
@@ -1563,9 +1585,7 @@
       <c r="J26" t="n">
         <v>12</v>
       </c>
-      <c r="K26" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>119</v>
       </c>
@@ -1612,9 +1632,7 @@
       <c r="J27" t="n">
         <v>12</v>
       </c>
-      <c r="K27" t="n">
-        <v>50</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>119</v>
       </c>
@@ -1662,7 +1680,7 @@
         <v>13</v>
       </c>
       <c r="K28" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L28" t="n">
         <v>118.9</v>
@@ -1711,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="K29" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L29" t="n">
         <v>118.8</v>
@@ -1760,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L30" t="n">
         <v>118.6</v>
@@ -1809,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>118.4</v>
@@ -1860,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" t="n">
         <v>118.2</v>
@@ -1911,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="K33" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L33" t="n">
         <v>118</v>
@@ -1962,7 +1980,7 @@
         <v>14</v>
       </c>
       <c r="K34" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L34" t="n">
         <v>117.8</v>
@@ -2064,7 +2082,7 @@
         <v>17</v>
       </c>
       <c r="K36" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L36" t="n">
         <v>117.7</v>
@@ -2115,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="K37" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L37" t="n">
         <v>117.5</v>
@@ -2166,7 +2184,7 @@
         <v>18</v>
       </c>
       <c r="K38" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>117.4</v>
@@ -2217,7 +2235,7 @@
         <v>19</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
         <v>117.4</v>
@@ -2268,7 +2286,7 @@
         <v>21</v>
       </c>
       <c r="K40" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>117.3</v>
@@ -2319,7 +2337,7 @@
         <v>21</v>
       </c>
       <c r="K41" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>117.2</v>
@@ -2370,7 +2388,7 @@
         <v>22</v>
       </c>
       <c r="K42" t="n">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="L42" t="n">
         <v>117</v>
@@ -2421,7 +2439,7 @@
         <v>23</v>
       </c>
       <c r="K43" t="n">
-        <v>-27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L43" t="n">
         <v>116.9</v>
@@ -2472,7 +2490,7 @@
         <v>23</v>
       </c>
       <c r="K44" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L44" t="n">
         <v>116.8</v>
@@ -2523,7 +2541,7 @@
         <v>25</v>
       </c>
       <c r="K45" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>116.7</v>
@@ -2574,7 +2592,7 @@
         <v>25</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L46" t="n">
         <v>116.7</v>
@@ -2625,7 +2643,7 @@
         <v>28</v>
       </c>
       <c r="K47" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L47" t="n">
         <v>116.5</v>
@@ -2676,7 +2694,7 @@
         <v>30</v>
       </c>
       <c r="K48" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L48" t="n">
         <v>116.5</v>
@@ -2727,7 +2745,7 @@
         <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L49" t="n">
         <v>116.4</v>
@@ -2778,7 +2796,7 @@
         <v>31</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>116.4</v>
@@ -2829,7 +2847,7 @@
         <v>32</v>
       </c>
       <c r="K51" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>116.3</v>
@@ -2982,7 +3000,7 @@
         <v>33</v>
       </c>
       <c r="K54" t="n">
-        <v>-15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L54" t="n">
         <v>116</v>
@@ -3033,7 +3051,7 @@
         <v>35</v>
       </c>
       <c r="K55" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L55" t="n">
         <v>115.8</v>
@@ -3084,7 +3102,7 @@
         <v>37</v>
       </c>
       <c r="K56" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L56" t="n">
         <v>115.4</v>
@@ -3135,7 +3153,7 @@
         <v>38</v>
       </c>
       <c r="K57" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="L57" t="n">
         <v>115.4</v>
@@ -3186,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>115.1</v>
@@ -3237,7 +3255,7 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>115</v>
@@ -3288,7 +3306,7 @@
         <v>42</v>
       </c>
       <c r="K60" t="n">
-        <v>4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L60" t="n">
         <v>115.1</v>
@@ -3339,7 +3357,7 @@
         <v>42</v>
       </c>
       <c r="K61" t="n">
-        <v>4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L61" t="n">
         <v>115.3</v>
@@ -3390,7 +3408,7 @@
         <v>42</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L62" t="n">
         <v>115.5</v>
@@ -3441,7 +3459,7 @@
         <v>43</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L63" t="n">
         <v>115.8</v>
@@ -3492,7 +3510,7 @@
         <v>43</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L64" t="n">
         <v>116.2</v>
@@ -3543,7 +3561,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L65" t="n">
         <v>116.2</v>
@@ -3594,7 +3612,7 @@
         <v>45</v>
       </c>
       <c r="K66" t="n">
-        <v>-10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>116.4</v>
@@ -3645,7 +3663,7 @@
         <v>46</v>
       </c>
       <c r="K67" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L67" t="n">
         <v>116.6</v>
@@ -3696,7 +3714,7 @@
         <v>47</v>
       </c>
       <c r="K68" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>117</v>
@@ -3747,7 +3765,7 @@
         <v>49</v>
       </c>
       <c r="K69" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>117</v>
@@ -3798,7 +3816,7 @@
         <v>49</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>116.9</v>
@@ -3849,7 +3867,7 @@
         <v>50</v>
       </c>
       <c r="K71" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>116.9</v>
@@ -3900,7 +3918,7 @@
         <v>51</v>
       </c>
       <c r="K72" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L72" t="n">
         <v>116.8</v>
@@ -3951,7 +3969,7 @@
         <v>52</v>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L73" t="n">
         <v>116.7</v>
@@ -4002,7 +4020,7 @@
         <v>52</v>
       </c>
       <c r="K74" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>116.6</v>
@@ -4053,7 +4071,7 @@
         <v>52</v>
       </c>
       <c r="K75" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>116.7</v>
@@ -4104,7 +4122,7 @@
         <v>52</v>
       </c>
       <c r="K76" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>116.8</v>
@@ -4155,7 +4173,7 @@
         <v>53</v>
       </c>
       <c r="K77" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>116.7</v>
@@ -4206,7 +4224,7 @@
         <v>53</v>
       </c>
       <c r="K78" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>116.5</v>
@@ -4257,7 +4275,7 @@
         <v>54</v>
       </c>
       <c r="K79" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L79" t="n">
         <v>116.6</v>
@@ -4308,7 +4326,7 @@
         <v>55</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L80" t="n">
         <v>116.6</v>
@@ -4359,7 +4377,7 @@
         <v>56</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L81" t="n">
         <v>116.6</v>
@@ -4410,7 +4428,7 @@
         <v>58</v>
       </c>
       <c r="K82" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>116.5</v>
@@ -4461,7 +4479,7 @@
         <v>59</v>
       </c>
       <c r="K83" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L83" t="n">
         <v>116.4</v>
@@ -4512,7 +4530,7 @@
         <v>59</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>116.3</v>
@@ -4563,7 +4581,7 @@
         <v>59</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L85" t="n">
         <v>116.2</v>
@@ -4665,7 +4683,7 @@
         <v>59</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>116.1</v>
@@ -4716,7 +4734,7 @@
         <v>60</v>
       </c>
       <c r="K88" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>116</v>
@@ -4767,7 +4785,7 @@
         <v>62</v>
       </c>
       <c r="K89" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>116</v>
@@ -4818,7 +4836,7 @@
         <v>63</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L90" t="n">
         <v>116</v>
@@ -4869,7 +4887,7 @@
         <v>63</v>
       </c>
       <c r="K91" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>115.9</v>
@@ -4920,7 +4938,7 @@
         <v>64</v>
       </c>
       <c r="K92" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L92" t="n">
         <v>116.1</v>
@@ -4971,7 +4989,7 @@
         <v>65</v>
       </c>
       <c r="K93" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>116.1</v>
@@ -5073,7 +5091,7 @@
         <v>68</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L95" t="n">
         <v>116.1</v>
@@ -5124,7 +5142,7 @@
         <v>68</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L96" t="n">
         <v>116.2</v>
@@ -5175,7 +5193,7 @@
         <v>68</v>
       </c>
       <c r="K97" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L97" t="n">
         <v>116.3</v>
@@ -5226,7 +5244,7 @@
         <v>68</v>
       </c>
       <c r="K98" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>116.5</v>
@@ -5277,7 +5295,7 @@
         <v>68</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>116.5</v>
@@ -5379,7 +5397,7 @@
         <v>71</v>
       </c>
       <c r="K101" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L101" t="n">
         <v>116.7</v>
@@ -5430,7 +5448,7 @@
         <v>71</v>
       </c>
       <c r="K102" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>116.8</v>
@@ -5481,7 +5499,7 @@
         <v>74</v>
       </c>
       <c r="K103" t="n">
-        <v>33.33333333333333</v>
+        <v>75</v>
       </c>
       <c r="L103" t="n">
         <v>117.3</v>
@@ -5532,7 +5550,7 @@
         <v>75</v>
       </c>
       <c r="K104" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L104" t="n">
         <v>117.8</v>
@@ -5583,7 +5601,7 @@
         <v>77</v>
       </c>
       <c r="K105" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L105" t="n">
         <v>118.3</v>
@@ -5634,7 +5652,7 @@
         <v>80</v>
       </c>
       <c r="K106" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L106" t="n">
         <v>119.1</v>
@@ -5685,7 +5703,7 @@
         <v>83</v>
       </c>
       <c r="K107" t="n">
-        <v>50</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>120.2</v>
@@ -5736,7 +5754,7 @@
         <v>84</v>
       </c>
       <c r="K108" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="L108" t="n">
         <v>121.2</v>
@@ -5787,7 +5805,7 @@
         <v>86</v>
       </c>
       <c r="K109" t="n">
-        <v>33.33333333333333</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L109" t="n">
         <v>122</v>
@@ -5838,7 +5856,7 @@
         <v>89</v>
       </c>
       <c r="K110" t="n">
-        <v>46.15384615384615</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L110" t="n">
         <v>123.2</v>
@@ -5889,7 +5907,7 @@
         <v>89</v>
       </c>
       <c r="K111" t="n">
-        <v>46.15384615384615</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L111" t="n">
         <v>124.2</v>
@@ -5940,7 +5958,7 @@
         <v>89</v>
       </c>
       <c r="K112" t="n">
-        <v>44</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L112" t="n">
         <v>125.2</v>
@@ -5991,7 +6009,7 @@
         <v>89</v>
       </c>
       <c r="K113" t="n">
-        <v>50</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L113" t="n">
         <v>125.9</v>
@@ -6042,7 +6060,7 @@
         <v>91</v>
       </c>
       <c r="K114" t="n">
-        <v>44</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L114" t="n">
         <v>126.5</v>
@@ -6093,7 +6111,7 @@
         <v>95</v>
       </c>
       <c r="K115" t="n">
-        <v>48.14814814814815</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>127.3</v>
@@ -6144,7 +6162,7 @@
         <v>95</v>
       </c>
       <c r="K116" t="n">
-        <v>48.14814814814815</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L116" t="n">
         <v>127.8</v>
@@ -6195,7 +6213,7 @@
         <v>99</v>
       </c>
       <c r="K117" t="n">
-        <v>54.83870967741935</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L117" t="n">
         <v>128.4</v>
@@ -6246,7 +6264,7 @@
         <v>101</v>
       </c>
       <c r="K118" t="n">
-        <v>45.45454545454545</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L118" t="n">
         <v>128.9</v>
@@ -6297,7 +6315,7 @@
         <v>102</v>
       </c>
       <c r="K119" t="n">
-        <v>47.05882352941176</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L119" t="n">
         <v>129.7</v>
@@ -6348,7 +6366,7 @@
         <v>105</v>
       </c>
       <c r="K120" t="n">
-        <v>38.88888888888889</v>
+        <v>12.5</v>
       </c>
       <c r="L120" t="n">
         <v>129.9</v>
@@ -6399,7 +6417,7 @@
         <v>107</v>
       </c>
       <c r="K121" t="n">
-        <v>38.88888888888889</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L121" t="n">
         <v>130.3</v>
@@ -6450,7 +6468,7 @@
         <v>109</v>
       </c>
       <c r="K122" t="n">
-        <v>42.10526315789473</v>
+        <v>30</v>
       </c>
       <c r="L122" t="n">
         <v>130.9</v>
@@ -6501,7 +6519,7 @@
         <v>114</v>
       </c>
       <c r="K123" t="n">
-        <v>20</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L123" t="n">
         <v>131</v>
@@ -6552,7 +6570,7 @@
         <v>115</v>
       </c>
       <c r="K124" t="n">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="L124" t="n">
         <v>131.2</v>
@@ -6603,7 +6621,7 @@
         <v>118</v>
       </c>
       <c r="K125" t="n">
-        <v>21.95121951219512</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L125" t="n">
         <v>131.3</v>
@@ -6654,7 +6672,7 @@
         <v>120</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L126" t="n">
         <v>131.2</v>
@@ -6705,7 +6723,7 @@
         <v>120</v>
       </c>
       <c r="K127" t="n">
-        <v>2.702702702702703</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L127" t="n">
         <v>130.7</v>
@@ -6756,7 +6774,7 @@
         <v>121</v>
       </c>
       <c r="K128" t="n">
-        <v>2.702702702702703</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L128" t="n">
         <v>130.3</v>
@@ -6807,7 +6825,7 @@
         <v>121</v>
       </c>
       <c r="K129" t="n">
-        <v>8.571428571428571</v>
+        <v>-12.5</v>
       </c>
       <c r="L129" t="n">
         <v>129.8</v>
@@ -6858,7 +6876,7 @@
         <v>122</v>
       </c>
       <c r="K130" t="n">
-        <v>3.03030303030303</v>
+        <v>-20</v>
       </c>
       <c r="L130" t="n">
         <v>129.7</v>
@@ -6909,7 +6927,7 @@
         <v>123</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L131" t="n">
         <v>129.3</v>
@@ -6960,7 +6978,7 @@
         <v>123</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L132" t="n">
         <v>128.7</v>
@@ -7011,7 +7029,7 @@
         <v>125</v>
       </c>
       <c r="K133" t="n">
-        <v>5.555555555555555</v>
+        <v>20</v>
       </c>
       <c r="L133" t="n">
         <v>128.8</v>
@@ -7062,7 +7080,7 @@
         <v>125</v>
       </c>
       <c r="K134" t="n">
-        <v>11.76470588235294</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L134" t="n">
         <v>129</v>
@@ -7113,7 +7131,7 @@
         <v>127</v>
       </c>
       <c r="K135" t="n">
-        <v>-6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>128.7</v>
@@ -7164,7 +7182,7 @@
         <v>127</v>
       </c>
       <c r="K136" t="n">
-        <v>-6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L136" t="n">
         <v>128.6</v>
@@ -7215,7 +7233,7 @@
         <v>128</v>
       </c>
       <c r="K137" t="n">
-        <v>-17.24137931034483</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>128.6</v>
@@ -7266,7 +7284,7 @@
         <v>136</v>
       </c>
       <c r="K138" t="n">
-        <v>-31.42857142857143</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L138" t="n">
         <v>127.9</v>
@@ -7317,7 +7335,7 @@
         <v>138</v>
       </c>
       <c r="K139" t="n">
-        <v>-27.77777777777778</v>
+        <v>-37.5</v>
       </c>
       <c r="L139" t="n">
         <v>127.4</v>
@@ -7368,7 +7386,7 @@
         <v>148</v>
       </c>
       <c r="K140" t="n">
-        <v>6.976744186046512</v>
+        <v>20</v>
       </c>
       <c r="L140" t="n">
         <v>127.8</v>
@@ -7419,7 +7437,7 @@
         <v>152</v>
       </c>
       <c r="K141" t="n">
-        <v>-6.666666666666667</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L141" t="n">
         <v>127.9</v>
@@ -7470,7 +7488,7 @@
         <v>152</v>
       </c>
       <c r="K142" t="n">
-        <v>-11.62790697674419</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L142" t="n">
         <v>128</v>
@@ -7521,7 +7539,7 @@
         <v>156</v>
       </c>
       <c r="K143" t="n">
-        <v>-9.523809523809524</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L143" t="n">
         <v>127.5</v>
@@ -7572,7 +7590,7 @@
         <v>163</v>
       </c>
       <c r="K144" t="n">
-        <v>8.333333333333332</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L144" t="n">
         <v>127.7</v>
@@ -7623,7 +7641,7 @@
         <v>167</v>
       </c>
       <c r="K145" t="n">
-        <v>-6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>127.7</v>
@@ -7674,7 +7692,7 @@
         <v>169</v>
       </c>
       <c r="K146" t="n">
-        <v>-6.122448979591836</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L146" t="n">
         <v>127.5</v>
@@ -7725,7 +7743,7 @@
         <v>169</v>
       </c>
       <c r="K147" t="n">
-        <v>-6.122448979591836</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L147" t="n">
         <v>127.2</v>
@@ -7776,7 +7794,7 @@
         <v>172</v>
       </c>
       <c r="K148" t="n">
-        <v>1.96078431372549</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L148" t="n">
         <v>128</v>
@@ -7827,7 +7845,7 @@
         <v>173</v>
       </c>
       <c r="K149" t="n">
-        <v>3.846153846153846</v>
+        <v>-12</v>
       </c>
       <c r="L149" t="n">
         <v>128.7</v>
@@ -7878,7 +7896,7 @@
         <v>176</v>
       </c>
       <c r="K150" t="n">
-        <v>-3.703703703703703</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L150" t="n">
         <v>128.1</v>
@@ -7929,7 +7947,7 @@
         <v>178</v>
       </c>
       <c r="K151" t="n">
-        <v>1.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>128.1</v>
@@ -7980,7 +7998,7 @@
         <v>178</v>
       </c>
       <c r="K152" t="n">
-        <v>1.818181818181818</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L152" t="n">
         <v>128.1</v>
@@ -8031,7 +8049,7 @@
         <v>179</v>
       </c>
       <c r="K153" t="n">
-        <v>-3.703703703703703</v>
+        <v>-25</v>
       </c>
       <c r="L153" t="n">
         <v>128.4</v>
@@ -8082,7 +8100,7 @@
         <v>180</v>
       </c>
       <c r="K154" t="n">
-        <v>-5.454545454545454</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L154" t="n">
         <v>127.9</v>
@@ -8133,7 +8151,7 @@
         <v>180</v>
       </c>
       <c r="K155" t="n">
-        <v>-1.886792452830189</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L155" t="n">
         <v>127.8</v>
@@ -8184,7 +8202,7 @@
         <v>181</v>
       </c>
       <c r="K156" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>127.8</v>
@@ -8235,7 +8253,7 @@
         <v>181</v>
       </c>
       <c r="K157" t="n">
-        <v>-5.660377358490567</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>127.8</v>
@@ -8286,7 +8304,7 @@
         <v>182</v>
       </c>
       <c r="K158" t="n">
-        <v>13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>127.6</v>
@@ -8337,7 +8355,7 @@
         <v>183</v>
       </c>
       <c r="K159" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L159" t="n">
         <v>127.4</v>
@@ -8388,7 +8406,7 @@
         <v>184</v>
       </c>
       <c r="K160" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>127.4</v>
@@ -8439,7 +8457,7 @@
         <v>185</v>
       </c>
       <c r="K161" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L161" t="n">
         <v>127.1</v>
@@ -8490,7 +8508,7 @@
         <v>186</v>
       </c>
       <c r="K162" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L162" t="n">
         <v>126.9</v>
@@ -8541,7 +8559,7 @@
         <v>186</v>
       </c>
       <c r="K163" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>126.8</v>
@@ -8592,7 +8610,7 @@
         <v>186</v>
       </c>
       <c r="K164" t="n">
-        <v>-21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>126.8</v>
@@ -8643,7 +8661,7 @@
         <v>186</v>
       </c>
       <c r="K165" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L165" t="n">
         <v>126.8</v>
@@ -8694,7 +8712,7 @@
         <v>186</v>
       </c>
       <c r="K166" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L166" t="n">
         <v>126.9</v>
@@ -8745,7 +8763,7 @@
         <v>186</v>
       </c>
       <c r="K167" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>127</v>
@@ -8796,7 +8814,7 @@
         <v>188</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
         <v>127.2</v>
@@ -8847,7 +8865,7 @@
         <v>189</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L169" t="n">
         <v>127.4</v>
@@ -8898,7 +8916,7 @@
         <v>189</v>
       </c>
       <c r="K170" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L170" t="n">
         <v>127.7</v>
@@ -8949,7 +8967,7 @@
         <v>189</v>
       </c>
       <c r="K171" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L171" t="n">
         <v>128.1</v>
@@ -9000,7 +9018,7 @@
         <v>190</v>
       </c>
       <c r="K172" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L172" t="n">
         <v>128.5</v>
@@ -9051,7 +9069,7 @@
         <v>190</v>
       </c>
       <c r="K173" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L173" t="n">
         <v>128.9</v>
@@ -9102,7 +9120,7 @@
         <v>191</v>
       </c>
       <c r="K174" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L174" t="n">
         <v>129.4</v>
@@ -9153,7 +9171,7 @@
         <v>192</v>
       </c>
       <c r="K175" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L175" t="n">
         <v>129.8</v>
@@ -9204,7 +9222,7 @@
         <v>192</v>
       </c>
       <c r="K176" t="n">
-        <v>45.45454545454545</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L176" t="n">
         <v>130.2</v>
@@ -9255,7 +9273,7 @@
         <v>193</v>
       </c>
       <c r="K177" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L177" t="n">
         <v>130.7</v>
@@ -9306,7 +9324,7 @@
         <v>194</v>
       </c>
       <c r="K178" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L178" t="n">
         <v>130.9</v>
@@ -9357,7 +9375,7 @@
         <v>194</v>
       </c>
       <c r="K179" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L179" t="n">
         <v>131</v>
@@ -9408,7 +9426,7 @@
         <v>195</v>
       </c>
       <c r="K180" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>131</v>
@@ -9459,7 +9477,7 @@
         <v>196</v>
       </c>
       <c r="K181" t="n">
-        <v>45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>131.1</v>
@@ -9510,7 +9528,7 @@
         <v>196</v>
       </c>
       <c r="K182" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>131.1</v>
@@ -9561,7 +9579,7 @@
         <v>197</v>
       </c>
       <c r="K183" t="n">
-        <v>45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>131.2</v>
@@ -9612,7 +9630,7 @@
         <v>198</v>
       </c>
       <c r="K184" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>131.1</v>
@@ -9663,7 +9681,7 @@
         <v>199</v>
       </c>
       <c r="K185" t="n">
-        <v>38.46153846153847</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L185" t="n">
         <v>131.2</v>
@@ -9714,7 +9732,7 @@
         <v>200</v>
       </c>
       <c r="K186" t="n">
-        <v>28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L186" t="n">
         <v>131.2</v>
@@ -9765,7 +9783,7 @@
         <v>200</v>
       </c>
       <c r="K187" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>131.1</v>
@@ -9816,7 +9834,7 @@
         <v>201</v>
       </c>
       <c r="K188" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>131</v>
@@ -9918,7 +9936,7 @@
         <v>202</v>
       </c>
       <c r="K190" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>130.8</v>
@@ -9969,7 +9987,7 @@
         <v>203</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L191" t="n">
         <v>130.7</v>
@@ -10020,7 +10038,7 @@
         <v>203</v>
       </c>
       <c r="K192" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>130.6</v>
@@ -10071,7 +10089,7 @@
         <v>204</v>
       </c>
       <c r="K193" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>130.3</v>
@@ -10122,7 +10140,7 @@
         <v>206</v>
       </c>
       <c r="K194" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>130.3</v>
@@ -10173,7 +10191,7 @@
         <v>210</v>
       </c>
       <c r="K195" t="n">
-        <v>-22.22222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L195" t="n">
         <v>129.8</v>
@@ -10224,7 +10242,7 @@
         <v>211</v>
       </c>
       <c r="K196" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L196" t="n">
         <v>129.5</v>
@@ -10275,7 +10293,7 @@
         <v>212</v>
       </c>
       <c r="K197" t="n">
-        <v>-26.31578947368421</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L197" t="n">
         <v>129.1</v>
@@ -10326,7 +10344,7 @@
         <v>213</v>
       </c>
       <c r="K198" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>128.7</v>
@@ -10377,7 +10395,7 @@
         <v>214</v>
       </c>
       <c r="K199" t="n">
-        <v>-30</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>128.2</v>
@@ -10428,7 +10446,7 @@
         <v>215</v>
       </c>
       <c r="K200" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L200" t="n">
         <v>127.9</v>
@@ -10479,7 +10497,7 @@
         <v>215</v>
       </c>
       <c r="K201" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>127.5</v>
@@ -10530,7 +10548,7 @@
         <v>217</v>
       </c>
       <c r="K202" t="n">
-        <v>-14.28571428571428</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L202" t="n">
         <v>127.3</v>
@@ -10581,7 +10599,7 @@
         <v>219</v>
       </c>
       <c r="K203" t="n">
-        <v>-27.27272727272727</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L203" t="n">
         <v>127</v>
@@ -10632,7 +10650,7 @@
         <v>220</v>
       </c>
       <c r="K204" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L204" t="n">
         <v>126.4</v>
@@ -10683,7 +10701,7 @@
         <v>221</v>
       </c>
       <c r="K205" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L205" t="n">
         <v>126.3</v>
@@ -10734,7 +10752,7 @@
         <v>221</v>
       </c>
       <c r="K206" t="n">
-        <v>-23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L206" t="n">
         <v>126.1</v>
@@ -10785,7 +10803,7 @@
         <v>221</v>
       </c>
       <c r="K207" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>126</v>
@@ -10836,7 +10854,7 @@
         <v>221</v>
       </c>
       <c r="K208" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L208" t="n">
         <v>126</v>
@@ -10887,7 +10905,7 @@
         <v>221</v>
       </c>
       <c r="K209" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>126.1</v>
@@ -10938,7 +10956,7 @@
         <v>221</v>
       </c>
       <c r="K210" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>126.1</v>
@@ -10989,7 +11007,7 @@
         <v>223</v>
       </c>
       <c r="K211" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>126.3</v>
@@ -11040,7 +11058,7 @@
         <v>225</v>
       </c>
       <c r="K212" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>126.1</v>
@@ -11091,7 +11109,7 @@
         <v>225</v>
       </c>
       <c r="K213" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L213" t="n">
         <v>126.1</v>
@@ -11142,7 +11160,7 @@
         <v>227</v>
       </c>
       <c r="K214" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>126.4</v>
@@ -11193,7 +11211,7 @@
         <v>227</v>
       </c>
       <c r="K215" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>126.6</v>
@@ -11244,7 +11262,7 @@
         <v>228</v>
       </c>
       <c r="K216" t="n">
-        <v>5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L216" t="n">
         <v>126.9</v>
@@ -11295,7 +11313,7 @@
         <v>229</v>
       </c>
       <c r="K217" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L217" t="n">
         <v>127.1</v>
@@ -11346,7 +11364,7 @@
         <v>230</v>
       </c>
       <c r="K218" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L218" t="n">
         <v>127.4</v>
@@ -11397,7 +11415,7 @@
         <v>232</v>
       </c>
       <c r="K219" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L219" t="n">
         <v>127.5</v>
@@ -11448,7 +11466,7 @@
         <v>232</v>
       </c>
       <c r="K220" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L220" t="n">
         <v>127.6</v>
@@ -11499,7 +11517,7 @@
         <v>234</v>
       </c>
       <c r="K221" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>127.7</v>
@@ -11550,7 +11568,7 @@
         <v>236</v>
       </c>
       <c r="K222" t="n">
-        <v>15.78947368421053</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L222" t="n">
         <v>128.2</v>
@@ -11601,7 +11619,7 @@
         <v>237</v>
       </c>
       <c r="K223" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L223" t="n">
         <v>128.6</v>
@@ -11652,7 +11670,7 @@
         <v>238</v>
       </c>
       <c r="K224" t="n">
-        <v>22.22222222222222</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L224" t="n">
         <v>128.7</v>
@@ -11703,7 +11721,7 @@
         <v>239</v>
       </c>
       <c r="K225" t="n">
-        <v>11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L225" t="n">
         <v>128.7</v>
@@ -11754,7 +11772,7 @@
         <v>239</v>
       </c>
       <c r="K226" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>128.6</v>
@@ -11805,7 +11823,7 @@
         <v>239</v>
       </c>
       <c r="K227" t="n">
-        <v>11.11111111111111</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L227" t="n">
         <v>128.6</v>
@@ -11856,7 +11874,7 @@
         <v>240</v>
       </c>
       <c r="K228" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>128.4</v>
@@ -11907,7 +11925,7 @@
         <v>243</v>
       </c>
       <c r="K229" t="n">
-        <v>18.18181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L229" t="n">
         <v>128.7</v>
@@ -11958,7 +11976,7 @@
         <v>243</v>
       </c>
       <c r="K230" t="n">
-        <v>18.18181818181818</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L230" t="n">
         <v>129</v>
@@ -12009,7 +12027,7 @@
         <v>243</v>
       </c>
       <c r="K231" t="n">
-        <v>10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L231" t="n">
         <v>129.1</v>
@@ -12060,7 +12078,7 @@
         <v>243</v>
       </c>
       <c r="K232" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>129</v>
@@ -12111,7 +12129,7 @@
         <v>243</v>
       </c>
       <c r="K233" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L233" t="n">
         <v>129</v>
@@ -12162,7 +12180,7 @@
         <v>245</v>
       </c>
       <c r="K234" t="n">
-        <v>22.22222222222222</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L234" t="n">
         <v>129.3</v>
@@ -12213,7 +12231,7 @@
         <v>246</v>
       </c>
       <c r="K235" t="n">
-        <v>26.31578947368421</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L235" t="n">
         <v>129.8</v>
@@ -12264,7 +12282,7 @@
         <v>247</v>
       </c>
       <c r="K236" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L236" t="n">
         <v>130.2</v>
@@ -12315,7 +12333,7 @@
         <v>248</v>
       </c>
       <c r="K237" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L237" t="n">
         <v>130.5</v>
@@ -12366,7 +12384,7 @@
         <v>250</v>
       </c>
       <c r="K238" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L238" t="n">
         <v>131.1</v>
@@ -12417,7 +12435,7 @@
         <v>251</v>
       </c>
       <c r="K239" t="n">
-        <v>36.84210526315789</v>
+        <v>50</v>
       </c>
       <c r="L239" t="n">
         <v>131.5</v>
@@ -12468,7 +12486,7 @@
         <v>254</v>
       </c>
       <c r="K240" t="n">
-        <v>45.45454545454545</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L240" t="n">
         <v>132.2</v>
@@ -12519,7 +12537,7 @@
         <v>262</v>
       </c>
       <c r="K241" t="n">
-        <v>57.14285714285714</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L241" t="n">
         <v>133.7</v>
@@ -12570,7 +12588,7 @@
         <v>262</v>
       </c>
       <c r="K242" t="n">
-        <v>53.84615384615385</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L242" t="n">
         <v>135.2</v>
@@ -12621,7 +12639,7 @@
         <v>271</v>
       </c>
       <c r="K243" t="n">
-        <v>17.64705882352941</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L243" t="n">
         <v>135.8</v>
@@ -12672,7 +12690,7 @@
         <v>275</v>
       </c>
       <c r="K244" t="n">
-        <v>29.72972972972973</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L244" t="n">
         <v>136.6</v>
@@ -12723,7 +12741,7 @@
         <v>275</v>
       </c>
       <c r="K245" t="n">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L245" t="n">
         <v>137.3</v>
@@ -12774,7 +12792,7 @@
         <v>276</v>
       </c>
       <c r="K246" t="n">
-        <v>29.72972972972973</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L246" t="n">
         <v>138</v>
@@ -12825,7 +12843,7 @@
         <v>276</v>
       </c>
       <c r="K247" t="n">
-        <v>29.72972972972973</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L247" t="n">
         <v>138.8</v>
@@ -12876,7 +12894,7 @@
         <v>278</v>
       </c>
       <c r="K248" t="n">
-        <v>26.31578947368421</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L248" t="n">
         <v>139.2</v>
@@ -12927,7 +12945,7 @@
         <v>278</v>
       </c>
       <c r="K249" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>139.5</v>
@@ -12978,7 +12996,7 @@
         <v>279</v>
       </c>
       <c r="K250" t="n">
-        <v>22.22222222222222</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L250" t="n">
         <v>139.6</v>
@@ -13029,7 +13047,7 @@
         <v>280</v>
       </c>
       <c r="K251" t="n">
-        <v>18.91891891891892</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L251" t="n">
         <v>138.8</v>
@@ -13080,7 +13098,7 @@
         <v>281</v>
       </c>
       <c r="K252" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>137.9</v>
@@ -13131,7 +13149,7 @@
         <v>285</v>
       </c>
       <c r="K253" t="n">
-        <v>4.761904761904762</v>
+        <v>-80</v>
       </c>
       <c r="L253" t="n">
         <v>137.5</v>
@@ -13182,7 +13200,7 @@
         <v>288</v>
       </c>
       <c r="K254" t="n">
-        <v>6.976744186046512</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L254" t="n">
         <v>137</v>
@@ -13233,7 +13251,7 @@
         <v>292</v>
       </c>
       <c r="K255" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>136.9</v>
@@ -13284,7 +13302,7 @@
         <v>296</v>
       </c>
       <c r="K256" t="n">
-        <v>6.122448979591836</v>
+        <v>-20</v>
       </c>
       <c r="L256" t="n">
         <v>136.5</v>
@@ -13335,7 +13353,7 @@
         <v>298</v>
       </c>
       <c r="K257" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>136.3</v>
@@ -13386,7 +13404,7 @@
         <v>299</v>
       </c>
       <c r="K258" t="n">
-        <v>6.122448979591836</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L258" t="n">
         <v>136.2</v>
@@ -13437,7 +13455,7 @@
         <v>300</v>
       </c>
       <c r="K259" t="n">
-        <v>6.122448979591836</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L259" t="n">
         <v>136.2</v>
@@ -13539,7 +13557,7 @@
         <v>300</v>
       </c>
       <c r="K261" t="n">
-        <v>-21.05263157894737</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L261" t="n">
         <v>136.1</v>
@@ -13590,7 +13608,7 @@
         <v>301</v>
       </c>
       <c r="K262" t="n">
-        <v>-17.94871794871795</v>
+        <v>37.5</v>
       </c>
       <c r="L262" t="n">
         <v>136.3</v>
@@ -13641,7 +13659,7 @@
         <v>301</v>
       </c>
       <c r="K263" t="n">
-        <v>6.666666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L263" t="n">
         <v>136.9</v>
@@ -13692,7 +13710,7 @@
         <v>304</v>
       </c>
       <c r="K264" t="n">
-        <v>3.448275862068965</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L264" t="n">
         <v>137.5</v>
@@ -13743,7 +13761,7 @@
         <v>306</v>
       </c>
       <c r="K265" t="n">
-        <v>-3.225806451612903</v>
+        <v>40</v>
       </c>
       <c r="L265" t="n">
         <v>137.5</v>
@@ -13794,7 +13812,7 @@
         <v>307</v>
       </c>
       <c r="K266" t="n">
-        <v>-3.225806451612903</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L266" t="n">
         <v>137.8</v>
@@ -13845,7 +13863,7 @@
         <v>310</v>
       </c>
       <c r="K267" t="n">
-        <v>5.88235294117647</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L267" t="n">
         <v>138.2</v>
@@ -13896,7 +13914,7 @@
         <v>312</v>
       </c>
       <c r="K268" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L268" t="n">
         <v>138.9</v>
@@ -13947,7 +13965,7 @@
         <v>314</v>
       </c>
       <c r="K269" t="n">
-        <v>22.22222222222222</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L269" t="n">
         <v>139.7</v>
@@ -13998,7 +14016,7 @@
         <v>315</v>
       </c>
       <c r="K270" t="n">
-        <v>16.66666666666666</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L270" t="n">
         <v>140.4</v>
@@ -14049,7 +14067,7 @@
         <v>316</v>
       </c>
       <c r="K271" t="n">
-        <v>22.22222222222222</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L271" t="n">
         <v>141.2</v>
@@ -14100,7 +14118,7 @@
         <v>318</v>
       </c>
       <c r="K272" t="n">
-        <v>29.72972972972973</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L272" t="n">
         <v>142.1</v>
@@ -14151,7 +14169,7 @@
         <v>321</v>
       </c>
       <c r="K273" t="n">
-        <v>33.33333333333333</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L273" t="n">
         <v>142.7</v>
@@ -14202,7 +14220,7 @@
         <v>327</v>
       </c>
       <c r="K274" t="n">
-        <v>38.46153846153847</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L274" t="n">
         <v>143.6</v>
@@ -14253,7 +14271,7 @@
         <v>329</v>
       </c>
       <c r="K275" t="n">
-        <v>35.13513513513514</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L275" t="n">
         <v>144.9</v>
@@ -14304,7 +14322,7 @@
         <v>332</v>
       </c>
       <c r="K276" t="n">
-        <v>38.88888888888889</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L276" t="n">
         <v>146</v>
@@ -14355,7 +14373,7 @@
         <v>333</v>
       </c>
       <c r="K277" t="n">
-        <v>37.14285714285715</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L277" t="n">
         <v>146.9</v>
@@ -14406,7 +14424,7 @@
         <v>336</v>
       </c>
       <c r="K278" t="n">
-        <v>29.72972972972973</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L278" t="n">
         <v>147.3</v>
@@ -14457,7 +14475,7 @@
         <v>336</v>
       </c>
       <c r="K279" t="n">
-        <v>27.77777777777778</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L279" t="n">
         <v>147.5</v>
@@ -14508,7 +14526,7 @@
         <v>338</v>
       </c>
       <c r="K280" t="n">
-        <v>31.57894736842105</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L280" t="n">
         <v>148</v>
@@ -14559,7 +14577,7 @@
         <v>338</v>
       </c>
       <c r="K281" t="n">
-        <v>31.57894736842105</v>
+        <v>10</v>
       </c>
       <c r="L281" t="n">
         <v>148.4</v>
@@ -14610,7 +14628,7 @@
         <v>341</v>
       </c>
       <c r="K282" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L282" t="n">
         <v>148.3</v>
@@ -14661,7 +14679,7 @@
         <v>344</v>
       </c>
       <c r="K283" t="n">
-        <v>25.58139534883721</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L283" t="n">
         <v>148.8</v>
@@ -14712,7 +14730,7 @@
         <v>344</v>
       </c>
       <c r="K284" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L284" t="n">
         <v>148.7</v>
@@ -14763,7 +14781,7 @@
         <v>348</v>
       </c>
       <c r="K285" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L285" t="n">
         <v>148.8</v>
@@ -14814,7 +14832,7 @@
         <v>349</v>
       </c>
       <c r="K286" t="n">
-        <v>33.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L286" t="n">
         <v>149.1</v>
@@ -14865,7 +14883,7 @@
         <v>350</v>
       </c>
       <c r="K287" t="n">
-        <v>30</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L287" t="n">
         <v>149.4</v>
@@ -14916,7 +14934,7 @@
         <v>350</v>
       </c>
       <c r="K288" t="n">
-        <v>26.31578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L288" t="n">
         <v>150</v>
@@ -14967,7 +14985,7 @@
         <v>351</v>
       </c>
       <c r="K289" t="n">
-        <v>24.32432432432433</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L289" t="n">
         <v>150.7</v>
@@ -15018,7 +15036,7 @@
         <v>352</v>
       </c>
       <c r="K290" t="n">
-        <v>24.32432432432433</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L290" t="n">
         <v>151.1</v>
@@ -15069,7 +15087,7 @@
         <v>353</v>
       </c>
       <c r="K291" t="n">
-        <v>18.91891891891892</v>
+        <v>50</v>
       </c>
       <c r="L291" t="n">
         <v>151.4</v>
@@ -15120,7 +15138,7 @@
         <v>353</v>
       </c>
       <c r="K292" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>152</v>
@@ -15171,7 +15189,7 @@
         <v>354</v>
       </c>
       <c r="K293" t="n">
-        <v>21.21212121212121</v>
+        <v>20</v>
       </c>
       <c r="L293" t="n">
         <v>152.2</v>
@@ -15222,7 +15240,7 @@
         <v>359</v>
       </c>
       <c r="K294" t="n">
-        <v>-12.5</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L294" t="n">
         <v>151.9</v>

--- a/BackTest/2019-11-17 BackTest FX.xlsx
+++ b/BackTest/2019-11-17 BackTest FX.xlsx
@@ -451,20 +451,14 @@
         <v>112.1166666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>119</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>112.2666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>118</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>112.4166666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>119</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>112.5666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>119</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>112.6666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>116</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>112.75</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>116</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>112.8666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>116</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>112.9833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>116</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>113.0833333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>116</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>113.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>117</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>113.3166666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>117</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>113.45</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>117</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>113.5833333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>118</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>113.7333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>119</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>113.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>120</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>114.05</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>119</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1114,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1153,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1192,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1231,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1270,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1348,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1387,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1465,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1504,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1543,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1582,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1621,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1660,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1777,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1894,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1972,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2050,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2082,20 +1886,14 @@
         <v>116.7833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>116</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2123,20 +1921,14 @@
         <v>116.8333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>116</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2164,20 +1956,14 @@
         <v>116.9166666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>118</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2205,20 +1991,14 @@
         <v>117</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>118</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2246,20 +2026,14 @@
         <v>117.0166666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>116</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2294,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2326,20 +2096,14 @@
         <v>117.1333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>116</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2367,20 +2131,14 @@
         <v>117.1666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>116</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2408,20 +2166,14 @@
         <v>117.1833333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>116</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2449,20 +2201,14 @@
         <v>117.1833333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>115</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2490,20 +2236,14 @@
         <v>117.1833333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>114</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2531,20 +2271,14 @@
         <v>117.1833333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>114</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2572,20 +2306,14 @@
         <v>117.2166666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>116</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2613,20 +2341,14 @@
         <v>117.2</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>114</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2654,20 +2376,14 @@
         <v>117.2333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>115</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2701,12 +2417,12 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2742,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
@@ -2783,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
@@ -2906,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
@@ -2982,14 +2698,12 @@
         <v>117.1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>116</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -3023,14 +2737,12 @@
         <v>117.1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>116</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -3064,14 +2776,12 @@
         <v>117.1333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>117</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -3105,14 +2815,12 @@
         <v>117.15</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>116</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -3146,14 +2854,12 @@
         <v>117.1333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>116</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -3187,14 +2893,12 @@
         <v>117.1333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>116</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3228,14 +2932,12 @@
         <v>117.1333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>117</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3269,14 +2971,12 @@
         <v>117.1166666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>116</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3310,14 +3010,12 @@
         <v>117.1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>117</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3351,14 +3049,12 @@
         <v>117.0833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>117</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3392,14 +3088,12 @@
         <v>117.05</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>117</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3433,14 +3127,12 @@
         <v>117</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>117</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3474,14 +3166,12 @@
         <v>116.95</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>116</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3515,14 +3205,12 @@
         <v>116.9</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>116</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3556,14 +3244,12 @@
         <v>116.8666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>116</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3597,14 +3283,12 @@
         <v>116.8166666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>116</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3638,14 +3322,12 @@
         <v>116.7833333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>117</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3679,14 +3361,12 @@
         <v>116.7166666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>117</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3720,14 +3400,12 @@
         <v>116.6666666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>117</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3761,14 +3439,12 @@
         <v>116.6166666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>116</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3802,14 +3478,12 @@
         <v>116.5666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>116</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3843,14 +3517,12 @@
         <v>116.5166666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>116</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3884,14 +3556,12 @@
         <v>116.4666666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>116</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3925,14 +3595,12 @@
         <v>116.4166666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>116</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3966,14 +3634,12 @@
         <v>116.4</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>117</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -4007,14 +3673,12 @@
         <v>116.3833333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>116</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -4048,14 +3712,12 @@
         <v>116.3666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>116</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -4089,14 +3751,12 @@
         <v>116.3666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>116</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -4130,14 +3790,12 @@
         <v>116.35</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>116</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -4171,14 +3829,12 @@
         <v>116.3166666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>115</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -4212,14 +3868,12 @@
         <v>116.2833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>117</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -4253,14 +3907,12 @@
         <v>116.2666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>117</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4294,14 +3946,12 @@
         <v>116.2666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>117</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4335,14 +3985,12 @@
         <v>116.2666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>117</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4376,14 +4024,12 @@
         <v>116.25</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>117</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4417,14 +4063,12 @@
         <v>116.25</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>116</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4458,14 +4102,12 @@
         <v>116.2833333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>118</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4499,14 +4141,12 @@
         <v>116.3333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>118</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4540,14 +4180,12 @@
         <v>116.4166666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>119</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4581,14 +4219,12 @@
         <v>116.4833333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>121</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -5288,16 +4924,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5325,11 +4963,15 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5360,11 +5002,15 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5395,11 +5041,15 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5430,11 +5080,15 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5465,11 +5119,15 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5158,15 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5539,7 +5201,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5574,7 +5240,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5609,7 +5279,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5644,7 +5318,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5679,7 +5357,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5714,7 +5396,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5749,7 +5435,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5784,7 +5474,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5819,7 +5513,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5854,7 +5552,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5889,7 +5591,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5924,7 +5630,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5959,7 +5669,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5994,7 +5708,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6029,7 +5747,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6064,7 +5786,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6099,7 +5825,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6134,7 +5864,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6169,7 +5903,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6204,7 +5942,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6239,7 +5981,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6274,7 +6020,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6309,7 +6059,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6344,7 +6098,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6379,7 +6137,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6414,7 +6176,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6449,7 +6215,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6484,7 +6254,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6519,7 +6293,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6554,7 +6332,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6589,7 +6371,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6624,7 +6410,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6449,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6694,7 +6488,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6729,7 +6527,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6764,7 +6566,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6799,7 +6605,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6834,7 +6644,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6869,7 +6683,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6904,7 +6722,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6939,7 +6761,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6974,7 +6800,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7009,7 +6839,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7044,7 +6878,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7079,7 +6917,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7114,7 +6956,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7149,7 +6995,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7184,7 +7034,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7219,7 +7073,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7254,7 +7112,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7289,7 +7151,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7324,7 +7190,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7359,7 +7229,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7394,7 +7268,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7429,7 +7307,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7464,7 +7346,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7499,7 +7385,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7534,7 +7424,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7569,7 +7463,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7604,7 +7502,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7639,7 +7541,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7674,7 +7580,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7709,7 +7619,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7744,7 +7658,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7779,7 +7697,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7736,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7849,7 +7775,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7884,7 +7814,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7919,7 +7853,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7954,7 +7892,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7989,7 +7931,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8024,7 +7970,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8059,7 +8009,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8094,7 +8048,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8129,7 +8087,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8164,7 +8126,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8199,7 +8165,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8234,7 +8204,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8269,7 +8243,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8304,7 +8282,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8339,7 +8321,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8374,7 +8360,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8409,7 +8399,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8444,7 +8438,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8479,7 +8477,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8514,7 +8516,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8549,7 +8555,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8584,7 +8594,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8619,7 +8633,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8654,7 +8672,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8689,7 +8711,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8724,7 +8750,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8759,7 +8789,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8794,7 +8828,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8829,7 +8867,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8864,7 +8906,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8899,7 +8945,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8934,7 +8984,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9023,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9004,7 +9062,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9039,7 +9101,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9074,7 +9140,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9109,7 +9179,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9144,7 +9218,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9179,7 +9257,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9214,7 +9296,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9249,7 +9335,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9284,7 +9374,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9319,7 +9413,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9354,7 +9452,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9389,7 +9491,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9424,7 +9530,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9459,7 +9569,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9494,7 +9608,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9529,7 +9647,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9560,14 +9682,16 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">

--- a/BackTest/2019-11-17 BackTest FX.xlsx
+++ b/BackTest/2019-11-17 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:M274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="n">
         <v>118</v>
       </c>
       <c r="F2" t="n">
-        <v>4764.8205</v>
+        <v>8780.58232881356</v>
       </c>
       <c r="G2" t="n">
-        <v>112.1166666666667</v>
+        <v>111.9666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="n">
         <v>119</v>
@@ -480,10 +480,10 @@
         <v>118</v>
       </c>
       <c r="F3" t="n">
-        <v>5890.6941</v>
+        <v>4764.8205</v>
       </c>
       <c r="G3" t="n">
-        <v>112.2666666666667</v>
+        <v>112.1166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
         <v>119</v>
@@ -512,13 +512,13 @@
         <v>119</v>
       </c>
       <c r="E4" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" t="n">
-        <v>122.5473285714286</v>
+        <v>5890.6941</v>
       </c>
       <c r="G4" t="n">
-        <v>112.4166666666667</v>
+        <v>112.2666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>119</v>
       </c>
       <c r="F5" t="n">
-        <v>1477.9892</v>
+        <v>122.5473285714286</v>
       </c>
       <c r="G5" t="n">
-        <v>112.5666666666667</v>
+        <v>112.4166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>1477.9892</v>
       </c>
       <c r="G6" t="n">
-        <v>112.6666666666667</v>
+        <v>112.5666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>116</v>
       </c>
       <c r="C7" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" t="n">
         <v>116</v>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" t="n">
-        <v>1540.5028</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>112.75</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>116</v>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>1209.1778</v>
+        <v>1540.5028</v>
       </c>
       <c r="G8" t="n">
-        <v>112.8666666666667</v>
+        <v>112.75</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>116</v>
       </c>
       <c r="F9" t="n">
-        <v>1065.8659</v>
+        <v>1209.1778</v>
       </c>
       <c r="G9" t="n">
-        <v>112.9833333333333</v>
+        <v>112.8666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>116</v>
       </c>
       <c r="C10" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D10" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" t="n">
         <v>116</v>
       </c>
       <c r="F10" t="n">
-        <v>698.0282</v>
+        <v>1065.8659</v>
       </c>
       <c r="G10" t="n">
-        <v>113.0833333333333</v>
+        <v>112.9833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" t="n">
-        <v>4.6755</v>
+        <v>698.0282</v>
       </c>
       <c r="G11" t="n">
-        <v>113.2</v>
+        <v>113.0833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>117</v>
       </c>
       <c r="F12" t="n">
-        <v>1093.4049</v>
+        <v>4.6755</v>
       </c>
       <c r="G12" t="n">
-        <v>113.3166666666667</v>
+        <v>113.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>117</v>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
         <v>117</v>
       </c>
       <c r="F13" t="n">
-        <v>4408.2401</v>
+        <v>1093.4049</v>
       </c>
       <c r="G13" t="n">
-        <v>113.45</v>
+        <v>113.3166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" t="n">
         <v>118</v>
@@ -862,13 +862,13 @@
         <v>118</v>
       </c>
       <c r="E14" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" t="n">
-        <v>3565.4394</v>
+        <v>4408.2401</v>
       </c>
       <c r="G14" t="n">
-        <v>113.5833333333333</v>
+        <v>113.45</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,31 +888,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" t="n">
-        <v>6130.882471428571</v>
+        <v>3565.4394</v>
       </c>
       <c r="G15" t="n">
-        <v>113.7333333333333</v>
+        <v>113.5833333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>118</v>
+      </c>
+      <c r="K15" t="n">
+        <v>118</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -923,32 +927,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" t="n">
-        <v>18179.1922</v>
+        <v>6130.882471428571</v>
       </c>
       <c r="G16" t="n">
-        <v>113.9</v>
+        <v>113.7333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>118</v>
+      </c>
+      <c r="K16" t="n">
+        <v>118</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +970,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>18179.1922</v>
       </c>
       <c r="G17" t="n">
-        <v>114.05</v>
+        <v>113.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +994,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>118</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1005,10 +1023,10 @@
         <v>119</v>
       </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>114.2</v>
+        <v>114.05</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1058,10 @@
         <v>119</v>
       </c>
       <c r="F19" t="n">
-        <v>3565.4394</v>
+        <v>4.3</v>
       </c>
       <c r="G19" t="n">
-        <v>114.35</v>
+        <v>114.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1093,10 @@
         <v>119</v>
       </c>
       <c r="F20" t="n">
-        <v>1135.177028571429</v>
+        <v>3565.4394</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5</v>
+        <v>114.35</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1128,10 @@
         <v>119</v>
       </c>
       <c r="F21" t="n">
-        <v>7698.839271428571</v>
+        <v>1135.177028571429</v>
       </c>
       <c r="G21" t="n">
-        <v>114.65</v>
+        <v>114.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1139,16 +1157,16 @@
         <v>119</v>
       </c>
       <c r="D22" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="n">
         <v>119</v>
       </c>
       <c r="F22" t="n">
-        <v>7178.1537</v>
+        <v>7698.839271428571</v>
       </c>
       <c r="G22" t="n">
-        <v>114.8</v>
+        <v>114.65</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1174,16 +1192,16 @@
         <v>119</v>
       </c>
       <c r="D23" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" t="n">
         <v>119</v>
       </c>
       <c r="F23" t="n">
-        <v>22441.9458</v>
+        <v>7178.1537</v>
       </c>
       <c r="G23" t="n">
-        <v>114.95</v>
+        <v>114.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1233,10 @@
         <v>119</v>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>22441.9458</v>
       </c>
       <c r="G24" t="n">
-        <v>115.1</v>
+        <v>114.95</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1268,10 @@
         <v>119</v>
       </c>
       <c r="F25" t="n">
-        <v>3025.546528571429</v>
+        <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>115.2666666666667</v>
+        <v>115.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1303,10 @@
         <v>119</v>
       </c>
       <c r="F26" t="n">
-        <v>1617.1452</v>
+        <v>3025.546528571429</v>
       </c>
       <c r="G26" t="n">
-        <v>115.4333333333333</v>
+        <v>115.2666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1338,10 @@
         <v>119</v>
       </c>
       <c r="F27" t="n">
-        <v>1600</v>
+        <v>1617.1452</v>
       </c>
       <c r="G27" t="n">
-        <v>115.5666666666667</v>
+        <v>115.4333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" t="n">
-        <v>482.1281</v>
+        <v>1600</v>
       </c>
       <c r="G28" t="n">
-        <v>115.6833333333333</v>
+        <v>115.5666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" t="n">
         <v>118</v>
@@ -1387,13 +1405,13 @@
         <v>118</v>
       </c>
       <c r="E29" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" t="n">
-        <v>710.3899</v>
+        <v>482.1281</v>
       </c>
       <c r="G29" t="n">
-        <v>115.7833333333333</v>
+        <v>115.6833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1434,19 @@
         <v>117</v>
       </c>
       <c r="C30" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30" t="n">
         <v>117</v>
       </c>
       <c r="F30" t="n">
-        <v>2639.7702</v>
+        <v>710.3899</v>
       </c>
       <c r="G30" t="n">
-        <v>115.85</v>
+        <v>115.7833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1478,10 @@
         <v>117</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>2639.7702</v>
       </c>
       <c r="G31" t="n">
-        <v>115.9333333333333</v>
+        <v>115.85</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1513,10 @@
         <v>117</v>
       </c>
       <c r="F32" t="n">
-        <v>8570.625899999999</v>
+        <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>116.0166666666667</v>
+        <v>115.9333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1548,10 @@
         <v>117</v>
       </c>
       <c r="F33" t="n">
-        <v>4439.4269</v>
+        <v>8570.625899999999</v>
       </c>
       <c r="G33" t="n">
-        <v>116.1</v>
+        <v>116.0166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1583,10 @@
         <v>117</v>
       </c>
       <c r="F34" t="n">
-        <v>3358.3395</v>
+        <v>4439.4269</v>
       </c>
       <c r="G34" t="n">
-        <v>116.2</v>
+        <v>116.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1606,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D35" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>3358.3395</v>
       </c>
       <c r="G35" t="n">
-        <v>116.3333333333333</v>
+        <v>116.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E36" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F36" t="n">
-        <v>11.4099</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>116.4333333333333</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F37" t="n">
-        <v>5520.727164102565</v>
+        <v>11.4099</v>
       </c>
       <c r="G37" t="n">
-        <v>116.4833333333333</v>
+        <v>116.4333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1723,10 @@
         <v>117</v>
       </c>
       <c r="F38" t="n">
-        <v>5561.203435897436</v>
+        <v>5520.727164102565</v>
       </c>
       <c r="G38" t="n">
-        <v>116.5333333333333</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1746,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" t="n">
-        <v>23.2981</v>
+        <v>5561.203435897436</v>
       </c>
       <c r="G39" t="n">
-        <v>116.6</v>
+        <v>116.5333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1781,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F40" t="n">
-        <v>5369.0323</v>
+        <v>23.2981</v>
       </c>
       <c r="G40" t="n">
-        <v>116.65</v>
+        <v>116.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1828,10 @@
         <v>116</v>
       </c>
       <c r="F41" t="n">
-        <v>14148.9302</v>
+        <v>5369.0323</v>
       </c>
       <c r="G41" t="n">
-        <v>116.7</v>
+        <v>116.65</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1854,19 @@
         <v>116</v>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" t="n">
         <v>116</v>
       </c>
       <c r="E42" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" t="n">
-        <v>1113.9191</v>
+        <v>14148.9302</v>
       </c>
       <c r="G42" t="n">
-        <v>116.7333333333333</v>
+        <v>116.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1889,19 @@
         <v>116</v>
       </c>
       <c r="C43" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" t="n">
         <v>116</v>
       </c>
       <c r="E43" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" t="n">
-        <v>31.2972</v>
+        <v>1113.9191</v>
       </c>
       <c r="G43" t="n">
-        <v>116.7833333333333</v>
+        <v>116.7333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1933,10 @@
         <v>116</v>
       </c>
       <c r="F44" t="n">
-        <v>64</v>
+        <v>31.2972</v>
       </c>
       <c r="G44" t="n">
-        <v>116.8333333333333</v>
+        <v>116.7833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1956,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F45" t="n">
-        <v>4.3</v>
+        <v>64</v>
       </c>
       <c r="G45" t="n">
-        <v>116.9166666666667</v>
+        <v>116.8333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2003,10 @@
         <v>118</v>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="G46" t="n">
-        <v>117</v>
+        <v>116.9166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2026,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C47" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D47" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E47" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F47" t="n">
-        <v>420.33</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>117.0166666666667</v>
+        <v>117</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2061,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F48" t="n">
-        <v>7830.7064</v>
+        <v>420.33</v>
       </c>
       <c r="G48" t="n">
-        <v>117.0666666666667</v>
+        <v>117.0166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2096,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" t="n">
         <v>117</v>
@@ -2087,13 +2105,13 @@
         <v>117</v>
       </c>
       <c r="E49" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49" t="n">
-        <v>2402.3</v>
+        <v>7830.7064</v>
       </c>
       <c r="G49" t="n">
-        <v>117.1333333333333</v>
+        <v>117.0666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2134,19 @@
         <v>116</v>
       </c>
       <c r="C50" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E50" t="n">
         <v>116</v>
       </c>
       <c r="F50" t="n">
-        <v>99</v>
+        <v>2402.3</v>
       </c>
       <c r="G50" t="n">
-        <v>117.1666666666667</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2169,19 @@
         <v>116</v>
       </c>
       <c r="C51" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" t="n">
         <v>116</v>
       </c>
       <c r="E51" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" t="n">
-        <v>3264.1479</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
-        <v>117.1833333333333</v>
+        <v>117.1666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,19 +2201,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" t="n">
         <v>115</v>
       </c>
       <c r="D52" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E52" t="n">
         <v>115</v>
       </c>
       <c r="F52" t="n">
-        <v>14687.1777</v>
+        <v>3264.1479</v>
       </c>
       <c r="G52" t="n">
         <v>117.1833333333333</v>
@@ -2218,7 +2236,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" t="n">
         <v>115</v>
@@ -2227,10 +2245,10 @@
         <v>115</v>
       </c>
       <c r="E53" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F53" t="n">
-        <v>2090.7338</v>
+        <v>14687.1777</v>
       </c>
       <c r="G53" t="n">
         <v>117.1833333333333</v>
@@ -2256,16 +2274,16 @@
         <v>114</v>
       </c>
       <c r="C54" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D54" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" t="n">
         <v>114</v>
       </c>
       <c r="F54" t="n">
-        <v>1829.4977</v>
+        <v>2090.7338</v>
       </c>
       <c r="G54" t="n">
         <v>117.1833333333333</v>
@@ -2288,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E55" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F55" t="n">
-        <v>758.4738</v>
+        <v>1829.4977</v>
       </c>
       <c r="G55" t="n">
-        <v>117.2166666666667</v>
+        <v>117.1833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,31 +2341,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>116</v>
+      </c>
+      <c r="C56" t="n">
+        <v>116</v>
+      </c>
+      <c r="D56" t="n">
+        <v>116</v>
+      </c>
+      <c r="E56" t="n">
+        <v>116</v>
+      </c>
+      <c r="F56" t="n">
+        <v>758.4738</v>
+      </c>
+      <c r="G56" t="n">
+        <v>117.2166666666667</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>114</v>
       </c>
-      <c r="C56" t="n">
+      <c r="K56" t="n">
         <v>114</v>
       </c>
-      <c r="D56" t="n">
-        <v>114</v>
-      </c>
-      <c r="E56" t="n">
-        <v>114</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3281.4242</v>
-      </c>
-      <c r="G56" t="n">
-        <v>117.2</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2358,22 +2380,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E57" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F57" t="n">
-        <v>1425.8707</v>
+        <v>3281.4242</v>
       </c>
       <c r="G57" t="n">
-        <v>117.2333333333333</v>
+        <v>117.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>114</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,36 +2421,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" t="n">
+        <v>115</v>
+      </c>
+      <c r="D58" t="n">
+        <v>115</v>
+      </c>
+      <c r="E58" t="n">
+        <v>115</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1425.8707</v>
+      </c>
+      <c r="G58" t="n">
+        <v>117.2333333333333</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
         <v>114</v>
       </c>
-      <c r="D58" t="n">
-        <v>116</v>
-      </c>
-      <c r="E58" t="n">
-        <v>114</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2720.4</v>
-      </c>
-      <c r="G58" t="n">
-        <v>117.25</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>115</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2437,35 +2465,29 @@
         <v>116</v>
       </c>
       <c r="C59" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D59" t="n">
         <v>116</v>
       </c>
       <c r="E59" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F59" t="n">
-        <v>566.037</v>
+        <v>2720.4</v>
       </c>
       <c r="G59" t="n">
-        <v>117.2166666666667</v>
+        <v>117.25</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>114</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,38 +2497,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" t="n">
-        <v>2137.6872</v>
+        <v>566.037</v>
       </c>
       <c r="G60" t="n">
-        <v>117.2333333333333</v>
+        <v>117.2166666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>116</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2528,26 +2544,20 @@
         <v>117</v>
       </c>
       <c r="F61" t="n">
-        <v>865.0823</v>
+        <v>2137.6872</v>
       </c>
       <c r="G61" t="n">
-        <v>117.2166666666667</v>
+        <v>117.2333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>117</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2569,26 +2579,20 @@
         <v>117</v>
       </c>
       <c r="F62" t="n">
-        <v>782.8622</v>
+        <v>865.0823</v>
       </c>
       <c r="G62" t="n">
-        <v>117.1833333333333</v>
+        <v>117.2166666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>117</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2598,38 +2602,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63" t="n">
-        <v>4.3</v>
+        <v>782.8622</v>
       </c>
       <c r="G63" t="n">
-        <v>117.1666666666667</v>
+        <v>117.1833333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>117</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2651,26 +2649,20 @@
         <v>118</v>
       </c>
       <c r="F64" t="n">
-        <v>9865.8487</v>
+        <v>4.3</v>
       </c>
       <c r="G64" t="n">
-        <v>117.15</v>
+        <v>117.1666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>118</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2680,22 +2672,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C65" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D65" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F65" t="n">
-        <v>278.9448</v>
+        <v>9865.8487</v>
       </c>
       <c r="G65" t="n">
-        <v>117.1</v>
+        <v>117.15</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2705,11 +2697,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2731,7 +2719,7 @@
         <v>116</v>
       </c>
       <c r="F66" t="n">
-        <v>188.7743</v>
+        <v>278.9448</v>
       </c>
       <c r="G66" t="n">
         <v>117.1</v>
@@ -2744,11 +2732,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2758,22 +2742,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" t="n">
-        <v>2875.2587</v>
+        <v>188.7743</v>
       </c>
       <c r="G67" t="n">
-        <v>117.1333333333333</v>
+        <v>117.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2783,11 +2767,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2797,22 +2777,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F68" t="n">
-        <v>18233.3645</v>
+        <v>2875.2587</v>
       </c>
       <c r="G68" t="n">
-        <v>117.15</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2822,11 +2802,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2839,19 +2815,19 @@
         <v>116</v>
       </c>
       <c r="C69" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D69" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" t="n">
         <v>116</v>
       </c>
       <c r="F69" t="n">
-        <v>179.3356</v>
+        <v>18233.3645</v>
       </c>
       <c r="G69" t="n">
-        <v>117.1333333333333</v>
+        <v>117.15</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2861,11 +2837,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2887,7 +2859,7 @@
         <v>116</v>
       </c>
       <c r="F70" t="n">
-        <v>6691.1955</v>
+        <v>179.3356</v>
       </c>
       <c r="G70" t="n">
         <v>117.1333333333333</v>
@@ -2900,11 +2872,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2914,19 +2882,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>6691.1955</v>
       </c>
       <c r="G71" t="n">
         <v>117.1333333333333</v>
@@ -2939,11 +2907,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +2917,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F72" t="n">
-        <v>38.7364</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>117.1166666666667</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2978,11 +2942,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2992,22 +2952,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D73" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F73" t="n">
-        <v>3328</v>
+        <v>38.7364</v>
       </c>
       <c r="G73" t="n">
-        <v>117.1</v>
+        <v>117.1166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3017,11 +2977,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3043,10 +2999,10 @@
         <v>117</v>
       </c>
       <c r="F74" t="n">
-        <v>135.6715</v>
+        <v>3328</v>
       </c>
       <c r="G74" t="n">
-        <v>117.0833333333333</v>
+        <v>117.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3056,11 +3012,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3082,10 +3034,10 @@
         <v>117</v>
       </c>
       <c r="F75" t="n">
-        <v>1283.6958</v>
+        <v>135.6715</v>
       </c>
       <c r="G75" t="n">
-        <v>117.05</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3095,11 +3047,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3121,10 +3069,10 @@
         <v>117</v>
       </c>
       <c r="F76" t="n">
-        <v>5498.159</v>
+        <v>1283.6958</v>
       </c>
       <c r="G76" t="n">
-        <v>117</v>
+        <v>117.05</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3134,11 +3082,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3148,22 +3092,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>5498.159</v>
       </c>
       <c r="G77" t="n">
-        <v>116.95</v>
+        <v>117</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3173,11 +3117,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3199,10 +3139,10 @@
         <v>116</v>
       </c>
       <c r="F78" t="n">
-        <v>11269.7921</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>116.9</v>
+        <v>116.95</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3212,11 +3152,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3229,19 +3165,19 @@
         <v>116</v>
       </c>
       <c r="C79" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D79" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" t="n">
         <v>116</v>
       </c>
       <c r="F79" t="n">
-        <v>11547.7096</v>
+        <v>11269.7921</v>
       </c>
       <c r="G79" t="n">
-        <v>116.8666666666667</v>
+        <v>116.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3251,11 +3187,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3268,19 +3200,19 @@
         <v>116</v>
       </c>
       <c r="C80" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D80" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" t="n">
         <v>116</v>
       </c>
       <c r="F80" t="n">
-        <v>3283.6235</v>
+        <v>11547.7096</v>
       </c>
       <c r="G80" t="n">
-        <v>116.8166666666667</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3290,11 +3222,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3304,22 +3232,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E81" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>3283.6235</v>
       </c>
       <c r="G81" t="n">
-        <v>116.7833333333333</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3329,11 +3257,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3346,19 +3270,19 @@
         <v>117</v>
       </c>
       <c r="C82" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D82" t="n">
         <v>117</v>
       </c>
       <c r="E82" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F82" t="n">
-        <v>8748.4985</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>116.7166666666667</v>
+        <v>116.7833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3368,11 +3292,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3385,7 +3305,7 @@
         <v>117</v>
       </c>
       <c r="C83" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83" t="n">
         <v>117</v>
@@ -3394,10 +3314,10 @@
         <v>115</v>
       </c>
       <c r="F83" t="n">
-        <v>9873.8652</v>
+        <v>8748.4985</v>
       </c>
       <c r="G83" t="n">
-        <v>116.6666666666667</v>
+        <v>116.7166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3407,11 +3327,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3421,22 +3337,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" t="n">
         <v>116</v>
       </c>
       <c r="D84" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F84" t="n">
-        <v>480.5228</v>
+        <v>9873.8652</v>
       </c>
       <c r="G84" t="n">
-        <v>116.6166666666667</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3446,11 +3362,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3472,10 +3384,10 @@
         <v>116</v>
       </c>
       <c r="F85" t="n">
-        <v>7738.7203</v>
+        <v>480.5228</v>
       </c>
       <c r="G85" t="n">
-        <v>116.5666666666667</v>
+        <v>116.6166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3485,11 +3397,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3511,10 +3419,10 @@
         <v>116</v>
       </c>
       <c r="F86" t="n">
-        <v>4587.7632</v>
+        <v>7738.7203</v>
       </c>
       <c r="G86" t="n">
-        <v>116.5166666666667</v>
+        <v>116.5666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3524,11 +3432,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3550,10 +3454,10 @@
         <v>116</v>
       </c>
       <c r="F87" t="n">
-        <v>4430.4015</v>
+        <v>4587.7632</v>
       </c>
       <c r="G87" t="n">
-        <v>116.4666666666667</v>
+        <v>116.5166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3563,11 +3467,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3580,19 +3480,19 @@
         <v>116</v>
       </c>
       <c r="C88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D88" t="n">
         <v>116</v>
       </c>
       <c r="E88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F88" t="n">
-        <v>15210.48</v>
+        <v>4430.4015</v>
       </c>
       <c r="G88" t="n">
-        <v>116.4166666666667</v>
+        <v>116.4666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3602,11 +3502,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3616,22 +3512,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E89" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>15210.48</v>
       </c>
       <c r="G89" t="n">
-        <v>116.4</v>
+        <v>116.4166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3641,11 +3537,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3655,22 +3547,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F90" t="n">
-        <v>12737.3108</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>116.3833333333333</v>
+        <v>116.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3680,11 +3572,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3706,10 +3594,10 @@
         <v>116</v>
       </c>
       <c r="F91" t="n">
-        <v>3700.8395</v>
+        <v>12737.3108</v>
       </c>
       <c r="G91" t="n">
-        <v>116.3666666666667</v>
+        <v>116.3833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3719,11 +3607,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3736,16 +3620,16 @@
         <v>116</v>
       </c>
       <c r="C92" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E92" t="n">
         <v>116</v>
       </c>
       <c r="F92" t="n">
-        <v>183.2957</v>
+        <v>3700.8395</v>
       </c>
       <c r="G92" t="n">
         <v>116.3666666666667</v>
@@ -3758,11 +3642,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3775,19 +3655,19 @@
         <v>116</v>
       </c>
       <c r="C93" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D93" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E93" t="n">
         <v>116</v>
       </c>
       <c r="F93" t="n">
-        <v>2356.1577</v>
+        <v>183.2957</v>
       </c>
       <c r="G93" t="n">
-        <v>116.35</v>
+        <v>116.3666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3797,11 +3677,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3811,22 +3687,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C94" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D94" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F94" t="n">
-        <v>8631.371499999999</v>
+        <v>2356.1577</v>
       </c>
       <c r="G94" t="n">
-        <v>116.3166666666667</v>
+        <v>116.35</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3836,11 +3712,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3850,22 +3722,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C95" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D95" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E95" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>8631.371499999999</v>
       </c>
       <c r="G95" t="n">
-        <v>116.2833333333333</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3875,11 +3747,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3901,10 +3769,10 @@
         <v>117</v>
       </c>
       <c r="F96" t="n">
-        <v>731</v>
+        <v>5</v>
       </c>
       <c r="G96" t="n">
-        <v>116.2666666666667</v>
+        <v>116.2833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3914,11 +3782,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3940,7 +3804,7 @@
         <v>117</v>
       </c>
       <c r="F97" t="n">
-        <v>16536.838</v>
+        <v>731</v>
       </c>
       <c r="G97" t="n">
         <v>116.2666666666667</v>
@@ -3953,11 +3817,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3979,7 +3839,7 @@
         <v>117</v>
       </c>
       <c r="F98" t="n">
-        <v>541.843</v>
+        <v>16536.838</v>
       </c>
       <c r="G98" t="n">
         <v>116.2666666666667</v>
@@ -3992,11 +3852,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4018,10 +3874,10 @@
         <v>117</v>
       </c>
       <c r="F99" t="n">
-        <v>5304.1379</v>
+        <v>541.843</v>
       </c>
       <c r="G99" t="n">
-        <v>116.25</v>
+        <v>116.2666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4031,11 +3887,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4045,19 +3897,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F100" t="n">
-        <v>6182.9486</v>
+        <v>5304.1379</v>
       </c>
       <c r="G100" t="n">
         <v>116.25</v>
@@ -4070,11 +3922,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4084,22 +3932,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C101" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D101" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E101" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F101" t="n">
-        <v>5991.3987</v>
+        <v>6182.9486</v>
       </c>
       <c r="G101" t="n">
-        <v>116.2833333333333</v>
+        <v>116.25</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4109,11 +3957,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4135,10 +3979,10 @@
         <v>118</v>
       </c>
       <c r="F102" t="n">
-        <v>1614.2632</v>
+        <v>5991.3987</v>
       </c>
       <c r="G102" t="n">
-        <v>116.3333333333333</v>
+        <v>116.2833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4148,11 +3992,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +4002,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C103" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D103" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E103" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F103" t="n">
-        <v>37692.0931</v>
+        <v>1614.2632</v>
       </c>
       <c r="G103" t="n">
-        <v>116.4166666666667</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4187,11 +4027,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4201,22 +4037,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>119</v>
+      </c>
+      <c r="C104" t="n">
         <v>121</v>
       </c>
-      <c r="C104" t="n">
-        <v>120</v>
-      </c>
       <c r="D104" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F104" t="n">
-        <v>33323.5377</v>
+        <v>37692.0931</v>
       </c>
       <c r="G104" t="n">
-        <v>116.4833333333333</v>
+        <v>116.4166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4226,11 +4062,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4243,19 +4075,19 @@
         <v>121</v>
       </c>
       <c r="C105" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D105" t="n">
         <v>122</v>
       </c>
       <c r="E105" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F105" t="n">
-        <v>9432.8578</v>
+        <v>33323.5377</v>
       </c>
       <c r="G105" t="n">
-        <v>116.55</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4265,11 +4097,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4279,22 +4107,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>121</v>
+      </c>
+      <c r="C106" t="n">
         <v>122</v>
       </c>
-      <c r="C106" t="n">
-        <v>125</v>
-      </c>
       <c r="D106" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E106" t="n">
         <v>121</v>
       </c>
       <c r="F106" t="n">
-        <v>65416.0342</v>
+        <v>9432.8578</v>
       </c>
       <c r="G106" t="n">
-        <v>116.6666666666667</v>
+        <v>116.55</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4304,11 +4132,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4142,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C107" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D107" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E107" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F107" t="n">
-        <v>68090.7838</v>
+        <v>65416.0342</v>
       </c>
       <c r="G107" t="n">
-        <v>116.8833333333333</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4343,11 +4167,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4357,22 +4177,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C108" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D108" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E108" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F108" t="n">
-        <v>2227.2249</v>
+        <v>68090.7838</v>
       </c>
       <c r="G108" t="n">
-        <v>117.05</v>
+        <v>116.8833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4382,11 +4202,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4396,22 +4212,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D109" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E109" t="n">
         <v>125</v>
       </c>
       <c r="F109" t="n">
-        <v>30008.9637</v>
+        <v>2227.2249</v>
       </c>
       <c r="G109" t="n">
-        <v>117.1833333333333</v>
+        <v>117.05</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4421,11 +4237,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4435,22 +4247,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C110" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D110" t="n">
         <v>128</v>
       </c>
       <c r="E110" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F110" t="n">
-        <v>36729.2202</v>
+        <v>30008.9637</v>
       </c>
       <c r="G110" t="n">
-        <v>117.3833333333333</v>
+        <v>117.1833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4460,11 +4272,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4474,36 +4282,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" t="n">
         <v>128</v>
       </c>
       <c r="D111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" t="n">
         <v>128</v>
       </c>
       <c r="F111" t="n">
-        <v>2455.213</v>
+        <v>36729.2202</v>
       </c>
       <c r="G111" t="n">
-        <v>117.6</v>
+        <v>117.3833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4513,36 +4317,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C112" t="n">
         <v>128</v>
       </c>
       <c r="D112" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" t="n">
         <v>128</v>
       </c>
       <c r="F112" t="n">
-        <v>15275.4055</v>
+        <v>2455.213</v>
       </c>
       <c r="G112" t="n">
-        <v>117.8166666666667</v>
+        <v>117.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4552,36 +4352,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C113" t="n">
         <v>128</v>
       </c>
       <c r="D113" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E113" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F113" t="n">
-        <v>5047.5385</v>
+        <v>15275.4055</v>
       </c>
       <c r="G113" t="n">
-        <v>118.0333333333333</v>
+        <v>117.8166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4594,33 +4390,29 @@
         <v>126</v>
       </c>
       <c r="C114" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D114" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E114" t="n">
         <v>126</v>
       </c>
       <c r="F114" t="n">
-        <v>9652.2719</v>
+        <v>5047.5385</v>
       </c>
       <c r="G114" t="n">
-        <v>118.2333333333333</v>
+        <v>118.0333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4633,33 +4425,29 @@
         <v>126</v>
       </c>
       <c r="C115" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D115" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E115" t="n">
         <v>126</v>
       </c>
       <c r="F115" t="n">
-        <v>49749.7133</v>
+        <v>9652.2719</v>
       </c>
       <c r="G115" t="n">
-        <v>118.4666666666667</v>
+        <v>118.2333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4669,36 +4457,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C116" t="n">
         <v>130</v>
       </c>
       <c r="D116" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E116" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F116" t="n">
-        <v>3469.3826</v>
+        <v>49749.7133</v>
       </c>
       <c r="G116" t="n">
-        <v>118.7333333333333</v>
+        <v>118.4666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4711,33 +4495,29 @@
         <v>130</v>
       </c>
       <c r="C117" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D117" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E117" t="n">
         <v>130</v>
       </c>
       <c r="F117" t="n">
-        <v>57981.4813</v>
+        <v>3469.3826</v>
       </c>
       <c r="G117" t="n">
-        <v>119.05</v>
+        <v>118.7333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4747,36 +4527,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C118" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D118" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E118" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F118" t="n">
-        <v>28769.4982</v>
+        <v>57981.4813</v>
       </c>
       <c r="G118" t="n">
-        <v>119.35</v>
+        <v>119.05</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4786,10 +4562,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D119" t="n">
         <v>135</v>
@@ -4798,24 +4574,20 @@
         <v>132</v>
       </c>
       <c r="F119" t="n">
-        <v>49239.5994</v>
+        <v>28769.4982</v>
       </c>
       <c r="G119" t="n">
-        <v>119.6333333333333</v>
+        <v>119.35</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4825,36 +4597,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>134</v>
+      </c>
+      <c r="C120" t="n">
         <v>133</v>
       </c>
-      <c r="C120" t="n">
-        <v>130</v>
-      </c>
       <c r="D120" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E120" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F120" t="n">
-        <v>17156.9618</v>
+        <v>49239.5994</v>
       </c>
       <c r="G120" t="n">
-        <v>119.85</v>
+        <v>119.6333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4864,36 +4632,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>133</v>
+      </c>
+      <c r="C121" t="n">
         <v>130</v>
       </c>
-      <c r="C121" t="n">
-        <v>132</v>
-      </c>
       <c r="D121" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" t="n">
         <v>130</v>
       </c>
       <c r="F121" t="n">
-        <v>3305.9669</v>
+        <v>17156.9618</v>
       </c>
       <c r="G121" t="n">
-        <v>120.1</v>
+        <v>119.85</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4903,36 +4667,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C122" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D122" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E122" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F122" t="n">
-        <v>54383.37027037037</v>
+        <v>3305.9669</v>
       </c>
       <c r="G122" t="n">
-        <v>120.3833333333333</v>
+        <v>120.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4942,22 +4702,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C123" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D123" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E123" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F123" t="n">
-        <v>14948.3019</v>
+        <v>54383.37027037037</v>
       </c>
       <c r="G123" t="n">
-        <v>120.5666666666667</v>
+        <v>120.3833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4967,11 +4727,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4981,22 +4737,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>131</v>
+      </c>
+      <c r="C124" t="n">
         <v>129</v>
       </c>
-      <c r="C124" t="n">
-        <v>128</v>
-      </c>
       <c r="D124" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E124" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F124" t="n">
-        <v>2997.308</v>
+        <v>14948.3019</v>
       </c>
       <c r="G124" t="n">
-        <v>120.7333333333333</v>
+        <v>120.5666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5006,11 +4762,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5020,22 +4772,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>129</v>
+      </c>
+      <c r="C125" t="n">
+        <v>128</v>
+      </c>
+      <c r="D125" t="n">
         <v>132</v>
       </c>
-      <c r="C125" t="n">
-        <v>131</v>
-      </c>
-      <c r="D125" t="n">
-        <v>133</v>
-      </c>
       <c r="E125" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F125" t="n">
-        <v>13676.5634</v>
+        <v>2997.308</v>
       </c>
       <c r="G125" t="n">
-        <v>120.9833333333333</v>
+        <v>120.7333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5045,11 +4797,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5059,22 +4807,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>132</v>
+      </c>
+      <c r="C126" t="n">
         <v>131</v>
       </c>
-      <c r="C126" t="n">
-        <v>129</v>
-      </c>
       <c r="D126" t="n">
+        <v>133</v>
+      </c>
+      <c r="E126" t="n">
         <v>131</v>
       </c>
-      <c r="E126" t="n">
-        <v>129</v>
-      </c>
       <c r="F126" t="n">
-        <v>1257.4671</v>
+        <v>13676.5634</v>
       </c>
       <c r="G126" t="n">
-        <v>121.2</v>
+        <v>120.9833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5084,11 +4832,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5110,10 +4854,10 @@
         <v>129</v>
       </c>
       <c r="F127" t="n">
-        <v>6731.5981</v>
+        <v>1257.4671</v>
       </c>
       <c r="G127" t="n">
-        <v>121.4</v>
+        <v>121.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5123,11 +4867,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5137,22 +4877,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C128" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D128" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E128" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F128" t="n">
-        <v>4</v>
+        <v>6731.5981</v>
       </c>
       <c r="G128" t="n">
-        <v>121.5666666666667</v>
+        <v>121.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5162,11 +4902,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5176,22 +4912,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="n">
         <v>128</v>
       </c>
       <c r="D129" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E129" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F129" t="n">
-        <v>13448.6865</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>121.7666666666667</v>
+        <v>121.5666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5201,11 +4937,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5215,10 +4947,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>129</v>
+      </c>
+      <c r="C130" t="n">
         <v>128</v>
-      </c>
-      <c r="C130" t="n">
-        <v>129</v>
       </c>
       <c r="D130" t="n">
         <v>129</v>
@@ -5227,10 +4959,10 @@
         <v>127</v>
       </c>
       <c r="F130" t="n">
-        <v>6731.0777</v>
+        <v>13448.6865</v>
       </c>
       <c r="G130" t="n">
-        <v>121.9833333333333</v>
+        <v>121.7666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5240,11 +4972,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5257,19 +4985,19 @@
         <v>128</v>
       </c>
       <c r="C131" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D131" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E131" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F131" t="n">
-        <v>4354.0826</v>
+        <v>6731.0777</v>
       </c>
       <c r="G131" t="n">
-        <v>122.1666666666667</v>
+        <v>121.9833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5279,11 +5007,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5293,7 +5017,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" t="n">
         <v>128</v>
@@ -5305,10 +5029,10 @@
         <v>128</v>
       </c>
       <c r="F132" t="n">
-        <v>646.1778</v>
+        <v>4354.0826</v>
       </c>
       <c r="G132" t="n">
-        <v>122.3666666666667</v>
+        <v>122.1666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5318,11 +5042,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5332,22 +5052,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D133" t="n">
         <v>130</v>
       </c>
       <c r="E133" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F133" t="n">
-        <v>100</v>
+        <v>646.1778</v>
       </c>
       <c r="G133" t="n">
-        <v>122.5833333333333</v>
+        <v>122.3666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5357,11 +5077,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5371,7 +5087,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C134" t="n">
         <v>130</v>
@@ -5380,13 +5096,13 @@
         <v>130</v>
       </c>
       <c r="E134" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F134" t="n">
-        <v>416.7058</v>
+        <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>122.8</v>
+        <v>122.5833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5396,11 +5112,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5413,19 +5125,19 @@
         <v>128</v>
       </c>
       <c r="C135" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D135" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E135" t="n">
         <v>128</v>
       </c>
       <c r="F135" t="n">
-        <v>4</v>
+        <v>416.7058</v>
       </c>
       <c r="G135" t="n">
-        <v>122.9833333333333</v>
+        <v>122.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5435,11 +5147,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5449,22 +5157,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" t="n">
         <v>128</v>
       </c>
       <c r="D136" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E136" t="n">
         <v>128</v>
       </c>
       <c r="F136" t="n">
-        <v>1326.7033</v>
+        <v>4</v>
       </c>
       <c r="G136" t="n">
-        <v>123.1666666666667</v>
+        <v>122.9833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5474,11 +5182,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5488,10 +5192,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>129</v>
+      </c>
+      <c r="C137" t="n">
         <v>128</v>
-      </c>
-      <c r="C137" t="n">
-        <v>129</v>
       </c>
       <c r="D137" t="n">
         <v>129</v>
@@ -5500,10 +5204,10 @@
         <v>128</v>
       </c>
       <c r="F137" t="n">
-        <v>3253.8247</v>
+        <v>1326.7033</v>
       </c>
       <c r="G137" t="n">
-        <v>123.3833333333333</v>
+        <v>123.1666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5513,11 +5217,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5527,22 +5227,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C138" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D138" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E138" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F138" t="n">
-        <v>49752.6021</v>
+        <v>3253.8247</v>
       </c>
       <c r="G138" t="n">
-        <v>123.4666666666667</v>
+        <v>123.3833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5552,11 +5252,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5566,22 +5262,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C139" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D139" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E139" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F139" t="n">
-        <v>21735.1974</v>
+        <v>49752.6021</v>
       </c>
       <c r="G139" t="n">
-        <v>123.5666666666667</v>
+        <v>123.4666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5591,11 +5287,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5605,22 +5297,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C140" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D140" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E140" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F140" t="n">
-        <v>26994.60607067669</v>
+        <v>21735.1974</v>
       </c>
       <c r="G140" t="n">
-        <v>123.85</v>
+        <v>123.5666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5630,11 +5322,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5644,22 +5332,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C141" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D141" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E141" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F141" t="n">
-        <v>11806.1483</v>
+        <v>26994.60607067669</v>
       </c>
       <c r="G141" t="n">
-        <v>124.05</v>
+        <v>123.85</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5669,11 +5357,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5683,22 +5367,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C142" t="n">
         <v>129</v>
       </c>
       <c r="D142" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E142" t="n">
         <v>129</v>
       </c>
       <c r="F142" t="n">
-        <v>354.1471</v>
+        <v>11806.1483</v>
       </c>
       <c r="G142" t="n">
-        <v>124.2833333333333</v>
+        <v>124.05</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5708,11 +5392,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5722,22 +5402,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C143" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D143" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E143" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F143" t="n">
-        <v>7716.5372</v>
+        <v>354.1471</v>
       </c>
       <c r="G143" t="n">
-        <v>124.4333333333333</v>
+        <v>124.2833333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5747,11 +5427,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5764,19 +5440,19 @@
         <v>126</v>
       </c>
       <c r="C144" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D144" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E144" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F144" t="n">
-        <v>13438.22669469697</v>
+        <v>7716.5372</v>
       </c>
       <c r="G144" t="n">
-        <v>124.7</v>
+        <v>124.4333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5786,11 +5462,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5800,22 +5472,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C145" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D145" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E145" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F145" t="n">
-        <v>236.431</v>
+        <v>13438.22669469697</v>
       </c>
       <c r="G145" t="n">
-        <v>124.9</v>
+        <v>124.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5825,11 +5497,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5839,22 +5507,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D146" t="n">
         <v>129</v>
       </c>
       <c r="E146" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F146" t="n">
-        <v>10296.4468</v>
+        <v>236.431</v>
       </c>
       <c r="G146" t="n">
-        <v>125.0666666666667</v>
+        <v>124.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5864,11 +5532,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5878,22 +5542,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C147" t="n">
         <v>126</v>
       </c>
       <c r="D147" t="n">
+        <v>129</v>
+      </c>
+      <c r="E147" t="n">
         <v>126</v>
       </c>
-      <c r="E147" t="n">
-        <v>125</v>
-      </c>
       <c r="F147" t="n">
-        <v>733.5077</v>
+        <v>10296.4468</v>
       </c>
       <c r="G147" t="n">
-        <v>125.2333333333333</v>
+        <v>125.0666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5903,11 +5567,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5920,19 +5580,19 @@
         <v>125</v>
       </c>
       <c r="C148" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D148" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E148" t="n">
         <v>125</v>
       </c>
       <c r="F148" t="n">
-        <v>6067.1563</v>
+        <v>733.5077</v>
       </c>
       <c r="G148" t="n">
-        <v>125.4666666666667</v>
+        <v>125.2333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5942,11 +5602,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5956,22 +5612,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C149" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D149" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E149" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F149" t="n">
-        <v>13</v>
+        <v>6067.1563</v>
       </c>
       <c r="G149" t="n">
-        <v>125.6833333333333</v>
+        <v>125.4666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5981,11 +5637,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5995,22 +5647,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F150" t="n">
-        <v>77.2811</v>
+        <v>13</v>
       </c>
       <c r="G150" t="n">
-        <v>125.8666666666667</v>
+        <v>125.6833333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6020,11 +5672,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6034,22 +5682,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C151" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D151" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E151" t="n">
         <v>127</v>
       </c>
       <c r="F151" t="n">
-        <v>7744.485116923077</v>
+        <v>77.2811</v>
       </c>
       <c r="G151" t="n">
-        <v>126.0833333333333</v>
+        <v>125.8666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6059,11 +5707,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6073,22 +5717,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C152" t="n">
         <v>129</v>
       </c>
       <c r="D152" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E152" t="n">
         <v>127</v>
       </c>
       <c r="F152" t="n">
-        <v>1804</v>
+        <v>7744.485116923077</v>
       </c>
       <c r="G152" t="n">
-        <v>126.2833333333333</v>
+        <v>126.0833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6098,11 +5742,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6112,22 +5752,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C153" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D153" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E153" t="n">
         <v>127</v>
       </c>
       <c r="F153" t="n">
-        <v>896.6059</v>
+        <v>1804</v>
       </c>
       <c r="G153" t="n">
-        <v>126.4833333333333</v>
+        <v>126.2833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6137,11 +5777,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6151,10 +5787,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C154" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D154" t="n">
         <v>130</v>
@@ -6163,10 +5799,10 @@
         <v>127</v>
       </c>
       <c r="F154" t="n">
-        <v>3115.9534</v>
+        <v>896.6059</v>
       </c>
       <c r="G154" t="n">
-        <v>126.6833333333333</v>
+        <v>126.4833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6176,11 +5812,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6190,22 +5822,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C155" t="n">
         <v>127</v>
       </c>
       <c r="D155" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E155" t="n">
         <v>127</v>
       </c>
       <c r="F155" t="n">
-        <v>3084.4952</v>
+        <v>3115.9534</v>
       </c>
       <c r="G155" t="n">
-        <v>126.85</v>
+        <v>126.6833333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6215,11 +5847,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6232,19 +5860,19 @@
         <v>127</v>
       </c>
       <c r="C156" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" t="n">
         <v>127</v>
       </c>
       <c r="E156" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F156" t="n">
-        <v>10399.9716</v>
+        <v>3084.4952</v>
       </c>
       <c r="G156" t="n">
-        <v>127</v>
+        <v>126.85</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6254,11 +5882,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6280,10 +5904,10 @@
         <v>126</v>
       </c>
       <c r="F157" t="n">
-        <v>13624.4252</v>
+        <v>10399.9716</v>
       </c>
       <c r="G157" t="n">
-        <v>127.15</v>
+        <v>127</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6293,11 +5917,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6310,19 +5930,19 @@
         <v>127</v>
       </c>
       <c r="C158" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D158" t="n">
         <v>127</v>
       </c>
       <c r="E158" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F158" t="n">
-        <v>799.9912</v>
+        <v>13624.4252</v>
       </c>
       <c r="G158" t="n">
-        <v>127.3166666666667</v>
+        <v>127.15</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6332,11 +5952,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6346,22 +5962,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C159" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D159" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E159" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F159" t="n">
-        <v>2026.0715</v>
+        <v>799.9912</v>
       </c>
       <c r="G159" t="n">
-        <v>127.5</v>
+        <v>127.3166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6371,11 +5987,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6388,19 +6000,19 @@
         <v>128</v>
       </c>
       <c r="C160" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D160" t="n">
         <v>128</v>
       </c>
       <c r="E160" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F160" t="n">
-        <v>299.4982</v>
+        <v>2026.0715</v>
       </c>
       <c r="G160" t="n">
-        <v>127.6833333333333</v>
+        <v>127.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6410,11 +6022,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6424,22 +6032,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>128</v>
+      </c>
+      <c r="C161" t="n">
         <v>127</v>
       </c>
-      <c r="C161" t="n">
-        <v>126</v>
-      </c>
       <c r="D161" t="n">
+        <v>128</v>
+      </c>
+      <c r="E161" t="n">
         <v>127</v>
       </c>
-      <c r="E161" t="n">
-        <v>126</v>
-      </c>
       <c r="F161" t="n">
-        <v>8368.898999999999</v>
+        <v>299.4982</v>
       </c>
       <c r="G161" t="n">
-        <v>127.8166666666667</v>
+        <v>127.6833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6449,11 +6057,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6466,19 +6070,19 @@
         <v>127</v>
       </c>
       <c r="C162" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D162" t="n">
         <v>127</v>
       </c>
       <c r="E162" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F162" t="n">
-        <v>1405.9045</v>
+        <v>8368.898999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>127.9666666666667</v>
+        <v>127.8166666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6488,11 +6092,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6514,10 +6114,10 @@
         <v>127</v>
       </c>
       <c r="F163" t="n">
-        <v>1987.4487</v>
+        <v>1405.9045</v>
       </c>
       <c r="G163" t="n">
-        <v>128.0666666666667</v>
+        <v>127.9666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6527,11 +6127,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6553,10 +6149,10 @@
         <v>127</v>
       </c>
       <c r="F164" t="n">
-        <v>761.817</v>
+        <v>1987.4487</v>
       </c>
       <c r="G164" t="n">
-        <v>128.1833333333333</v>
+        <v>128.0666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6566,11 +6162,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6592,10 +6184,10 @@
         <v>127</v>
       </c>
       <c r="F165" t="n">
-        <v>859.6529</v>
+        <v>761.817</v>
       </c>
       <c r="G165" t="n">
-        <v>128.2666666666667</v>
+        <v>128.1833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6605,11 +6197,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6631,10 +6219,10 @@
         <v>127</v>
       </c>
       <c r="F166" t="n">
-        <v>1535.006</v>
+        <v>859.6529</v>
       </c>
       <c r="G166" t="n">
-        <v>128.3</v>
+        <v>128.2666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6644,11 +6232,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6658,22 +6242,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C167" t="n">
         <v>127</v>
       </c>
       <c r="D167" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E167" t="n">
         <v>127</v>
       </c>
       <c r="F167" t="n">
-        <v>43.653</v>
+        <v>1535.006</v>
       </c>
       <c r="G167" t="n">
-        <v>128.2833333333333</v>
+        <v>128.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6683,11 +6267,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6700,19 +6280,19 @@
         <v>128</v>
       </c>
       <c r="C168" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D168" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E168" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F168" t="n">
-        <v>6124.5999</v>
+        <v>43.653</v>
       </c>
       <c r="G168" t="n">
-        <v>128.3166666666667</v>
+        <v>128.2833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6722,11 +6302,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6736,22 +6312,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>128</v>
+      </c>
+      <c r="C169" t="n">
         <v>129</v>
       </c>
-      <c r="C169" t="n">
-        <v>130</v>
-      </c>
       <c r="D169" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E169" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F169" t="n">
-        <v>12118.93148307692</v>
+        <v>6124.5999</v>
       </c>
       <c r="G169" t="n">
-        <v>128.4</v>
+        <v>128.3166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6761,11 +6337,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6775,22 +6347,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" t="n">
         <v>130</v>
       </c>
       <c r="D170" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E170" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F170" t="n">
-        <v>45498.78471692307</v>
+        <v>12118.93148307692</v>
       </c>
       <c r="G170" t="n">
-        <v>128.4333333333333</v>
+        <v>128.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6800,11 +6372,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6814,22 +6382,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C171" t="n">
         <v>130</v>
       </c>
       <c r="D171" t="n">
+        <v>131</v>
+      </c>
+      <c r="E171" t="n">
         <v>130</v>
       </c>
-      <c r="E171" t="n">
-        <v>129</v>
-      </c>
       <c r="F171" t="n">
-        <v>890.0436</v>
+        <v>45498.78471692307</v>
       </c>
       <c r="G171" t="n">
-        <v>128.4666666666667</v>
+        <v>128.4333333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6839,11 +6407,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6853,22 +6417,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C172" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D172" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E172" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F172" t="n">
-        <v>17580.8566</v>
+        <v>890.0436</v>
       </c>
       <c r="G172" t="n">
-        <v>128.5166666666667</v>
+        <v>128.4666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6878,11 +6442,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6898,16 +6458,16 @@
         <v>131</v>
       </c>
       <c r="D173" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E173" t="n">
         <v>131</v>
       </c>
       <c r="F173" t="n">
-        <v>3978.7385</v>
+        <v>17580.8566</v>
       </c>
       <c r="G173" t="n">
-        <v>128.5666666666667</v>
+        <v>128.5166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6917,11 +6477,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6934,19 +6490,19 @@
         <v>131</v>
       </c>
       <c r="C174" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D174" t="n">
         <v>132</v>
       </c>
       <c r="E174" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F174" t="n">
-        <v>11325.70990530303</v>
+        <v>3978.7385</v>
       </c>
       <c r="G174" t="n">
-        <v>128.6666666666667</v>
+        <v>128.5666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6956,11 +6512,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6970,22 +6522,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>131</v>
+      </c>
+      <c r="C175" t="n">
         <v>132</v>
       </c>
-      <c r="C175" t="n">
-        <v>131</v>
-      </c>
       <c r="D175" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E175" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F175" t="n">
-        <v>15931.3014</v>
+        <v>11325.70990530303</v>
       </c>
       <c r="G175" t="n">
-        <v>128.6833333333333</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6995,11 +6547,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7009,7 +6557,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C176" t="n">
         <v>131</v>
@@ -7021,10 +6569,10 @@
         <v>131</v>
       </c>
       <c r="F176" t="n">
-        <v>811.4140992481204</v>
+        <v>15931.3014</v>
       </c>
       <c r="G176" t="n">
-        <v>128.7</v>
+        <v>128.6833333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7034,11 +6582,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7051,7 +6595,7 @@
         <v>131</v>
       </c>
       <c r="C177" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D177" t="n">
         <v>133</v>
@@ -7060,10 +6604,10 @@
         <v>131</v>
       </c>
       <c r="F177" t="n">
-        <v>14303.4615</v>
+        <v>811.4140992481204</v>
       </c>
       <c r="G177" t="n">
-        <v>128.6666666666667</v>
+        <v>128.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7073,11 +6617,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7090,7 +6630,7 @@
         <v>131</v>
       </c>
       <c r="C178" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D178" t="n">
         <v>133</v>
@@ -7099,10 +6639,10 @@
         <v>131</v>
       </c>
       <c r="F178" t="n">
-        <v>90462.4081</v>
+        <v>14303.4615</v>
       </c>
       <c r="G178" t="n">
-        <v>128.65</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7112,11 +6652,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7132,16 +6668,16 @@
         <v>131</v>
       </c>
       <c r="D179" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E179" t="n">
         <v>131</v>
       </c>
       <c r="F179" t="n">
-        <v>49682.2045</v>
+        <v>90462.4081</v>
       </c>
       <c r="G179" t="n">
-        <v>128.6166666666667</v>
+        <v>128.65</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7151,11 +6687,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7165,19 +6697,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C180" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D180" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E180" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F180" t="n">
-        <v>1835.2071</v>
+        <v>49682.2045</v>
       </c>
       <c r="G180" t="n">
         <v>128.6166666666667</v>
@@ -7190,11 +6722,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7204,22 +6732,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C181" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D181" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E181" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F181" t="n">
-        <v>19183.6791</v>
+        <v>1835.2071</v>
       </c>
       <c r="G181" t="n">
-        <v>128.6</v>
+        <v>128.6166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7229,11 +6757,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7243,22 +6767,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C182" t="n">
         <v>131</v>
       </c>
       <c r="D182" t="n">
+        <v>132</v>
+      </c>
+      <c r="E182" t="n">
         <v>131</v>
       </c>
-      <c r="E182" t="n">
-        <v>130</v>
-      </c>
       <c r="F182" t="n">
-        <v>22</v>
+        <v>19183.6791</v>
       </c>
       <c r="G182" t="n">
-        <v>128.55</v>
+        <v>128.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7268,11 +6792,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7282,22 +6802,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C183" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D183" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E183" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F183" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G183" t="n">
-        <v>128.6</v>
+        <v>128.55</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7307,11 +6827,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7321,22 +6837,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C184" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D184" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E184" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F184" t="n">
-        <v>10005.8238</v>
+        <v>4</v>
       </c>
       <c r="G184" t="n">
-        <v>128.65</v>
+        <v>128.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7346,11 +6862,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7360,22 +6872,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C185" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D185" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E185" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F185" t="n">
-        <v>4</v>
+        <v>10005.8238</v>
       </c>
       <c r="G185" t="n">
-        <v>128.6666666666667</v>
+        <v>128.65</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7385,11 +6897,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7399,22 +6907,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C186" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D186" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E186" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F186" t="n">
-        <v>423.9776</v>
+        <v>4</v>
       </c>
       <c r="G186" t="n">
-        <v>128.7</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7424,11 +6932,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7438,7 +6942,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C187" t="n">
         <v>131</v>
@@ -7447,13 +6951,13 @@
         <v>131</v>
       </c>
       <c r="E187" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F187" t="n">
-        <v>9.2104</v>
+        <v>423.9776</v>
       </c>
       <c r="G187" t="n">
-        <v>128.7333333333333</v>
+        <v>128.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7463,11 +6967,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7477,22 +6977,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C188" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D188" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E188" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F188" t="n">
-        <v>5345.2172</v>
+        <v>9.2104</v>
       </c>
       <c r="G188" t="n">
-        <v>128.7666666666667</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7502,11 +7002,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7528,10 +7024,10 @@
         <v>130</v>
       </c>
       <c r="F189" t="n">
-        <v>4065.4288</v>
+        <v>5345.2172</v>
       </c>
       <c r="G189" t="n">
-        <v>128.8</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7541,11 +7037,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7558,16 +7050,16 @@
         <v>130</v>
       </c>
       <c r="C190" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D190" t="n">
         <v>130</v>
       </c>
       <c r="E190" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F190" t="n">
-        <v>15385.51</v>
+        <v>4065.4288</v>
       </c>
       <c r="G190" t="n">
         <v>128.8</v>
@@ -7580,11 +7072,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7594,10 +7082,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>130</v>
+      </c>
+      <c r="C191" t="n">
         <v>129</v>
-      </c>
-      <c r="C191" t="n">
-        <v>130</v>
       </c>
       <c r="D191" t="n">
         <v>130</v>
@@ -7606,10 +7094,10 @@
         <v>129</v>
       </c>
       <c r="F191" t="n">
-        <v>11667.1017</v>
+        <v>15385.51</v>
       </c>
       <c r="G191" t="n">
-        <v>128.8333333333333</v>
+        <v>128.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7619,11 +7107,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +7117,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C192" t="n">
         <v>130</v>
@@ -7642,13 +7126,13 @@
         <v>130</v>
       </c>
       <c r="E192" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F192" t="n">
-        <v>519.0558</v>
+        <v>11667.1017</v>
       </c>
       <c r="G192" t="n">
-        <v>128.8666666666667</v>
+        <v>128.8333333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7658,11 +7142,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7675,19 +7155,19 @@
         <v>130</v>
       </c>
       <c r="C193" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D193" t="n">
         <v>130</v>
       </c>
       <c r="E193" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F193" t="n">
-        <v>1720.9873</v>
+        <v>519.0558</v>
       </c>
       <c r="G193" t="n">
-        <v>128.85</v>
+        <v>128.8666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7697,11 +7177,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7711,22 +7187,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>130</v>
+      </c>
+      <c r="C194" t="n">
         <v>129</v>
       </c>
-      <c r="C194" t="n">
-        <v>131</v>
-      </c>
       <c r="D194" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E194" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F194" t="n">
-        <v>39484.884</v>
+        <v>1720.9873</v>
       </c>
       <c r="G194" t="n">
-        <v>128.8666666666667</v>
+        <v>128.85</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7736,11 +7212,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7750,22 +7222,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C195" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D195" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E195" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F195" t="n">
-        <v>7847.2331</v>
+        <v>39484.884</v>
       </c>
       <c r="G195" t="n">
-        <v>128.85</v>
+        <v>128.8666666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7775,11 +7247,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7792,16 +7260,16 @@
         <v>128</v>
       </c>
       <c r="C196" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D196" t="n">
         <v>128</v>
       </c>
       <c r="E196" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F196" t="n">
-        <v>1445.8808</v>
+        <v>7847.2331</v>
       </c>
       <c r="G196" t="n">
         <v>128.85</v>
@@ -7814,11 +7282,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7831,19 +7295,19 @@
         <v>128</v>
       </c>
       <c r="C197" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D197" t="n">
         <v>128</v>
       </c>
       <c r="E197" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F197" t="n">
-        <v>6143.9714</v>
+        <v>1445.8808</v>
       </c>
       <c r="G197" t="n">
-        <v>128.8166666666667</v>
+        <v>128.85</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7853,11 +7317,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7867,22 +7327,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>128</v>
+      </c>
+      <c r="C198" t="n">
         <v>127</v>
       </c>
-      <c r="C198" t="n">
-        <v>126</v>
-      </c>
       <c r="D198" t="n">
+        <v>128</v>
+      </c>
+      <c r="E198" t="n">
         <v>127</v>
       </c>
-      <c r="E198" t="n">
-        <v>126</v>
-      </c>
       <c r="F198" t="n">
-        <v>6771.6847</v>
+        <v>6143.9714</v>
       </c>
       <c r="G198" t="n">
-        <v>128.9</v>
+        <v>128.8166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7892,11 +7352,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7906,22 +7362,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>127</v>
+      </c>
+      <c r="C199" t="n">
         <v>126</v>
       </c>
-      <c r="C199" t="n">
-        <v>125</v>
-      </c>
       <c r="D199" t="n">
+        <v>127</v>
+      </c>
+      <c r="E199" t="n">
         <v>126</v>
       </c>
-      <c r="E199" t="n">
-        <v>125</v>
-      </c>
       <c r="F199" t="n">
-        <v>8979.43</v>
+        <v>6771.6847</v>
       </c>
       <c r="G199" t="n">
-        <v>128.9333333333333</v>
+        <v>128.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7931,11 +7387,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7948,19 +7400,19 @@
         <v>126</v>
       </c>
       <c r="C200" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D200" t="n">
         <v>126</v>
       </c>
       <c r="E200" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F200" t="n">
-        <v>3673.7595</v>
+        <v>8979.43</v>
       </c>
       <c r="G200" t="n">
-        <v>128.8166666666667</v>
+        <v>128.9333333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7970,11 +7422,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7984,7 +7432,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C201" t="n">
         <v>126</v>
@@ -7993,13 +7441,13 @@
         <v>126</v>
       </c>
       <c r="E201" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F201" t="n">
-        <v>1713.8619</v>
+        <v>3673.7595</v>
       </c>
       <c r="G201" t="n">
-        <v>128.7666666666667</v>
+        <v>128.8166666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8009,11 +7457,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8023,22 +7467,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C202" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D202" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E202" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F202" t="n">
-        <v>1242.2619</v>
+        <v>1713.8619</v>
       </c>
       <c r="G202" t="n">
-        <v>128.75</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8048,11 +7492,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8062,22 +7502,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C203" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D203" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E203" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F203" t="n">
-        <v>14592.4931</v>
+        <v>1242.2619</v>
       </c>
       <c r="G203" t="n">
-        <v>128.7666666666667</v>
+        <v>128.75</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8087,11 +7527,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8101,22 +7537,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>127</v>
+      </c>
+      <c r="C204" t="n">
         <v>126</v>
       </c>
-      <c r="C204" t="n">
-        <v>125</v>
-      </c>
       <c r="D204" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E204" t="n">
         <v>125</v>
       </c>
       <c r="F204" t="n">
-        <v>3445.5856</v>
+        <v>14592.4931</v>
       </c>
       <c r="G204" t="n">
-        <v>128.65</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8126,11 +7562,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8140,10 +7572,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>126</v>
+      </c>
+      <c r="C205" t="n">
         <v>125</v>
-      </c>
-      <c r="C205" t="n">
-        <v>126</v>
       </c>
       <c r="D205" t="n">
         <v>126</v>
@@ -8152,10 +7584,10 @@
         <v>125</v>
       </c>
       <c r="F205" t="n">
-        <v>2675.1247</v>
+        <v>3445.5856</v>
       </c>
       <c r="G205" t="n">
-        <v>128.6166666666667</v>
+        <v>128.65</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8165,11 +7597,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8185,13 +7613,13 @@
         <v>126</v>
       </c>
       <c r="D206" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E206" t="n">
         <v>125</v>
       </c>
       <c r="F206" t="n">
-        <v>2516.1168</v>
+        <v>2675.1247</v>
       </c>
       <c r="G206" t="n">
         <v>128.6166666666667</v>
@@ -8204,11 +7632,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8218,19 +7642,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C207" t="n">
         <v>126</v>
       </c>
       <c r="D207" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E207" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F207" t="n">
-        <v>178.7637</v>
+        <v>2516.1168</v>
       </c>
       <c r="G207" t="n">
         <v>128.6166666666667</v>
@@ -8243,11 +7667,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8269,10 +7689,10 @@
         <v>126</v>
       </c>
       <c r="F208" t="n">
-        <v>56</v>
+        <v>178.7637</v>
       </c>
       <c r="G208" t="n">
-        <v>128.5666666666667</v>
+        <v>128.6166666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8282,11 +7702,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8308,10 +7724,10 @@
         <v>126</v>
       </c>
       <c r="F209" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G209" t="n">
-        <v>128.5</v>
+        <v>128.5666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8321,11 +7737,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8347,10 +7759,10 @@
         <v>126</v>
       </c>
       <c r="F210" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="G210" t="n">
-        <v>128.4833333333333</v>
+        <v>128.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8360,11 +7772,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8377,19 +7785,19 @@
         <v>126</v>
       </c>
       <c r="C211" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D211" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E211" t="n">
         <v>126</v>
       </c>
       <c r="F211" t="n">
-        <v>1659.175</v>
+        <v>38</v>
       </c>
       <c r="G211" t="n">
-        <v>128.4666666666667</v>
+        <v>128.4833333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8399,11 +7807,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8416,19 +7820,19 @@
         <v>126</v>
       </c>
       <c r="C212" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D212" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E212" t="n">
         <v>126</v>
       </c>
       <c r="F212" t="n">
-        <v>8</v>
+        <v>1659.175</v>
       </c>
       <c r="G212" t="n">
-        <v>128.4166666666667</v>
+        <v>128.4666666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8438,11 +7842,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8464,10 +7864,10 @@
         <v>126</v>
       </c>
       <c r="F213" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G213" t="n">
-        <v>128.3833333333333</v>
+        <v>128.4166666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8477,11 +7877,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8491,22 +7887,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C214" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D214" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E214" t="n">
         <v>126</v>
       </c>
       <c r="F214" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G214" t="n">
-        <v>128.4</v>
+        <v>128.3833333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8516,11 +7912,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8530,7 +7922,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C215" t="n">
         <v>128</v>
@@ -8542,10 +7934,10 @@
         <v>126</v>
       </c>
       <c r="F215" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="G215" t="n">
-        <v>128.4166666666667</v>
+        <v>128.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8555,11 +7947,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8569,22 +7957,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>126</v>
+      </c>
+      <c r="C216" t="n">
         <v>128</v>
       </c>
-      <c r="C216" t="n">
-        <v>129</v>
-      </c>
       <c r="D216" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E216" t="n">
         <v>126</v>
       </c>
       <c r="F216" t="n">
-        <v>6792.0272</v>
+        <v>8</v>
       </c>
       <c r="G216" t="n">
-        <v>128.4666666666667</v>
+        <v>128.4166666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8594,11 +7982,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8608,22 +7992,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C217" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D217" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E217" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F217" t="n">
-        <v>507</v>
+        <v>6792.0272</v>
       </c>
       <c r="G217" t="n">
-        <v>128.5</v>
+        <v>128.4666666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8633,11 +8017,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8650,19 +8030,19 @@
         <v>127</v>
       </c>
       <c r="C218" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D218" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E218" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F218" t="n">
-        <v>24880.1756</v>
+        <v>507</v>
       </c>
       <c r="G218" t="n">
-        <v>128.5333333333333</v>
+        <v>128.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8672,11 +8052,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8689,19 +8065,19 @@
         <v>127</v>
       </c>
       <c r="C219" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D219" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E219" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F219" t="n">
-        <v>683.3981</v>
+        <v>24880.1756</v>
       </c>
       <c r="G219" t="n">
-        <v>128.5166666666667</v>
+        <v>128.5333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8711,11 +8087,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8737,7 +8109,7 @@
         <v>127</v>
       </c>
       <c r="F220" t="n">
-        <v>2946.3327</v>
+        <v>683.3981</v>
       </c>
       <c r="G220" t="n">
         <v>128.5166666666667</v>
@@ -8750,11 +8122,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8764,22 +8132,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C221" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D221" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E221" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F221" t="n">
-        <v>5541.926</v>
+        <v>2946.3327</v>
       </c>
       <c r="G221" t="n">
-        <v>128.5666666666667</v>
+        <v>128.5166666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8789,11 +8157,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8803,22 +8167,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C222" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D222" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E222" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F222" t="n">
-        <v>11829.1594</v>
+        <v>5541.926</v>
       </c>
       <c r="G222" t="n">
-        <v>128.6333333333333</v>
+        <v>128.5666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8828,11 +8192,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8842,22 +8202,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>130</v>
+      </c>
+      <c r="C223" t="n">
         <v>131</v>
-      </c>
-      <c r="C223" t="n">
-        <v>130</v>
       </c>
       <c r="D223" t="n">
         <v>131</v>
       </c>
       <c r="E223" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F223" t="n">
-        <v>2440.1251</v>
+        <v>11829.1594</v>
       </c>
       <c r="G223" t="n">
-        <v>128.6833333333333</v>
+        <v>128.6333333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8867,11 +8227,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8881,22 +8237,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C224" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D224" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E224" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F224" t="n">
-        <v>985.8606</v>
+        <v>2440.1251</v>
       </c>
       <c r="G224" t="n">
-        <v>128.7166666666667</v>
+        <v>128.6833333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8906,11 +8262,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8920,22 +8272,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C225" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D225" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E225" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F225" t="n">
-        <v>1257.034</v>
+        <v>985.8606</v>
       </c>
       <c r="G225" t="n">
-        <v>128.7333333333333</v>
+        <v>128.7166666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8945,11 +8297,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8971,10 +8319,10 @@
         <v>128</v>
       </c>
       <c r="F226" t="n">
-        <v>8590.191000000001</v>
+        <v>1257.034</v>
       </c>
       <c r="G226" t="n">
-        <v>128.75</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8984,11 +8332,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9010,10 +8354,10 @@
         <v>128</v>
       </c>
       <c r="F227" t="n">
-        <v>3942.1875</v>
+        <v>8590.191000000001</v>
       </c>
       <c r="G227" t="n">
-        <v>128.7666666666667</v>
+        <v>128.75</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9023,11 +8367,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9037,22 +8377,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C228" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D228" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E228" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F228" t="n">
-        <v>2587.6892</v>
+        <v>3942.1875</v>
       </c>
       <c r="G228" t="n">
-        <v>128.7333333333333</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9062,11 +8402,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9076,19 +8412,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C229" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D229" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E229" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F229" t="n">
-        <v>5</v>
+        <v>2587.6892</v>
       </c>
       <c r="G229" t="n">
         <v>128.7333333333333</v>
@@ -9101,11 +8437,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9127,7 +8459,7 @@
         <v>130</v>
       </c>
       <c r="F230" t="n">
-        <v>1908.6944</v>
+        <v>5</v>
       </c>
       <c r="G230" t="n">
         <v>128.7333333333333</v>
@@ -9140,11 +8472,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9166,7 +8494,7 @@
         <v>130</v>
       </c>
       <c r="F231" t="n">
-        <v>5324.884615384615</v>
+        <v>1908.6944</v>
       </c>
       <c r="G231" t="n">
         <v>128.7333333333333</v>
@@ -9179,11 +8507,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9205,10 +8529,10 @@
         <v>130</v>
       </c>
       <c r="F232" t="n">
-        <v>7.3269</v>
+        <v>5324.884615384615</v>
       </c>
       <c r="G232" t="n">
-        <v>128.7166666666667</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9218,11 +8542,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9244,10 +8564,10 @@
         <v>130</v>
       </c>
       <c r="F233" t="n">
-        <v>1076.923076923077</v>
+        <v>7.3269</v>
       </c>
       <c r="G233" t="n">
-        <v>128.7</v>
+        <v>128.7166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9257,11 +8577,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9274,16 +8590,16 @@
         <v>130</v>
       </c>
       <c r="C234" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D234" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E234" t="n">
         <v>130</v>
       </c>
       <c r="F234" t="n">
-        <v>23853.85080769231</v>
+        <v>1076.923076923077</v>
       </c>
       <c r="G234" t="n">
         <v>128.7</v>
@@ -9296,11 +8612,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9310,22 +8622,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>130</v>
+      </c>
+      <c r="C235" t="n">
         <v>132</v>
       </c>
-      <c r="C235" t="n">
-        <v>133</v>
-      </c>
       <c r="D235" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E235" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F235" t="n">
-        <v>10213.2385</v>
+        <v>23853.85080769231</v>
       </c>
       <c r="G235" t="n">
-        <v>128.7333333333333</v>
+        <v>128.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9335,11 +8647,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9349,10 +8657,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>132</v>
+      </c>
+      <c r="C236" t="n">
         <v>133</v>
-      </c>
-      <c r="C236" t="n">
-        <v>132</v>
       </c>
       <c r="D236" t="n">
         <v>133</v>
@@ -9361,10 +8669,10 @@
         <v>132</v>
       </c>
       <c r="F236" t="n">
-        <v>191.8836</v>
+        <v>10213.2385</v>
       </c>
       <c r="G236" t="n">
-        <v>128.75</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9374,11 +8682,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9388,22 +8692,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>133</v>
+      </c>
+      <c r="C237" t="n">
         <v>132</v>
-      </c>
-      <c r="C237" t="n">
-        <v>131</v>
       </c>
       <c r="D237" t="n">
         <v>133</v>
       </c>
       <c r="E237" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F237" t="n">
-        <v>3920.2517</v>
+        <v>191.8836</v>
       </c>
       <c r="G237" t="n">
-        <v>128.7333333333333</v>
+        <v>128.75</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9413,11 +8717,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9427,22 +8727,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C238" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D238" t="n">
         <v>133</v>
       </c>
       <c r="E238" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F238" t="n">
-        <v>6135.1542</v>
+        <v>3920.2517</v>
       </c>
       <c r="G238" t="n">
-        <v>128.7666666666667</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9452,11 +8752,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9466,22 +8762,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C239" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D239" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E239" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F239" t="n">
-        <v>14080.36316716418</v>
+        <v>6135.1542</v>
       </c>
       <c r="G239" t="n">
-        <v>128.8166666666667</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9491,11 +8787,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9505,22 +8797,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C240" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D240" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E240" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F240" t="n">
-        <v>102239.5963328358</v>
+        <v>14080.36316716418</v>
       </c>
       <c r="G240" t="n">
-        <v>128.9333333333333</v>
+        <v>128.8166666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9530,11 +8822,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9544,22 +8832,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C241" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D241" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E241" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F241" t="n">
-        <v>179698.5607424658</v>
+        <v>102239.5963328358</v>
       </c>
       <c r="G241" t="n">
-        <v>129.1666666666667</v>
+        <v>128.9333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9569,11 +8857,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9583,7 +8867,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C242" t="n">
         <v>145</v>
@@ -9592,13 +8876,13 @@
         <v>146</v>
       </c>
       <c r="E242" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F242" t="n">
-        <v>46402.9235</v>
+        <v>179698.5607424658</v>
       </c>
       <c r="G242" t="n">
-        <v>129.4</v>
+        <v>129.1666666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9608,11 +8892,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9622,22 +8902,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>145</v>
+      </c>
+      <c r="C243" t="n">
+        <v>145</v>
+      </c>
+      <c r="D243" t="n">
+        <v>146</v>
+      </c>
+      <c r="E243" t="n">
         <v>142</v>
       </c>
-      <c r="C243" t="n">
-        <v>136</v>
-      </c>
-      <c r="D243" t="n">
-        <v>142</v>
-      </c>
-      <c r="E243" t="n">
-        <v>135</v>
-      </c>
       <c r="F243" t="n">
-        <v>60381.7917</v>
+        <v>46402.9235</v>
       </c>
       <c r="G243" t="n">
-        <v>129.4666666666667</v>
+        <v>129.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9647,11 +8927,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9661,59 +8937,57 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>142</v>
+      </c>
+      <c r="C244" t="n">
         <v>136</v>
       </c>
-      <c r="C244" t="n">
-        <v>140</v>
-      </c>
       <c r="D244" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E244" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F244" t="n">
-        <v>84017.36734285715</v>
+        <v>60381.7917</v>
       </c>
       <c r="G244" t="n">
-        <v>129.6166666666667</v>
+        <v>129.4666666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C245" t="n">
         <v>140</v>
       </c>
       <c r="D245" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E245" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F245" t="n">
-        <v>4236.1516</v>
+        <v>84017.36734285715</v>
       </c>
       <c r="G245" t="n">
-        <v>129.75</v>
+        <v>129.6166666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9733,22 +9007,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C246" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D246" t="n">
         <v>140</v>
       </c>
       <c r="E246" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F246" t="n">
-        <v>8172.7352</v>
+        <v>4236.1516</v>
       </c>
       <c r="G246" t="n">
-        <v>129.8833333333333</v>
+        <v>129.75</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9768,7 +9042,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C247" t="n">
         <v>139</v>
@@ -9777,13 +9051,13 @@
         <v>140</v>
       </c>
       <c r="E247" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F247" t="n">
-        <v>10686.8028</v>
+        <v>8172.7352</v>
       </c>
       <c r="G247" t="n">
-        <v>130.0166666666667</v>
+        <v>129.8833333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9803,22 +9077,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C248" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D248" t="n">
+        <v>140</v>
+      </c>
+      <c r="E248" t="n">
         <v>139</v>
       </c>
-      <c r="E248" t="n">
-        <v>137</v>
-      </c>
       <c r="F248" t="n">
-        <v>2642</v>
+        <v>10686.8028</v>
       </c>
       <c r="G248" t="n">
-        <v>130.1333333333333</v>
+        <v>130.0166666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9838,7 +9112,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C249" t="n">
         <v>137</v>
@@ -9850,10 +9124,10 @@
         <v>137</v>
       </c>
       <c r="F249" t="n">
-        <v>19162.8411</v>
+        <v>2642</v>
       </c>
       <c r="G249" t="n">
-        <v>130.25</v>
+        <v>130.1333333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9873,22 +9147,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C250" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D250" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E250" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F250" t="n">
-        <v>217.7084</v>
+        <v>19162.8411</v>
       </c>
       <c r="G250" t="n">
-        <v>130.4</v>
+        <v>130.25</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9911,19 +9185,19 @@
         <v>138</v>
       </c>
       <c r="C251" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D251" t="n">
         <v>138</v>
       </c>
       <c r="E251" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F251" t="n">
-        <v>24001.4318</v>
+        <v>217.7084</v>
       </c>
       <c r="G251" t="n">
-        <v>130.5166666666667</v>
+        <v>130.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9943,22 +9217,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>138</v>
+      </c>
+      <c r="C252" t="n">
         <v>137</v>
       </c>
-      <c r="C252" t="n">
-        <v>136</v>
-      </c>
       <c r="D252" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E252" t="n">
         <v>136</v>
       </c>
       <c r="F252" t="n">
-        <v>48024.00924117647</v>
+        <v>24001.4318</v>
       </c>
       <c r="G252" t="n">
-        <v>130.6166666666667</v>
+        <v>130.5166666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9978,22 +9252,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>137</v>
+      </c>
+      <c r="C253" t="n">
         <v>136</v>
       </c>
-      <c r="C253" t="n">
-        <v>132</v>
-      </c>
       <c r="D253" t="n">
+        <v>137</v>
+      </c>
+      <c r="E253" t="n">
         <v>136</v>
       </c>
-      <c r="E253" t="n">
-        <v>132</v>
-      </c>
       <c r="F253" t="n">
-        <v>48079.8596</v>
+        <v>48024.00924117647</v>
       </c>
       <c r="G253" t="n">
-        <v>130.6666666666667</v>
+        <v>130.6166666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10013,22 +9287,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C254" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D254" t="n">
         <v>136</v>
       </c>
       <c r="E254" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F254" t="n">
-        <v>5335.148711764706</v>
+        <v>48079.8596</v>
       </c>
       <c r="G254" t="n">
-        <v>130.7333333333333</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10048,22 +9322,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>133</v>
+      </c>
+      <c r="C255" t="n">
         <v>135</v>
       </c>
-      <c r="C255" t="n">
-        <v>139</v>
-      </c>
       <c r="D255" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E255" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F255" t="n">
-        <v>28029.44168751587</v>
+        <v>5335.148711764706</v>
       </c>
       <c r="G255" t="n">
-        <v>130.9333333333333</v>
+        <v>130.7333333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10083,10 +9357,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C256" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D256" t="n">
         <v>139</v>
@@ -10095,10 +9369,10 @@
         <v>135</v>
       </c>
       <c r="F256" t="n">
-        <v>42195.19061917211</v>
+        <v>28029.44168751587</v>
       </c>
       <c r="G256" t="n">
-        <v>131.05</v>
+        <v>130.9333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10121,19 +9395,19 @@
         <v>137</v>
       </c>
       <c r="C257" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D257" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E257" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F257" t="n">
-        <v>352</v>
+        <v>42195.19061917211</v>
       </c>
       <c r="G257" t="n">
-        <v>131.2166666666667</v>
+        <v>131.05</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10153,22 +9427,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C258" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D258" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E258" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F258" t="n">
-        <v>3026.8805</v>
+        <v>352</v>
       </c>
       <c r="G258" t="n">
-        <v>131.3833333333333</v>
+        <v>131.2166666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10188,22 +9462,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>135</v>
+      </c>
+      <c r="C259" t="n">
         <v>136</v>
       </c>
-      <c r="C259" t="n">
-        <v>137</v>
-      </c>
       <c r="D259" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E259" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F259" t="n">
-        <v>1445.492618248175</v>
+        <v>3026.8805</v>
       </c>
       <c r="G259" t="n">
-        <v>131.5833333333333</v>
+        <v>131.3833333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10223,7 +9497,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C260" t="n">
         <v>137</v>
@@ -10232,13 +9506,13 @@
         <v>137</v>
       </c>
       <c r="E260" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F260" t="n">
-        <v>904</v>
+        <v>1445.492618248175</v>
       </c>
       <c r="G260" t="n">
-        <v>131.7666666666667</v>
+        <v>131.5833333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10270,10 +9544,10 @@
         <v>137</v>
       </c>
       <c r="F261" t="n">
-        <v>2157.135181751825</v>
+        <v>904</v>
       </c>
       <c r="G261" t="n">
-        <v>131.95</v>
+        <v>131.7666666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10293,22 +9567,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C262" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D262" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E262" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F262" t="n">
-        <v>6462.5664</v>
+        <v>2157.135181751825</v>
       </c>
       <c r="G262" t="n">
-        <v>132.1166666666667</v>
+        <v>131.95</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10340,10 +9614,10 @@
         <v>138</v>
       </c>
       <c r="F263" t="n">
-        <v>500</v>
+        <v>6462.5664</v>
       </c>
       <c r="G263" t="n">
-        <v>132.3166666666667</v>
+        <v>132.1166666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10363,22 +9637,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C264" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D264" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E264" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F264" t="n">
-        <v>50809.62694965518</v>
+        <v>500</v>
       </c>
       <c r="G264" t="n">
-        <v>132.5833333333333</v>
+        <v>132.3166666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10398,22 +9672,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C265" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D265" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E265" t="n">
         <v>139</v>
       </c>
       <c r="F265" t="n">
-        <v>32635.2647</v>
+        <v>50809.62694965518</v>
       </c>
       <c r="G265" t="n">
-        <v>132.8</v>
+        <v>132.5833333333333</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10433,22 +9707,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>142</v>
+      </c>
+      <c r="C266" t="n">
         <v>139</v>
       </c>
-      <c r="C266" t="n">
-        <v>138</v>
-      </c>
       <c r="D266" t="n">
+        <v>142</v>
+      </c>
+      <c r="E266" t="n">
         <v>139</v>
       </c>
-      <c r="E266" t="n">
-        <v>138</v>
-      </c>
       <c r="F266" t="n">
-        <v>48363.434</v>
+        <v>32635.2647</v>
       </c>
       <c r="G266" t="n">
-        <v>133</v>
+        <v>132.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10471,19 +9745,19 @@
         <v>139</v>
       </c>
       <c r="C267" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D267" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E267" t="n">
         <v>138</v>
       </c>
       <c r="F267" t="n">
-        <v>19898.0518</v>
+        <v>48363.434</v>
       </c>
       <c r="G267" t="n">
-        <v>133.25</v>
+        <v>133</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10503,22 +9777,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>139</v>
+      </c>
+      <c r="C268" t="n">
         <v>141</v>
       </c>
-      <c r="C268" t="n">
-        <v>143</v>
-      </c>
       <c r="D268" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E268" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F268" t="n">
-        <v>34852.7815</v>
+        <v>19898.0518</v>
       </c>
       <c r="G268" t="n">
-        <v>133.5333333333333</v>
+        <v>133.25</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10538,22 +9812,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C269" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D269" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E269" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F269" t="n">
-        <v>67104.16469999999</v>
+        <v>34852.7815</v>
       </c>
       <c r="G269" t="n">
-        <v>133.85</v>
+        <v>133.5333333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10573,22 +9847,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
+        <v>144</v>
+      </c>
+      <c r="C270" t="n">
         <v>145</v>
       </c>
-      <c r="C270" t="n">
+      <c r="D270" t="n">
+        <v>145</v>
+      </c>
+      <c r="E270" t="n">
         <v>144</v>
       </c>
-      <c r="D270" t="n">
-        <v>147</v>
-      </c>
-      <c r="E270" t="n">
-        <v>143</v>
-      </c>
       <c r="F270" t="n">
-        <v>77952.7611</v>
+        <v>67104.16469999999</v>
       </c>
       <c r="G270" t="n">
-        <v>134.15</v>
+        <v>133.85</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10608,10 +9882,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
+        <v>145</v>
+      </c>
+      <c r="C271" t="n">
         <v>144</v>
-      </c>
-      <c r="C271" t="n">
-        <v>145</v>
       </c>
       <c r="D271" t="n">
         <v>147</v>
@@ -10620,10 +9894,10 @@
         <v>143</v>
       </c>
       <c r="F271" t="n">
-        <v>44526.0986</v>
+        <v>77952.7611</v>
       </c>
       <c r="G271" t="n">
-        <v>134.4333333333333</v>
+        <v>134.15</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10643,22 +9917,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
+        <v>144</v>
+      </c>
+      <c r="C272" t="n">
         <v>145</v>
-      </c>
-      <c r="C272" t="n">
-        <v>147</v>
       </c>
       <c r="D272" t="n">
         <v>147</v>
       </c>
       <c r="E272" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F272" t="n">
-        <v>37511.2832</v>
+        <v>44526.0986</v>
       </c>
       <c r="G272" t="n">
-        <v>134.7833333333333</v>
+        <v>134.4333333333333</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10678,22 +9952,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C273" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D273" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E273" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F273" t="n">
-        <v>23602.0709</v>
+        <v>37511.2832</v>
       </c>
       <c r="G273" t="n">
-        <v>135.0833333333333</v>
+        <v>134.7833333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10708,6 +9982,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>146</v>
+      </c>
+      <c r="C274" t="n">
+        <v>144</v>
+      </c>
+      <c r="D274" t="n">
+        <v>146</v>
+      </c>
+      <c r="E274" t="n">
+        <v>144</v>
+      </c>
+      <c r="F274" t="n">
+        <v>23602.0709</v>
+      </c>
+      <c r="G274" t="n">
+        <v>135.0833333333333</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-17 BackTest FX.xlsx
+++ b/BackTest/2019-11-17 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M274"/>
+  <dimension ref="A1:N284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>8780.58232881356</v>
       </c>
       <c r="G2" t="n">
+        <v>114.6666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>111.9666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>4764.8205</v>
       </c>
       <c r="G3" t="n">
+        <v>115</v>
+      </c>
+      <c r="H3" t="n">
         <v>112.1166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5890.6941</v>
       </c>
       <c r="G4" t="n">
+        <v>115.3333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>112.2666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>122.5473285714286</v>
       </c>
       <c r="G5" t="n">
+        <v>115.7333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>112.4166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1477.9892</v>
       </c>
       <c r="G6" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>112.5666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>4.4</v>
       </c>
       <c r="G7" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H7" t="n">
         <v>112.6666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1540.5028</v>
       </c>
       <c r="G8" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H8" t="n">
         <v>112.75</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1209.1778</v>
       </c>
       <c r="G9" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>112.8666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1065.8659</v>
       </c>
       <c r="G10" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>112.9833333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>698.0282</v>
       </c>
       <c r="G11" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>113.0833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>4.6755</v>
       </c>
       <c r="G12" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H12" t="n">
         <v>113.2</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1093.4049</v>
       </c>
       <c r="G13" t="n">
+        <v>117.0666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>113.3166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>4408.2401</v>
       </c>
       <c r="G14" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="H14" t="n">
         <v>113.45</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,22 +947,21 @@
         <v>3565.4394</v>
       </c>
       <c r="G15" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="H15" t="n">
         <v>113.5833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118</v>
-      </c>
-      <c r="K15" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -942,26 +985,21 @@
         <v>6130.882471428571</v>
       </c>
       <c r="G16" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H16" t="n">
         <v>113.7333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>118</v>
-      </c>
-      <c r="K16" t="n">
-        <v>118</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,24 +1023,21 @@
         <v>18179.1922</v>
       </c>
       <c r="G17" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>113.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>118</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,18 +1061,21 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>114.05</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +1099,25 @@
         <v>4.3</v>
       </c>
       <c r="G19" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>114.2</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>119</v>
+      </c>
+      <c r="L19" t="n">
+        <v>119</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,18 +1141,29 @@
         <v>3565.4394</v>
       </c>
       <c r="G20" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>114.35</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>119</v>
+      </c>
+      <c r="L20" t="n">
+        <v>119</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,18 +1187,29 @@
         <v>1135.177028571429</v>
       </c>
       <c r="G21" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>114.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>119</v>
+      </c>
+      <c r="L21" t="n">
+        <v>119</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,18 +1233,25 @@
         <v>7698.839271428571</v>
       </c>
       <c r="G22" t="n">
+        <v>117.9333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>114.65</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>119</v>
+      </c>
+      <c r="L22" t="n">
+        <v>119</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,18 +1275,29 @@
         <v>7178.1537</v>
       </c>
       <c r="G23" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H23" t="n">
         <v>114.8</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>119</v>
+      </c>
+      <c r="L23" t="n">
+        <v>119</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,18 +1321,29 @@
         <v>22441.9458</v>
       </c>
       <c r="G24" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>114.95</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>119</v>
+      </c>
+      <c r="L24" t="n">
+        <v>119</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,18 +1367,29 @@
         <v>200</v>
       </c>
       <c r="G25" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>115.1</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>119</v>
+      </c>
+      <c r="L25" t="n">
+        <v>119</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,18 +1413,29 @@
         <v>3025.546528571429</v>
       </c>
       <c r="G26" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>115.2666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>119</v>
+      </c>
+      <c r="L26" t="n">
+        <v>119</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,18 +1459,29 @@
         <v>1617.1452</v>
       </c>
       <c r="G27" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="H27" t="n">
         <v>115.4333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>119</v>
+      </c>
+      <c r="L27" t="n">
+        <v>119</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,18 +1505,29 @@
         <v>1600</v>
       </c>
       <c r="G28" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>115.5666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>119</v>
+      </c>
+      <c r="L28" t="n">
+        <v>119</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,18 +1551,29 @@
         <v>482.1281</v>
       </c>
       <c r="G29" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>115.6833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>119</v>
+      </c>
+      <c r="L29" t="n">
+        <v>119</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1597,29 @@
         <v>710.3899</v>
       </c>
       <c r="G30" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>115.7833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>118</v>
+      </c>
+      <c r="L30" t="n">
+        <v>119</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1643,29 @@
         <v>2639.7702</v>
       </c>
       <c r="G31" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>115.85</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>118</v>
+      </c>
+      <c r="L31" t="n">
+        <v>119</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1689,29 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="H32" t="n">
         <v>115.9333333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>117</v>
+      </c>
+      <c r="L32" t="n">
+        <v>119</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1735,29 @@
         <v>8570.625899999999</v>
       </c>
       <c r="G33" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>116.0166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>117</v>
+      </c>
+      <c r="L33" t="n">
+        <v>119</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1781,29 @@
         <v>4439.4269</v>
       </c>
       <c r="G34" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>116.1</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>117</v>
+      </c>
+      <c r="L34" t="n">
+        <v>119</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1827,29 @@
         <v>3358.3395</v>
       </c>
       <c r="G35" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>116.2</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>117</v>
+      </c>
+      <c r="L35" t="n">
+        <v>119</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1873,29 @@
         <v>5</v>
       </c>
       <c r="G36" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H36" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>117</v>
+      </c>
+      <c r="L36" t="n">
+        <v>119</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1919,29 @@
         <v>11.4099</v>
       </c>
       <c r="G37" t="n">
+        <v>118.1333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>116.4333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>119</v>
+      </c>
+      <c r="L37" t="n">
+        <v>119</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1965,29 @@
         <v>5520.727164102565</v>
       </c>
       <c r="G38" t="n">
+        <v>118</v>
+      </c>
+      <c r="H38" t="n">
         <v>116.4833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>118</v>
+      </c>
+      <c r="L38" t="n">
+        <v>119</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +2011,29 @@
         <v>5561.203435897436</v>
       </c>
       <c r="G39" t="n">
+        <v>117.8666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>116.5333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>117</v>
+      </c>
+      <c r="L39" t="n">
+        <v>119</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +2057,29 @@
         <v>23.2981</v>
       </c>
       <c r="G40" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H40" t="n">
         <v>116.6</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>117</v>
+      </c>
+      <c r="L40" t="n">
+        <v>119</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +2103,29 @@
         <v>5369.0323</v>
       </c>
       <c r="G41" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H41" t="n">
         <v>116.65</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>118</v>
+      </c>
+      <c r="L41" t="n">
+        <v>119</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +2149,29 @@
         <v>14148.9302</v>
       </c>
       <c r="G42" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="H42" t="n">
         <v>116.7</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>116</v>
+      </c>
+      <c r="L42" t="n">
+        <v>119</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2195,29 @@
         <v>1113.9191</v>
       </c>
       <c r="G43" t="n">
+        <v>117.1333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>116.7333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>116</v>
+      </c>
+      <c r="L43" t="n">
+        <v>119</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2241,29 @@
         <v>31.2972</v>
       </c>
       <c r="G44" t="n">
+        <v>117</v>
+      </c>
+      <c r="H44" t="n">
         <v>116.7833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>115</v>
+      </c>
+      <c r="L44" t="n">
+        <v>119</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2287,29 @@
         <v>64</v>
       </c>
       <c r="G45" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>116.8333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>116</v>
+      </c>
+      <c r="L45" t="n">
+        <v>119</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2333,29 @@
         <v>4.3</v>
       </c>
       <c r="G46" t="n">
+        <v>116.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>116.9166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>116</v>
+      </c>
+      <c r="L46" t="n">
+        <v>119</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2044,15 +2382,24 @@
         <v>117</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>119</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2423,27 @@
         <v>420.33</v>
       </c>
       <c r="G48" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>117.0166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>119</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2467,27 @@
         <v>7830.7064</v>
       </c>
       <c r="G49" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>117.0666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>119</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2511,27 @@
         <v>2402.3</v>
       </c>
       <c r="G50" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>119</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2555,27 @@
         <v>99</v>
       </c>
       <c r="G51" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>117.1666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>119</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2599,27 @@
         <v>3264.1479</v>
       </c>
       <c r="G52" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>117.1833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>119</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2643,27 @@
         <v>14687.1777</v>
       </c>
       <c r="G53" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>117.1833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>119</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2687,27 @@
         <v>2090.7338</v>
       </c>
       <c r="G54" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H54" t="n">
         <v>117.1833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>119</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2731,27 @@
         <v>1829.4977</v>
       </c>
       <c r="G55" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>117.1833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>119</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,22 +2775,27 @@
         <v>758.4738</v>
       </c>
       <c r="G56" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>117.2166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>114</v>
-      </c>
-      <c r="K56" t="n">
-        <v>114</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>119</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2395,24 +2819,27 @@
         <v>3281.4242</v>
       </c>
       <c r="G57" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H57" t="n">
         <v>117.2</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>114</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>119</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,24 +2863,27 @@
         <v>1425.8707</v>
       </c>
       <c r="G58" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H58" t="n">
         <v>117.2333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>114</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>119</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,18 +2907,27 @@
         <v>2720.4</v>
       </c>
       <c r="G59" t="n">
+        <v>115.6666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>117.25</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>119</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,18 +2951,27 @@
         <v>566.037</v>
       </c>
       <c r="G60" t="n">
+        <v>115.6666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>117.2166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>119</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2547,18 +2995,27 @@
         <v>2137.6872</v>
       </c>
       <c r="G61" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="H61" t="n">
         <v>117.2333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>119</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,18 +3039,27 @@
         <v>865.0823</v>
       </c>
       <c r="G62" t="n">
+        <v>115.5333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>117.2166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>119</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,18 +3083,27 @@
         <v>782.8622</v>
       </c>
       <c r="G63" t="n">
+        <v>115.6666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>117.1833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>119</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,18 +3127,27 @@
         <v>4.3</v>
       </c>
       <c r="G64" t="n">
+        <v>115.7333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>117.1666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>119</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,18 +3171,27 @@
         <v>9865.8487</v>
       </c>
       <c r="G65" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H65" t="n">
         <v>117.15</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>119</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,18 +3215,27 @@
         <v>278.9448</v>
       </c>
       <c r="G66" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H66" t="n">
         <v>117.1</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>119</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,18 +3259,27 @@
         <v>188.7743</v>
       </c>
       <c r="G67" t="n">
+        <v>115.8666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>117.1</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>119</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,18 +3303,27 @@
         <v>2875.2587</v>
       </c>
       <c r="G68" t="n">
+        <v>116</v>
+      </c>
+      <c r="H68" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>119</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,18 +3347,27 @@
         <v>18233.3645</v>
       </c>
       <c r="G69" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H69" t="n">
         <v>117.15</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>119</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,18 +3391,27 @@
         <v>179.3356</v>
       </c>
       <c r="G70" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>119</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,18 +3435,27 @@
         <v>6691.1955</v>
       </c>
       <c r="G71" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>119</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,18 +3479,27 @@
         <v>5</v>
       </c>
       <c r="G72" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>119</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,18 +3523,27 @@
         <v>38.7364</v>
       </c>
       <c r="G73" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H73" t="n">
         <v>117.1166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>119</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,18 +3567,27 @@
         <v>3328</v>
       </c>
       <c r="G74" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>117.1</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>119</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,18 +3611,27 @@
         <v>135.6715</v>
       </c>
       <c r="G75" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>117.0833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>119</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,18 +3655,27 @@
         <v>1283.6958</v>
       </c>
       <c r="G76" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>117.05</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>119</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,18 +3699,27 @@
         <v>5498.159</v>
       </c>
       <c r="G77" t="n">
-        <v>117</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>119</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,18 +3743,27 @@
         <v>5</v>
       </c>
       <c r="G78" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H78" t="n">
         <v>116.95</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>119</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +3787,27 @@
         <v>11269.7921</v>
       </c>
       <c r="G79" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>116.9</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>119</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,18 +3831,27 @@
         <v>11547.7096</v>
       </c>
       <c r="G80" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H80" t="n">
         <v>116.8666666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>119</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +3875,27 @@
         <v>3283.6235</v>
       </c>
       <c r="G81" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H81" t="n">
         <v>116.8166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>119</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,18 +3919,27 @@
         <v>5</v>
       </c>
       <c r="G82" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>116.7833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>119</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +3963,27 @@
         <v>8748.4985</v>
       </c>
       <c r="G83" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>116.7166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>119</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +4007,27 @@
         <v>9873.8652</v>
       </c>
       <c r="G84" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H84" t="n">
         <v>116.6666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>119</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +4051,27 @@
         <v>480.5228</v>
       </c>
       <c r="G85" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H85" t="n">
         <v>116.6166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>119</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +4095,27 @@
         <v>7738.7203</v>
       </c>
       <c r="G86" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H86" t="n">
         <v>116.5666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>119</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +4139,27 @@
         <v>4587.7632</v>
       </c>
       <c r="G87" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>116.5166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>119</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,18 +4183,27 @@
         <v>4430.4015</v>
       </c>
       <c r="G88" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>116.4666666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>119</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,18 +4227,27 @@
         <v>15210.48</v>
       </c>
       <c r="G89" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H89" t="n">
         <v>116.4166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>119</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,18 +4271,27 @@
         <v>5</v>
       </c>
       <c r="G90" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H90" t="n">
         <v>116.4</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>119</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +4315,27 @@
         <v>12737.3108</v>
       </c>
       <c r="G91" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>116.3833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>119</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,18 +4359,27 @@
         <v>3700.8395</v>
       </c>
       <c r="G92" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>116.3666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>119</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,18 +4403,27 @@
         <v>183.2957</v>
       </c>
       <c r="G93" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>116.3666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>119</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +4447,27 @@
         <v>2356.1577</v>
       </c>
       <c r="G94" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>116.35</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>119</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +4491,27 @@
         <v>8631.371499999999</v>
       </c>
       <c r="G95" t="n">
+        <v>116</v>
+      </c>
+      <c r="H95" t="n">
         <v>116.3166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>119</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +4535,27 @@
         <v>5</v>
       </c>
       <c r="G96" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>116.2833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>119</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4579,27 @@
         <v>731</v>
       </c>
       <c r="G97" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>116.2666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>119</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4623,27 @@
         <v>16536.838</v>
       </c>
       <c r="G98" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H98" t="n">
         <v>116.2666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>119</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,15 +4670,24 @@
         <v>116.2666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>116.2666666666667</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>119</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4711,27 @@
         <v>5304.1379</v>
       </c>
       <c r="G100" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>116.25</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>119</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4755,27 @@
         <v>6182.9486</v>
       </c>
       <c r="G101" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>116.25</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>119</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4799,27 @@
         <v>5991.3987</v>
       </c>
       <c r="G102" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>116.2833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>119</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4843,27 @@
         <v>1614.2632</v>
       </c>
       <c r="G103" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>119</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4887,27 @@
         <v>37692.0931</v>
       </c>
       <c r="G104" t="n">
+        <v>117</v>
+      </c>
+      <c r="H104" t="n">
         <v>116.4166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>119</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4931,27 @@
         <v>33323.5377</v>
       </c>
       <c r="G105" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="H105" t="n">
         <v>116.4833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>119</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +4975,27 @@
         <v>9432.8578</v>
       </c>
       <c r="G106" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H106" t="n">
         <v>116.55</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>119</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,18 +5019,27 @@
         <v>65416.0342</v>
       </c>
       <c r="G107" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H107" t="n">
         <v>116.6666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>119</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,18 +5063,27 @@
         <v>68090.7838</v>
       </c>
       <c r="G108" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>116.8833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>119</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +5107,27 @@
         <v>2227.2249</v>
       </c>
       <c r="G109" t="n">
+        <v>119.6666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>117.05</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>119</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +5151,27 @@
         <v>30008.9637</v>
       </c>
       <c r="G110" t="n">
+        <v>120.3333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>117.1833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>119</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +5195,27 @@
         <v>36729.2202</v>
       </c>
       <c r="G111" t="n">
+        <v>121.0666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>117.3833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>119</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +5239,27 @@
         <v>2455.213</v>
       </c>
       <c r="G112" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="H112" t="n">
         <v>117.6</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>119</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +5283,27 @@
         <v>15275.4055</v>
       </c>
       <c r="G113" t="n">
+        <v>122.5333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>117.8166666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>119</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +5327,27 @@
         <v>5047.5385</v>
       </c>
       <c r="G114" t="n">
+        <v>123.2666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>118.0333333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>119</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +5371,27 @@
         <v>9652.2719</v>
       </c>
       <c r="G115" t="n">
+        <v>123.8666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>118.2333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>119</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,18 +5415,27 @@
         <v>49749.7133</v>
       </c>
       <c r="G116" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H116" t="n">
         <v>118.4666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>119</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,18 +5459,27 @@
         <v>3469.3826</v>
       </c>
       <c r="G117" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="H117" t="n">
         <v>118.7333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>119</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +5503,27 @@
         <v>57981.4813</v>
       </c>
       <c r="G118" t="n">
+        <v>126.6666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>119.05</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>119</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +5547,27 @@
         <v>28769.4982</v>
       </c>
       <c r="G119" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="H119" t="n">
         <v>119.35</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>119</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,18 +5591,27 @@
         <v>49239.5994</v>
       </c>
       <c r="G120" t="n">
+        <v>128.2666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>119.6333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>119</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,18 +5635,27 @@
         <v>17156.9618</v>
       </c>
       <c r="G121" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="H121" t="n">
         <v>119.85</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>119</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +5679,27 @@
         <v>3305.9669</v>
       </c>
       <c r="G122" t="n">
+        <v>129.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>120.1</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>119</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5723,27 @@
         <v>54383.37027037037</v>
       </c>
       <c r="G123" t="n">
+        <v>129.6666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>120.3833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>119</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5767,27 @@
         <v>14948.3019</v>
       </c>
       <c r="G124" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="H124" t="n">
         <v>120.5666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>119</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5811,27 @@
         <v>2997.308</v>
       </c>
       <c r="G125" t="n">
+        <v>130</v>
+      </c>
+      <c r="H125" t="n">
         <v>120.7333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>119</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5855,27 @@
         <v>13676.5634</v>
       </c>
       <c r="G126" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="H126" t="n">
         <v>120.9833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>119</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5899,27 @@
         <v>1257.4671</v>
       </c>
       <c r="G127" t="n">
+        <v>130.2666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>121.2</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>119</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5943,27 @@
         <v>6731.5981</v>
       </c>
       <c r="G128" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>121.4</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>119</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5987,27 @@
         <v>4</v>
       </c>
       <c r="G129" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>121.5666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>119</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +6031,27 @@
         <v>13448.6865</v>
       </c>
       <c r="G130" t="n">
+        <v>130.4666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>121.7666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>119</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +6075,27 @@
         <v>6731.0777</v>
       </c>
       <c r="G131" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>121.9833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>119</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +6119,27 @@
         <v>4354.0826</v>
       </c>
       <c r="G132" t="n">
+        <v>130.2666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>122.1666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>119</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +6163,27 @@
         <v>646.1778</v>
       </c>
       <c r="G133" t="n">
+        <v>129.8666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>122.3666666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>119</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +6207,27 @@
         <v>100</v>
       </c>
       <c r="G134" t="n">
+        <v>129.7333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>122.5833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>119</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +6251,27 @@
         <v>416.7058</v>
       </c>
       <c r="G135" t="n">
+        <v>129.5333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>122.8</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>119</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +6295,27 @@
         <v>4</v>
       </c>
       <c r="G136" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="H136" t="n">
         <v>122.9833333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>119</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +6339,27 @@
         <v>1326.7033</v>
       </c>
       <c r="G137" t="n">
+        <v>129.1333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>123.1666666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>119</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +6383,27 @@
         <v>3253.8247</v>
       </c>
       <c r="G138" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="H138" t="n">
         <v>123.3833333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>119</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +6427,27 @@
         <v>49752.6021</v>
       </c>
       <c r="G139" t="n">
+        <v>128.2666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>123.4666666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>119</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +6471,27 @@
         <v>21735.1974</v>
       </c>
       <c r="G140" t="n">
+        <v>127.9333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>123.5666666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>119</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +6515,27 @@
         <v>26994.60607067669</v>
       </c>
       <c r="G141" t="n">
+        <v>128.0666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>123.85</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>119</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +6559,27 @@
         <v>11806.1483</v>
       </c>
       <c r="G142" t="n">
+        <v>128.0666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>124.05</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>119</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +6603,27 @@
         <v>354.1471</v>
       </c>
       <c r="G143" t="n">
+        <v>128.0666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>124.2833333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>119</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +6647,27 @@
         <v>7716.5372</v>
       </c>
       <c r="G144" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>124.4333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>119</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +6691,27 @@
         <v>13438.22669469697</v>
       </c>
       <c r="G145" t="n">
+        <v>128.1333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>124.7</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>119</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +6735,27 @@
         <v>236.431</v>
       </c>
       <c r="G146" t="n">
+        <v>128.0666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>124.9</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>119</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +6779,27 @@
         <v>10296.4468</v>
       </c>
       <c r="G147" t="n">
+        <v>127.9333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>125.0666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>119</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,18 +6823,27 @@
         <v>733.5077</v>
       </c>
       <c r="G148" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="H148" t="n">
         <v>125.2333333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>119</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,18 +6867,27 @@
         <v>6067.1563</v>
       </c>
       <c r="G149" t="n">
+        <v>127.7333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>125.4666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>119</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6911,27 @@
         <v>13</v>
       </c>
       <c r="G150" t="n">
+        <v>127.7333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>125.6833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>119</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +6955,27 @@
         <v>77.2811</v>
       </c>
       <c r="G151" t="n">
+        <v>127.6666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>125.8666666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>119</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +6999,27 @@
         <v>7744.485116923077</v>
       </c>
       <c r="G152" t="n">
+        <v>127.7333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>126.0833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>119</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +7043,27 @@
         <v>1804</v>
       </c>
       <c r="G153" t="n">
+        <v>127.7333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>126.2833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>119</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +7087,27 @@
         <v>896.6059</v>
       </c>
       <c r="G154" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="H154" t="n">
         <v>126.4833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>119</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +7131,27 @@
         <v>3115.9534</v>
       </c>
       <c r="G155" t="n">
+        <v>128.4666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>126.6833333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>119</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,18 +7175,27 @@
         <v>3084.4952</v>
       </c>
       <c r="G156" t="n">
+        <v>128.0666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>126.85</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>119</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,18 +7219,27 @@
         <v>10399.9716</v>
       </c>
       <c r="G157" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>127</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>119</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,18 +7263,27 @@
         <v>13624.4252</v>
       </c>
       <c r="G158" t="n">
+        <v>127.6666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>127.15</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>119</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,18 +7307,27 @@
         <v>799.9912</v>
       </c>
       <c r="G159" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="H159" t="n">
         <v>127.3166666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>119</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,18 +7351,27 @@
         <v>2026.0715</v>
       </c>
       <c r="G160" t="n">
+        <v>127.5333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>127.5</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>119</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6047,18 +7395,27 @@
         <v>299.4982</v>
       </c>
       <c r="G161" t="n">
+        <v>127.4666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>127.6833333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>119</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,18 +7439,27 @@
         <v>8368.898999999999</v>
       </c>
       <c r="G162" t="n">
+        <v>127.4666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>127.8166666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>119</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,18 +7483,27 @@
         <v>1405.9045</v>
       </c>
       <c r="G163" t="n">
+        <v>127.5333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>127.9666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>119</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,18 +7527,27 @@
         <v>1987.4487</v>
       </c>
       <c r="G164" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="H164" t="n">
         <v>128.0666666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>119</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6187,18 +7571,27 @@
         <v>761.817</v>
       </c>
       <c r="G165" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="H165" t="n">
         <v>128.1833333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>119</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,18 +7615,27 @@
         <v>859.6529</v>
       </c>
       <c r="G166" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="H166" t="n">
         <v>128.2666666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>119</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6257,18 +7659,27 @@
         <v>1535.006</v>
       </c>
       <c r="G167" t="n">
+        <v>127.0666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>128.3</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>119</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,18 +7703,27 @@
         <v>43.653</v>
       </c>
       <c r="G168" t="n">
+        <v>126.9333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>128.2833333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>119</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6327,18 +7747,27 @@
         <v>6124.5999</v>
       </c>
       <c r="G169" t="n">
+        <v>127</v>
+      </c>
+      <c r="H169" t="n">
         <v>128.3166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>119</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,18 +7791,27 @@
         <v>12118.93148307692</v>
       </c>
       <c r="G170" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="H170" t="n">
         <v>128.4</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>119</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6397,18 +7835,27 @@
         <v>45498.78471692307</v>
       </c>
       <c r="G171" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="H171" t="n">
         <v>128.4333333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>119</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6432,18 +7879,27 @@
         <v>890.0436</v>
       </c>
       <c r="G172" t="n">
+        <v>127.6666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>128.4666666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>119</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,18 +7923,27 @@
         <v>17580.8566</v>
       </c>
       <c r="G173" t="n">
+        <v>128</v>
+      </c>
+      <c r="H173" t="n">
         <v>128.5166666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>119</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,18 +7967,27 @@
         <v>3978.7385</v>
       </c>
       <c r="G174" t="n">
+        <v>128.2666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>128.5666666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>119</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6537,18 +8011,27 @@
         <v>11325.70990530303</v>
       </c>
       <c r="G175" t="n">
+        <v>128.5333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>128.6666666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>119</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6572,18 +8055,27 @@
         <v>15931.3014</v>
       </c>
       <c r="G176" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="H176" t="n">
         <v>128.6833333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>119</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6607,18 +8099,27 @@
         <v>811.4140992481204</v>
       </c>
       <c r="G177" t="n">
+        <v>129.1333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>128.7</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>119</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,18 +8143,27 @@
         <v>14303.4615</v>
       </c>
       <c r="G178" t="n">
+        <v>129.4666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>128.6666666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>119</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6677,18 +8187,27 @@
         <v>90462.4081</v>
       </c>
       <c r="G179" t="n">
+        <v>129.7333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>128.65</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>119</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6712,18 +8231,27 @@
         <v>49682.2045</v>
       </c>
       <c r="G180" t="n">
+        <v>130</v>
+      </c>
+      <c r="H180" t="n">
         <v>128.6166666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>119</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6747,18 +8275,27 @@
         <v>1835.2071</v>
       </c>
       <c r="G181" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="H181" t="n">
         <v>128.6166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>119</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6782,18 +8319,27 @@
         <v>19183.6791</v>
       </c>
       <c r="G182" t="n">
+        <v>130.4666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>128.6</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>119</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6817,18 +8363,27 @@
         <v>22</v>
       </c>
       <c r="G183" t="n">
+        <v>130.7333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>128.55</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>119</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6852,18 +8407,27 @@
         <v>4</v>
       </c>
       <c r="G184" t="n">
+        <v>130.9333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>128.6</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>119</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6887,18 +8451,27 @@
         <v>10005.8238</v>
       </c>
       <c r="G185" t="n">
+        <v>131</v>
+      </c>
+      <c r="H185" t="n">
         <v>128.65</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>119</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,18 +8495,27 @@
         <v>4</v>
       </c>
       <c r="G186" t="n">
+        <v>131.1333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>128.6666666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>119</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6957,18 +8539,27 @@
         <v>423.9776</v>
       </c>
       <c r="G187" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="H187" t="n">
         <v>128.7</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>119</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6992,18 +8583,27 @@
         <v>9.2104</v>
       </c>
       <c r="G188" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="H188" t="n">
         <v>128.7333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>119</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,18 +8627,27 @@
         <v>5345.2172</v>
       </c>
       <c r="G189" t="n">
+        <v>131.1333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>128.7666666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>119</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7062,18 +8671,27 @@
         <v>4065.4288</v>
       </c>
       <c r="G190" t="n">
+        <v>131</v>
+      </c>
+      <c r="H190" t="n">
         <v>128.8</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>119</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,18 +8715,27 @@
         <v>15385.51</v>
       </c>
       <c r="G191" t="n">
+        <v>130.8666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>128.8</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>119</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7132,18 +8759,27 @@
         <v>11667.1017</v>
       </c>
       <c r="G192" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="H192" t="n">
         <v>128.8333333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>119</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7167,18 +8803,27 @@
         <v>519.0558</v>
       </c>
       <c r="G193" t="n">
+        <v>130.6666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>128.8666666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>119</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7202,18 +8847,27 @@
         <v>1720.9873</v>
       </c>
       <c r="G194" t="n">
+        <v>130.5333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>128.85</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>119</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7237,18 +8891,27 @@
         <v>39484.884</v>
       </c>
       <c r="G195" t="n">
+        <v>130.5333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>128.8666666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>119</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7272,18 +8935,27 @@
         <v>7847.2331</v>
       </c>
       <c r="G196" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>128.85</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>119</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7307,18 +8979,27 @@
         <v>1445.8808</v>
       </c>
       <c r="G197" t="n">
+        <v>130.1333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>128.85</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>119</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,18 +9023,27 @@
         <v>6143.9714</v>
       </c>
       <c r="G198" t="n">
+        <v>129.8666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>128.8166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>119</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,18 +9067,27 @@
         <v>6771.6847</v>
       </c>
       <c r="G199" t="n">
+        <v>129.4666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>128.9</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>119</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7412,18 +9111,27 @@
         <v>8979.43</v>
       </c>
       <c r="G200" t="n">
+        <v>129.0666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>128.9333333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>119</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,18 +9155,27 @@
         <v>3673.7595</v>
       </c>
       <c r="G201" t="n">
+        <v>128.6666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>128.8166666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>119</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,18 +9199,27 @@
         <v>1713.8619</v>
       </c>
       <c r="G202" t="n">
+        <v>128.3333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>128.7666666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>119</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7517,18 +9243,27 @@
         <v>1242.2619</v>
       </c>
       <c r="G203" t="n">
+        <v>128.1333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>128.75</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>119</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7552,18 +9287,27 @@
         <v>14592.4931</v>
       </c>
       <c r="G204" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>128.7666666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>119</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7587,18 +9331,27 @@
         <v>3445.5856</v>
       </c>
       <c r="G205" t="n">
+        <v>127.5333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>128.65</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>119</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7622,18 +9375,27 @@
         <v>2675.1247</v>
       </c>
       <c r="G206" t="n">
+        <v>127.3333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>128.6166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>119</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7657,18 +9419,27 @@
         <v>2516.1168</v>
       </c>
       <c r="G207" t="n">
+        <v>127.0666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>128.6166666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>119</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7692,18 +9463,27 @@
         <v>178.7637</v>
       </c>
       <c r="G208" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="H208" t="n">
         <v>128.6166666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>119</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7727,18 +9507,27 @@
         <v>56</v>
       </c>
       <c r="G209" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="H209" t="n">
         <v>128.5666666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>119</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7762,18 +9551,27 @@
         <v>78</v>
       </c>
       <c r="G210" t="n">
+        <v>126.2666666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>128.5</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>119</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7797,18 +9595,27 @@
         <v>38</v>
       </c>
       <c r="G211" t="n">
+        <v>126.2</v>
+      </c>
+      <c r="H211" t="n">
         <v>128.4833333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>119</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7832,18 +9639,27 @@
         <v>1659.175</v>
       </c>
       <c r="G212" t="n">
+        <v>126.2</v>
+      </c>
+      <c r="H212" t="n">
         <v>128.4666666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>119</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7867,18 +9683,27 @@
         <v>8</v>
       </c>
       <c r="G213" t="n">
+        <v>126.1333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>128.4166666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>119</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7902,18 +9727,27 @@
         <v>100</v>
       </c>
       <c r="G214" t="n">
+        <v>126.1333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>128.3833333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>119</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7937,18 +9771,27 @@
         <v>74</v>
       </c>
       <c r="G215" t="n">
+        <v>126.3333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>128.4</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>119</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7972,18 +9815,27 @@
         <v>8</v>
       </c>
       <c r="G216" t="n">
+        <v>126.4666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>128.4166666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>119</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8007,18 +9859,27 @@
         <v>6792.0272</v>
       </c>
       <c r="G217" t="n">
+        <v>126.6666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>128.4666666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>119</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8042,18 +9903,27 @@
         <v>507</v>
       </c>
       <c r="G218" t="n">
+        <v>126.6666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>128.5</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>119</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8077,18 +9947,27 @@
         <v>24880.1756</v>
       </c>
       <c r="G219" t="n">
+        <v>126.8666666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>128.5333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>119</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8112,18 +9991,27 @@
         <v>683.3981</v>
       </c>
       <c r="G220" t="n">
+        <v>127</v>
+      </c>
+      <c r="H220" t="n">
         <v>128.5166666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>119</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8147,18 +10035,27 @@
         <v>2946.3327</v>
       </c>
       <c r="G221" t="n">
+        <v>127.0666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>128.5166666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>119</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8182,18 +10079,27 @@
         <v>5541.926</v>
       </c>
       <c r="G222" t="n">
+        <v>127.2666666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>128.5666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>119</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8217,18 +10123,27 @@
         <v>11829.1594</v>
       </c>
       <c r="G223" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="H223" t="n">
         <v>128.6333333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>119</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8252,18 +10167,27 @@
         <v>2440.1251</v>
       </c>
       <c r="G224" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="H224" t="n">
         <v>128.6833333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>119</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8287,18 +10211,27 @@
         <v>985.8606</v>
       </c>
       <c r="G225" t="n">
+        <v>128.0666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>128.7166666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>119</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8322,18 +10255,27 @@
         <v>1257.034</v>
       </c>
       <c r="G226" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="H226" t="n">
         <v>128.7333333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>119</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8357,18 +10299,27 @@
         <v>8590.191000000001</v>
       </c>
       <c r="G227" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="H227" t="n">
         <v>128.75</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>119</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8392,18 +10343,27 @@
         <v>3942.1875</v>
       </c>
       <c r="G228" t="n">
+        <v>128.3333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>128.7666666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>119</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8427,18 +10387,27 @@
         <v>2587.6892</v>
       </c>
       <c r="G229" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="H229" t="n">
         <v>128.7333333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>119</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8462,18 +10431,27 @@
         <v>5</v>
       </c>
       <c r="G230" t="n">
+        <v>128.5333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>128.7333333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>119</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8497,18 +10475,27 @@
         <v>1908.6944</v>
       </c>
       <c r="G231" t="n">
+        <v>128.6666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>128.7333333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>119</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8535,15 +10522,24 @@
         <v>128.7333333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>119</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8567,18 +10563,27 @@
         <v>7.3269</v>
       </c>
       <c r="G233" t="n">
+        <v>128.8666666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>128.7166666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="L233" t="n">
+        <v>119</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8602,18 +10607,27 @@
         <v>1076.923076923077</v>
       </c>
       <c r="G234" t="n">
+        <v>128.9333333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>128.7</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>119</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8637,18 +10651,27 @@
         <v>23853.85080769231</v>
       </c>
       <c r="G235" t="n">
+        <v>129.2666666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>128.7</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>119</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8672,18 +10695,27 @@
         <v>10213.2385</v>
       </c>
       <c r="G236" t="n">
+        <v>129.6666666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>128.7333333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>119</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8707,18 +10739,27 @@
         <v>191.8836</v>
       </c>
       <c r="G237" t="n">
+        <v>129.8666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>128.75</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>119</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8742,18 +10783,27 @@
         <v>3920.2517</v>
       </c>
       <c r="G238" t="n">
+        <v>129.8666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>128.7333333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>119</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8777,18 +10827,27 @@
         <v>6135.1542</v>
       </c>
       <c r="G239" t="n">
+        <v>130.0666666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>128.7666666666667</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="L239" t="n">
+        <v>119</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,18 +10871,27 @@
         <v>14080.36316716418</v>
       </c>
       <c r="G240" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="H240" t="n">
         <v>128.8166666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>119</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8847,18 +10915,27 @@
         <v>102239.5963328358</v>
       </c>
       <c r="G241" t="n">
+        <v>131</v>
+      </c>
+      <c r="H241" t="n">
         <v>128.9333333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="L241" t="n">
+        <v>119</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8882,18 +10959,27 @@
         <v>179698.5607424658</v>
       </c>
       <c r="G242" t="n">
+        <v>132.1333333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>129.1666666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="L242" t="n">
+        <v>119</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8917,18 +11003,27 @@
         <v>46402.9235</v>
       </c>
       <c r="G243" t="n">
+        <v>133.2666666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>129.4</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="L243" t="n">
+        <v>119</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8952,18 +11047,27 @@
         <v>60381.7917</v>
       </c>
       <c r="G244" t="n">
+        <v>133.8666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>129.4666666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>119</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8987,18 +11091,27 @@
         <v>84017.36734285715</v>
       </c>
       <c r="G245" t="n">
+        <v>134.5333333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>129.6166666666667</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>119</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9022,18 +11135,27 @@
         <v>4236.1516</v>
       </c>
       <c r="G246" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="H246" t="n">
         <v>129.75</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>119</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9057,18 +11179,27 @@
         <v>8172.7352</v>
       </c>
       <c r="G247" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="H247" t="n">
         <v>129.8833333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>119</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9092,18 +11223,27 @@
         <v>10686.8028</v>
       </c>
       <c r="G248" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="H248" t="n">
         <v>130.0166666666667</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>119</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9127,18 +11267,27 @@
         <v>2642</v>
       </c>
       <c r="G249" t="n">
+        <v>136.8666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>130.1333333333333</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>119</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9162,18 +11311,27 @@
         <v>19162.8411</v>
       </c>
       <c r="G250" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="H250" t="n">
         <v>130.25</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>119</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9197,18 +11355,27 @@
         <v>217.7084</v>
       </c>
       <c r="G251" t="n">
+        <v>137.5333333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>130.4</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>119</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9232,18 +11399,27 @@
         <v>24001.4318</v>
       </c>
       <c r="G252" t="n">
+        <v>137.8666666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>130.5166666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>119</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9267,18 +11443,27 @@
         <v>48024.00924117647</v>
       </c>
       <c r="G253" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="H253" t="n">
         <v>130.6166666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>119</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9302,18 +11487,27 @@
         <v>48079.8596</v>
       </c>
       <c r="G254" t="n">
+        <v>138.1333333333333</v>
+      </c>
+      <c r="H254" t="n">
         <v>130.6666666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>119</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9337,18 +11531,27 @@
         <v>5335.148711764706</v>
       </c>
       <c r="G255" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="H255" t="n">
         <v>130.7333333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>119</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9372,18 +11575,27 @@
         <v>28029.44168751587</v>
       </c>
       <c r="G256" t="n">
+        <v>138.3333333333333</v>
+      </c>
+      <c r="H256" t="n">
         <v>130.9333333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>119</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9407,18 +11619,27 @@
         <v>42195.19061917211</v>
       </c>
       <c r="G257" t="n">
+        <v>137.6666666666667</v>
+      </c>
+      <c r="H257" t="n">
         <v>131.05</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>119</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9442,18 +11663,27 @@
         <v>352</v>
       </c>
       <c r="G258" t="n">
+        <v>137.1333333333333</v>
+      </c>
+      <c r="H258" t="n">
         <v>131.2166666666667</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>119</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9477,18 +11707,27 @@
         <v>3026.8805</v>
       </c>
       <c r="G259" t="n">
+        <v>137.1333333333333</v>
+      </c>
+      <c r="H259" t="n">
         <v>131.3833333333333</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>119</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9512,18 +11751,27 @@
         <v>1445.492618248175</v>
       </c>
       <c r="G260" t="n">
+        <v>136.9333333333333</v>
+      </c>
+      <c r="H260" t="n">
         <v>131.5833333333333</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>119</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9547,18 +11795,27 @@
         <v>904</v>
       </c>
       <c r="G261" t="n">
+        <v>136.7333333333333</v>
+      </c>
+      <c r="H261" t="n">
         <v>131.7666666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>119</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9582,18 +11839,27 @@
         <v>2157.135181751825</v>
       </c>
       <c r="G262" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="H262" t="n">
         <v>131.95</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>119</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9617,18 +11883,27 @@
         <v>6462.5664</v>
       </c>
       <c r="G263" t="n">
+        <v>136.5333333333333</v>
+      </c>
+      <c r="H263" t="n">
         <v>132.1166666666667</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>119</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9652,18 +11927,27 @@
         <v>500</v>
       </c>
       <c r="G264" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="H264" t="n">
         <v>132.3166666666667</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>119</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9687,18 +11971,27 @@
         <v>50809.62694965518</v>
       </c>
       <c r="G265" t="n">
+        <v>136.8666666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>132.5833333333333</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="L265" t="n">
+        <v>119</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9722,18 +12015,27 @@
         <v>32635.2647</v>
       </c>
       <c r="G266" t="n">
+        <v>136.9333333333333</v>
+      </c>
+      <c r="H266" t="n">
         <v>132.8</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="L266" t="n">
+        <v>119</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9757,18 +12059,27 @@
         <v>48363.434</v>
       </c>
       <c r="G267" t="n">
+        <v>137</v>
+      </c>
+      <c r="H267" t="n">
         <v>133</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="L267" t="n">
+        <v>119</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9792,18 +12103,27 @@
         <v>19898.0518</v>
       </c>
       <c r="G268" t="n">
+        <v>137.3333333333333</v>
+      </c>
+      <c r="H268" t="n">
         <v>133.25</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="L268" t="n">
+        <v>119</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9827,18 +12147,27 @@
         <v>34852.7815</v>
       </c>
       <c r="G269" t="n">
+        <v>138.0666666666667</v>
+      </c>
+      <c r="H269" t="n">
         <v>133.5333333333333</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="L269" t="n">
+        <v>119</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9862,18 +12191,27 @@
         <v>67104.16469999999</v>
       </c>
       <c r="G270" t="n">
+        <v>138.7333333333333</v>
+      </c>
+      <c r="H270" t="n">
         <v>133.85</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="L270" t="n">
+        <v>119</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9897,18 +12235,27 @@
         <v>77952.7611</v>
       </c>
       <c r="G271" t="n">
+        <v>139.0666666666667</v>
+      </c>
+      <c r="H271" t="n">
         <v>134.15</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="L271" t="n">
+        <v>119</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9932,18 +12279,27 @@
         <v>44526.0986</v>
       </c>
       <c r="G272" t="n">
+        <v>139.7333333333333</v>
+      </c>
+      <c r="H272" t="n">
         <v>134.4333333333333</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="L272" t="n">
+        <v>119</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9967,18 +12323,27 @@
         <v>37511.2832</v>
       </c>
       <c r="G273" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="H273" t="n">
         <v>134.7833333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="L273" t="n">
+        <v>119</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10002,18 +12367,413 @@
         <v>23602.0709</v>
       </c>
       <c r="G274" t="n">
+        <v>140.9333333333333</v>
+      </c>
+      <c r="H274" t="n">
         <v>135.0833333333333</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="L274" t="n">
+        <v>119</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>146</v>
+      </c>
+      <c r="C275" t="n">
+        <v>150</v>
+      </c>
+      <c r="D275" t="n">
+        <v>150</v>
+      </c>
+      <c r="E275" t="n">
+        <v>146</v>
+      </c>
+      <c r="F275" t="n">
+        <v>122699.3312</v>
+      </c>
+      <c r="G275" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="H275" t="n">
+        <v>135.45</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>119</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>1.255504201680672</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>149</v>
+      </c>
+      <c r="C276" t="n">
+        <v>152</v>
+      </c>
+      <c r="D276" t="n">
+        <v>152</v>
+      </c>
+      <c r="E276" t="n">
+        <v>149</v>
+      </c>
+      <c r="F276" t="n">
+        <v>271547.039</v>
+      </c>
+      <c r="G276" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="H276" t="n">
+        <v>135.85</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>150</v>
+      </c>
+      <c r="C277" t="n">
+        <v>149</v>
+      </c>
+      <c r="D277" t="n">
+        <v>152</v>
+      </c>
+      <c r="E277" t="n">
+        <v>149</v>
+      </c>
+      <c r="F277" t="n">
+        <v>48825.5869</v>
+      </c>
+      <c r="G277" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="H277" t="n">
+        <v>136.1833333333333</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>150</v>
+      </c>
+      <c r="C278" t="n">
+        <v>150</v>
+      </c>
+      <c r="D278" t="n">
+        <v>150</v>
+      </c>
+      <c r="E278" t="n">
+        <v>148</v>
+      </c>
+      <c r="F278" t="n">
+        <v>11235.4262</v>
+      </c>
+      <c r="G278" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="H278" t="n">
+        <v>136.55</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>150</v>
+      </c>
+      <c r="C279" t="n">
+        <v>147</v>
+      </c>
+      <c r="D279" t="n">
+        <v>150</v>
+      </c>
+      <c r="E279" t="n">
+        <v>145</v>
+      </c>
+      <c r="F279" t="n">
+        <v>76470.6058</v>
+      </c>
+      <c r="G279" t="n">
+        <v>145</v>
+      </c>
+      <c r="H279" t="n">
+        <v>136.85</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>1</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>147</v>
+      </c>
+      <c r="C280" t="n">
+        <v>147</v>
+      </c>
+      <c r="D280" t="n">
+        <v>147</v>
+      </c>
+      <c r="E280" t="n">
+        <v>145</v>
+      </c>
+      <c r="F280" t="n">
+        <v>96473.698</v>
+      </c>
+      <c r="G280" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="H280" t="n">
+        <v>137.1833333333333</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>147</v>
+      </c>
+      <c r="C281" t="n">
+        <v>149</v>
+      </c>
+      <c r="D281" t="n">
+        <v>149</v>
+      </c>
+      <c r="E281" t="n">
+        <v>147</v>
+      </c>
+      <c r="F281" t="n">
+        <v>64401.8717</v>
+      </c>
+      <c r="G281" t="n">
+        <v>146.0666666666667</v>
+      </c>
+      <c r="H281" t="n">
+        <v>137.55</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>148</v>
+      </c>
+      <c r="C282" t="n">
+        <v>149</v>
+      </c>
+      <c r="D282" t="n">
+        <v>149</v>
+      </c>
+      <c r="E282" t="n">
+        <v>148</v>
+      </c>
+      <c r="F282" t="n">
+        <v>9235.2929</v>
+      </c>
+      <c r="G282" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="H282" t="n">
+        <v>137.8833333333333</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>149</v>
+      </c>
+      <c r="C283" t="n">
+        <v>146</v>
+      </c>
+      <c r="D283" t="n">
+        <v>149</v>
+      </c>
+      <c r="E283" t="n">
+        <v>146</v>
+      </c>
+      <c r="F283" t="n">
+        <v>37508.9315</v>
+      </c>
+      <c r="G283" t="n">
+        <v>147.1333333333333</v>
+      </c>
+      <c r="H283" t="n">
+        <v>138.1333333333333</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>146</v>
+      </c>
+      <c r="C284" t="n">
+        <v>149</v>
+      </c>
+      <c r="D284" t="n">
+        <v>149</v>
+      </c>
+      <c r="E284" t="n">
+        <v>146</v>
+      </c>
+      <c r="F284" t="n">
+        <v>18566.3208</v>
+      </c>
+      <c r="G284" t="n">
+        <v>147.5333333333333</v>
+      </c>
+      <c r="H284" t="n">
+        <v>138.45</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-17 BackTest FX.xlsx
+++ b/BackTest/2019-11-17 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>178830.3765</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>110</v>
-      </c>
-      <c r="J5" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -590,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>110</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -629,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>110</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -2216,17 +2200,11 @@
         <v>189281.5818</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2255,17 +2233,11 @@
         <v>178095.434</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2294,17 +2266,11 @@
         <v>178095.434</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2333,17 +2299,11 @@
         <v>182173.1827711864</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2372,17 +2332,11 @@
         <v>182168.7827711864</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2411,17 +2365,11 @@
         <v>190949.3651</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2450,17 +2398,11 @@
         <v>195714.1856</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2489,17 +2431,11 @@
         <v>195714.1856</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2528,17 +2464,11 @@
         <v>195714.1856</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2567,17 +2497,11 @@
         <v>195714.1856</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2606,17 +2530,11 @@
         <v>195709.7856</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2645,17 +2563,11 @@
         <v>194169.2828</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2684,17 +2596,11 @@
         <v>195378.4606</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2723,17 +2629,11 @@
         <v>195378.4606</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2762,17 +2662,11 @@
         <v>194680.4324</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2801,17 +2695,11 @@
         <v>194685.1079</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2840,17 +2728,11 @@
         <v>194685.1079</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2879,17 +2761,11 @@
         <v>199093.348</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2918,17 +2794,15 @@
         <v>199093.348</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>118</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2957,13 +2831,17 @@
         <v>205224.2304714286</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>118</v>
+      </c>
+      <c r="J74" t="n">
+        <v>118</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2994,13 +2872,17 @@
         <v>223403.4226714286</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>119</v>
+      </c>
+      <c r="J75" t="n">
+        <v>118</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3035,11 +2917,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3068,17 +2946,15 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>119</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="n">
+        <v>119</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3107,15 +2983,17 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>119</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>119</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3146,15 +3024,17 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>119</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>119</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3185,17 +3065,15 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>119</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="n">
+        <v>119</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3224,15 +3102,17 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>119</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>119</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3263,12 +3143,14 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>119</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>119</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,12 +3184,14 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>119</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>119</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3341,12 +3225,14 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>119</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>119</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,12 +3266,14 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>119</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>119</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,12 +3307,14 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>119</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>119</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,12 +3348,14 @@
         <v>222821.2945714286</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>119</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>119</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,12 +3389,14 @@
         <v>222821.2945714286</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>118</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>119</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,12 +3430,14 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>118</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>119</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,12 +3471,14 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>117</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>119</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,12 +3512,14 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>117</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>119</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,12 +3553,14 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>117</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>119</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,12 +3594,14 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>117</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>119</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,12 +3635,14 @@
         <v>220186.5243714286</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>117</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>119</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,12 +3676,14 @@
         <v>220175.1144714286</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>119</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>119</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,12 +3717,14 @@
         <v>214654.387307326</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>118</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>119</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,12 +3758,14 @@
         <v>214654.387307326</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>117</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>119</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,12 +3799,14 @@
         <v>214677.685407326</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>117</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>119</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,12 +3840,14 @@
         <v>209308.653107326</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>118</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>119</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,12 +3881,14 @@
         <v>209308.653107326</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>116</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>119</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,12 +3922,14 @@
         <v>208194.734007326</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>116</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,12 +3963,14 @@
         <v>208226.031207326</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>115</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>119</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,12 +4004,14 @@
         <v>208226.031207326</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>116</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>119</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,12 +4045,14 @@
         <v>208230.331207326</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>116</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>119</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,12 +4086,14 @@
         <v>208230.331207326</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>118</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>119</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,12 +4127,14 @@
         <v>207810.001207326</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>118</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>119</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,10 +4168,14 @@
         <v>215640.707607326</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>115</v>
+      </c>
+      <c r="J107" t="n">
+        <v>119</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,10 +4209,14 @@
         <v>215640.707607326</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>117</v>
+      </c>
+      <c r="J108" t="n">
+        <v>119</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,12 +4250,14 @@
         <v>215541.707607326</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>117</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>119</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,12 +4291,14 @@
         <v>212277.559707326</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>116</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>119</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,12 +4332,14 @@
         <v>212277.559707326</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>115</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>119</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4429,12 +4373,14 @@
         <v>212277.559707326</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>115</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>119</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,12 +4414,14 @@
         <v>210448.062007326</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>115</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>119</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,12 +4455,14 @@
         <v>211206.535807326</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>114</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>119</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4546,12 +4496,14 @@
         <v>207925.111607326</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>116</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>119</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4585,12 +4537,14 @@
         <v>209350.982307326</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>114</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>119</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,12 +4578,14 @@
         <v>206630.582307326</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>115</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>119</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4663,12 +4619,14 @@
         <v>207196.619307326</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>114</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>119</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,12 +4660,14 @@
         <v>209334.306507326</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>116</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>119</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4741,12 +4701,14 @@
         <v>209334.306507326</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>117</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>119</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4780,12 +4742,14 @@
         <v>209334.306507326</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>117</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>119</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4819,12 +4783,14 @@
         <v>209338.606507326</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>117</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>119</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,12 +4824,14 @@
         <v>209338.606507326</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>118</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>119</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,12 +4865,14 @@
         <v>209059.661707326</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>118</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>119</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,12 +4906,14 @@
         <v>209059.661707326</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>116</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>119</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4975,12 +4947,14 @@
         <v>211934.920407326</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>116</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>119</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,12 +4988,14 @@
         <v>230168.284907326</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>117</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>119</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5053,12 +5029,14 @@
         <v>229988.949307326</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>118</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>119</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5092,12 +5070,14 @@
         <v>229988.949307326</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>116</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>119</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,12 +5111,14 @@
         <v>229993.949307326</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>116</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>119</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,12 +5152,14 @@
         <v>229955.212907326</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>117</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>119</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,12 +5193,14 @@
         <v>233283.212907326</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>116</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>119</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,12 +5234,14 @@
         <v>233283.212907326</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>117</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>119</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5287,12 +5275,14 @@
         <v>233283.212907326</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>117</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>119</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,12 +5316,14 @@
         <v>233283.212907326</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>117</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>119</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,12 +5357,14 @@
         <v>233278.212907326</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>117</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>119</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,12 +5398,14 @@
         <v>233278.212907326</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>116</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>119</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5443,12 +5439,14 @@
         <v>244825.922507326</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>116</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>119</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,12 +5480,14 @@
         <v>241542.299007326</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>117</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>119</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5521,12 +5521,14 @@
         <v>241547.299007326</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>116</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>119</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,12 +5562,14 @@
         <v>232798.800507326</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>117</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>119</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5599,12 +5603,14 @@
         <v>242672.665707326</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>115</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>119</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5638,12 +5644,14 @@
         <v>242672.665707326</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>116</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>119</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5677,12 +5685,14 @@
         <v>242672.665707326</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>116</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>119</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,12 +5726,14 @@
         <v>242672.665707326</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>116</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>119</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,12 +5767,14 @@
         <v>242672.665707326</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>116</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>119</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,12 +5808,14 @@
         <v>227462.185707326</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>116</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>119</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5833,12 +5849,14 @@
         <v>227467.185707326</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>115</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>119</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5872,12 +5890,14 @@
         <v>214729.874907326</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>117</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>119</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,12 +5931,14 @@
         <v>214729.874907326</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>116</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>119</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5950,12 +5972,14 @@
         <v>214913.170607326</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>116</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>119</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,12 +6013,14 @@
         <v>212557.012907326</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>117</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>119</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,12 +6054,14 @@
         <v>203925.641407326</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>116</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>119</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6067,12 +6095,14 @@
         <v>203930.641407326</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>115</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>119</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,12 +6136,14 @@
         <v>203930.641407326</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>117</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>119</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,12 +6177,14 @@
         <v>203930.641407326</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>117</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>119</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,12 +6218,14 @@
         <v>203930.641407326</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>117</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>119</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,12 +6259,14 @@
         <v>203930.641407326</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>117</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>119</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6262,12 +6300,14 @@
         <v>197747.692807326</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>117</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>119</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,12 +6341,14 @@
         <v>203739.091507326</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>116</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>119</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6340,12 +6382,14 @@
         <v>203739.091507326</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>118</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>119</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6379,12 +6423,14 @@
         <v>241431.184607326</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>118</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>119</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,12 +6464,14 @@
         <v>208107.646907326</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>121</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>119</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,12 +6505,14 @@
         <v>217540.5047073259</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>120</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>119</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,12 +6546,14 @@
         <v>282956.5389073259</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>122</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>119</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,12 +6587,14 @@
         <v>351047.3227073259</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>125</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>119</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,7 +6631,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>119</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6614,7 +6670,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>119</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6651,7 +6709,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>119</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6688,7 +6748,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>119</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6725,7 +6787,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>119</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6762,7 +6826,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>119</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,7 +6865,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>119</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6836,7 +6904,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>119</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,7 +6943,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>119</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6910,7 +6982,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>119</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6947,7 +7021,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>119</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6984,7 +7060,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>119</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7021,7 +7099,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>119</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7058,7 +7138,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>119</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,7 +7177,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>119</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7132,7 +7216,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>119</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7169,7 +7255,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>119</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,7 +7294,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>119</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7243,7 +7333,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>119</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,7 +7372,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>119</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,10 +7408,14 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>129</v>
+      </c>
+      <c r="J187" t="n">
+        <v>119</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,10 +7449,14 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>128</v>
+      </c>
+      <c r="J188" t="n">
+        <v>119</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7390,8 +7492,12 @@
       <c r="H189" t="n">
         <v>1</v>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>128</v>
+      </c>
+      <c r="J189" t="n">
+        <v>119</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7427,8 +7533,12 @@
       <c r="H190" t="n">
         <v>1</v>
       </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>129</v>
+      </c>
+      <c r="J190" t="n">
+        <v>119</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7464,8 +7574,12 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>128</v>
+      </c>
+      <c r="J191" t="n">
+        <v>119</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7501,8 +7615,12 @@
       <c r="H192" t="n">
         <v>1</v>
       </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>128</v>
+      </c>
+      <c r="J192" t="n">
+        <v>119</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7538,8 +7656,12 @@
       <c r="H193" t="n">
         <v>1</v>
       </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>130</v>
+      </c>
+      <c r="J193" t="n">
+        <v>119</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7575,8 +7697,12 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>130</v>
+      </c>
+      <c r="J194" t="n">
+        <v>119</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7612,8 +7738,12 @@
       <c r="H195" t="n">
         <v>1</v>
       </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>128</v>
+      </c>
+      <c r="J195" t="n">
+        <v>119</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7649,8 +7779,12 @@
       <c r="H196" t="n">
         <v>1</v>
       </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>128</v>
+      </c>
+      <c r="J196" t="n">
+        <v>119</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7686,8 +7820,12 @@
       <c r="H197" t="n">
         <v>1</v>
       </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>129</v>
+      </c>
+      <c r="J197" t="n">
+        <v>119</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7721,10 +7859,14 @@
         <v>486800.6550776962</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>121</v>
+      </c>
+      <c r="J198" t="n">
+        <v>119</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7758,10 +7900,14 @@
         <v>513795.2611483729</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>123</v>
+      </c>
+      <c r="J199" t="n">
+        <v>119</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,8 +7943,12 @@
       <c r="H200" t="n">
         <v>1</v>
       </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>133</v>
+      </c>
+      <c r="J200" t="n">
+        <v>119</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7834,8 +7984,12 @@
       <c r="H201" t="n">
         <v>1</v>
       </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>129</v>
+      </c>
+      <c r="J201" t="n">
+        <v>119</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,10 +8023,14 @@
         <v>494272.5756483729</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>129</v>
+      </c>
+      <c r="J202" t="n">
+        <v>119</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7906,10 +8064,14 @@
         <v>507710.8023430699</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>125</v>
+      </c>
+      <c r="J203" t="n">
+        <v>119</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7945,8 +8107,12 @@
       <c r="H204" t="n">
         <v>1</v>
       </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>132</v>
+      </c>
+      <c r="J204" t="n">
+        <v>119</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7980,10 +8146,14 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>128</v>
+      </c>
+      <c r="J205" t="n">
+        <v>119</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,10 +8187,14 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>126</v>
+      </c>
+      <c r="J206" t="n">
+        <v>119</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8054,10 +8228,14 @@
         <v>503245.0808430699</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>126</v>
+      </c>
+      <c r="J207" t="n">
+        <v>119</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8091,10 +8269,14 @@
         <v>503258.0808430699</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>129</v>
+      </c>
+      <c r="J208" t="n">
+        <v>119</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,7 +8313,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>119</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8168,7 +8352,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>119</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8205,7 +8391,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>119</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8242,7 +8430,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>119</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8279,7 +8469,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>119</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8316,7 +8508,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>119</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,7 +8547,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>119</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,7 +8586,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>119</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8427,7 +8625,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>119</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,7 +8664,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>119</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8501,7 +8703,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>119</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8538,7 +8742,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>119</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8575,7 +8781,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>119</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8612,7 +8820,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>119</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,7 +8859,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>119</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8686,7 +8898,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>119</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8723,7 +8937,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>119</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8760,7 +8976,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>119</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8797,7 +9015,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>119</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8834,7 +9054,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>119</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,7 +9093,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>119</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,7 +9132,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>119</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,7 +9171,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>119</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,7 +9210,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>119</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9019,7 +9249,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>119</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9056,7 +9288,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>119</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9093,7 +9327,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>119</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9130,7 +9366,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>119</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9167,7 +9405,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>119</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9204,7 +9444,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>119</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9241,7 +9483,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>119</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9278,7 +9522,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>119</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,7 +9561,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>119</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9349,16 +9597,20 @@
         <v>464488.645848373</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>119</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L242" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
       <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
@@ -9387,8 +9639,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>119</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9420,8 +9678,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>119</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9450,11 +9714,17 @@
         <v>454062.844448373</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>119</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9483,11 +9753,17 @@
         <v>454062.844448373</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>119</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9516,11 +9792,17 @@
         <v>448717.627248373</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>119</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9549,11 +9831,17 @@
         <v>448717.627248373</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>119</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9585,8 +9873,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>119</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9615,11 +9909,17 @@
         <v>444999.218948373</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>119</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9651,8 +9951,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>119</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9684,8 +9990,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>119</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9717,8 +10029,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>119</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9750,8 +10068,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>119</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9783,8 +10107,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>119</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9816,8 +10146,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>119</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9849,8 +10185,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>119</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9882,8 +10224,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>119</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9915,8 +10263,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>119</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9948,8 +10302,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>119</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9981,8 +10341,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>119</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10014,8 +10380,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>119</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10047,8 +10419,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>119</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10080,8 +10458,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>119</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10113,8 +10497,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>119</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10146,8 +10536,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>119</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10179,8 +10575,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>119</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10212,8 +10614,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>119</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10245,8 +10653,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>119</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10278,8 +10692,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>119</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10311,8 +10731,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>119</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10344,8 +10770,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>119</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10377,8 +10809,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>119</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10410,8 +10848,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>119</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10443,8 +10887,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>119</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10476,8 +10926,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>119</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10509,8 +10965,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>119</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10542,8 +11004,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>119</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10575,8 +11043,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>119</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10608,8 +11082,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>119</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10641,8 +11121,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>119</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10674,8 +11160,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>119</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10707,8 +11199,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>119</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10740,8 +11238,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>119</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10773,8 +11277,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>119</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10806,8 +11316,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>119</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10839,8 +11355,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>119</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10872,8 +11394,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>119</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10905,8 +11433,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>119</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10938,8 +11472,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>119</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10971,8 +11511,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>119</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11004,8 +11550,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>119</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11037,8 +11589,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>119</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11070,8 +11628,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>119</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11103,8 +11667,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>119</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11136,8 +11706,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>119</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11169,8 +11745,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>119</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11202,8 +11784,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>119</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11232,11 +11820,17 @@
         <v>638742.1685560653</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>119</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11265,11 +11859,17 @@
         <v>818440.7292985311</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>119</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11298,11 +11898,17 @@
         <v>818440.7292985311</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>119</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11331,11 +11937,17 @@
         <v>758058.9375985311</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>119</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11364,11 +11976,17 @@
         <v>842076.3049413883</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>119</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11397,11 +12015,17 @@
         <v>842076.3049413883</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>119</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11430,11 +12054,17 @@
         <v>833903.5697413883</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>119</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11463,11 +12093,17 @@
         <v>833903.5697413883</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>119</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11496,11 +12132,17 @@
         <v>831261.5697413883</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>119</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11529,11 +12171,17 @@
         <v>831261.5697413883</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>119</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11562,11 +12210,17 @@
         <v>831479.2781413883</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>119</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11598,8 +12252,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>119</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11631,8 +12291,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>119</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11664,8 +12330,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>119</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11697,8 +12369,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>119</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11730,8 +12408,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>119</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11763,8 +12447,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>119</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11793,11 +12483,17 @@
         <v>702895.3772803204</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>119</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11826,11 +12522,17 @@
         <v>699868.4967803204</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>119</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11862,8 +12564,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>119</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11892,11 +12600,17 @@
         <v>701313.9893985686</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>119</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11928,8 +12642,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>119</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +12678,17 @@
         <v>707776.5557985686</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>119</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11991,11 +12717,17 @@
         <v>707776.5557985686</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>119</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12024,11 +12756,17 @@
         <v>758586.1827482239</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>119</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12060,8 +12798,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>119</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12090,15 +12834,23 @@
         <v>677587.4840482239</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>119</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+        <v>1.154663865546219</v>
+      </c>
+      <c r="M325" t="n">
+        <v>1.100917431192661</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12123,7 +12875,7 @@
         <v>697485.535848224</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12156,7 +12908,7 @@
         <v>732338.317348224</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12189,7 +12941,7 @@
         <v>799442.482048224</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12222,7 +12974,7 @@
         <v>721489.720948224</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12255,7 +13007,7 @@
         <v>766015.819548224</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12288,7 +13040,7 @@
         <v>803527.1027482239</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12321,7 +13073,7 @@
         <v>779925.0318482239</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12354,7 +13106,7 @@
         <v>902624.3630482239</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12387,7 +13139,7 @@
         <v>1174171.402048224</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12420,7 +13172,7 @@
         <v>1125345.815148224</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12453,7 +13205,7 @@
         <v>1136581.241348224</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12486,7 +13238,7 @@
         <v>1060110.635548224</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12519,7 +13271,7 @@
         <v>1060110.635548224</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12552,7 +13304,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12585,7 +13337,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12618,7 +13370,7 @@
         <v>1087003.575748224</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12651,7 +13403,7 @@
         <v>1105569.896548224</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12662,6 +13414,6 @@
       <c r="M342" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest FX.xlsx
+++ b/BackTest/2019-11-17 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2794,14 +2794,10 @@
         <v>199093.348</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>118</v>
-      </c>
-      <c r="J73" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2831,19 +2827,11 @@
         <v>205224.2304714286</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>118</v>
-      </c>
-      <c r="J74" t="n">
-        <v>118</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2872,19 +2860,11 @@
         <v>223403.4226714286</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>119</v>
-      </c>
-      <c r="J75" t="n">
-        <v>118</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2946,14 +2926,10 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>119</v>
-      </c>
-      <c r="J77" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2983,19 +2959,11 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>119</v>
-      </c>
-      <c r="J78" t="n">
-        <v>119</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3024,19 +2992,11 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>119</v>
-      </c>
-      <c r="J79" t="n">
-        <v>119</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +3025,10 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>119</v>
-      </c>
-      <c r="J80" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3102,839 +3058,677 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>119</v>
       </c>
-      <c r="J81" t="n">
+      <c r="C82" t="n">
         <v>119</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="D82" t="n">
+        <v>119</v>
+      </c>
+      <c r="E82" t="n">
+        <v>119</v>
+      </c>
+      <c r="F82" t="n">
+        <v>22441.9458</v>
+      </c>
+      <c r="G82" t="n">
+        <v>223303.4226714286</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>119</v>
+      </c>
+      <c r="C83" t="n">
+        <v>119</v>
+      </c>
+      <c r="D83" t="n">
+        <v>119</v>
+      </c>
+      <c r="E83" t="n">
+        <v>119</v>
+      </c>
+      <c r="F83" t="n">
+        <v>200</v>
+      </c>
+      <c r="G83" t="n">
+        <v>223303.4226714286</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>119</v>
+      </c>
+      <c r="C84" t="n">
+        <v>119</v>
+      </c>
+      <c r="D84" t="n">
+        <v>119</v>
+      </c>
+      <c r="E84" t="n">
+        <v>119</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3025.546528571429</v>
+      </c>
+      <c r="G84" t="n">
+        <v>223303.4226714286</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>119</v>
+      </c>
+      <c r="C85" t="n">
+        <v>119</v>
+      </c>
+      <c r="D85" t="n">
+        <v>119</v>
+      </c>
+      <c r="E85" t="n">
+        <v>119</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1617.1452</v>
+      </c>
+      <c r="G85" t="n">
+        <v>223303.4226714286</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>119</v>
+      </c>
+      <c r="C86" t="n">
+        <v>119</v>
+      </c>
+      <c r="D86" t="n">
+        <v>119</v>
+      </c>
+      <c r="E86" t="n">
+        <v>119</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G86" t="n">
+        <v>223303.4226714286</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>118</v>
+      </c>
+      <c r="C87" t="n">
+        <v>118</v>
+      </c>
+      <c r="D87" t="n">
+        <v>118</v>
+      </c>
+      <c r="E87" t="n">
+        <v>118</v>
+      </c>
+      <c r="F87" t="n">
+        <v>482.1281</v>
+      </c>
+      <c r="G87" t="n">
+        <v>222821.2945714286</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>117</v>
+      </c>
+      <c r="C88" t="n">
+        <v>118</v>
+      </c>
+      <c r="D88" t="n">
+        <v>118</v>
+      </c>
+      <c r="E88" t="n">
+        <v>117</v>
+      </c>
+      <c r="F88" t="n">
+        <v>710.3899</v>
+      </c>
+      <c r="G88" t="n">
+        <v>222821.2945714286</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>117</v>
+      </c>
+      <c r="C89" t="n">
+        <v>117</v>
+      </c>
+      <c r="D89" t="n">
+        <v>117</v>
+      </c>
+      <c r="E89" t="n">
+        <v>117</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2639.7702</v>
+      </c>
+      <c r="G89" t="n">
+        <v>220181.5243714286</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>117</v>
+      </c>
+      <c r="C90" t="n">
+        <v>117</v>
+      </c>
+      <c r="D90" t="n">
+        <v>117</v>
+      </c>
+      <c r="E90" t="n">
+        <v>117</v>
+      </c>
+      <c r="F90" t="n">
+        <v>50</v>
+      </c>
+      <c r="G90" t="n">
+        <v>220181.5243714286</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>117</v>
+      </c>
+      <c r="C91" t="n">
+        <v>117</v>
+      </c>
+      <c r="D91" t="n">
+        <v>117</v>
+      </c>
+      <c r="E91" t="n">
+        <v>117</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8570.625899999999</v>
+      </c>
+      <c r="G91" t="n">
+        <v>220181.5243714286</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>117</v>
+      </c>
+      <c r="C92" t="n">
+        <v>117</v>
+      </c>
+      <c r="D92" t="n">
+        <v>117</v>
+      </c>
+      <c r="E92" t="n">
+        <v>117</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4439.4269</v>
+      </c>
+      <c r="G92" t="n">
+        <v>220181.5243714286</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>117</v>
+      </c>
+      <c r="C93" t="n">
+        <v>117</v>
+      </c>
+      <c r="D93" t="n">
+        <v>117</v>
+      </c>
+      <c r="E93" t="n">
+        <v>117</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3358.3395</v>
+      </c>
+      <c r="G93" t="n">
+        <v>220181.5243714286</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>119</v>
+      </c>
+      <c r="C94" t="n">
+        <v>119</v>
+      </c>
+      <c r="D94" t="n">
+        <v>119</v>
+      </c>
+      <c r="E94" t="n">
+        <v>119</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>220186.5243714286</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>118</v>
+      </c>
+      <c r="C95" t="n">
+        <v>118</v>
+      </c>
+      <c r="D95" t="n">
+        <v>118</v>
+      </c>
+      <c r="E95" t="n">
+        <v>118</v>
+      </c>
+      <c r="F95" t="n">
+        <v>11.4099</v>
+      </c>
+      <c r="G95" t="n">
+        <v>220175.1144714286</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>117</v>
+      </c>
+      <c r="C96" t="n">
+        <v>117</v>
+      </c>
+      <c r="D96" t="n">
+        <v>117</v>
+      </c>
+      <c r="E96" t="n">
+        <v>117</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5520.727164102565</v>
+      </c>
+      <c r="G96" t="n">
+        <v>214654.387307326</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>117</v>
+      </c>
+      <c r="C97" t="n">
+        <v>117</v>
+      </c>
+      <c r="D97" t="n">
+        <v>117</v>
+      </c>
+      <c r="E97" t="n">
+        <v>117</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5561.203435897436</v>
+      </c>
+      <c r="G97" t="n">
+        <v>214654.387307326</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>118</v>
+      </c>
+      <c r="C98" t="n">
+        <v>118</v>
+      </c>
+      <c r="D98" t="n">
+        <v>118</v>
+      </c>
+      <c r="E98" t="n">
+        <v>118</v>
+      </c>
+      <c r="F98" t="n">
+        <v>23.2981</v>
+      </c>
+      <c r="G98" t="n">
+        <v>214677.685407326</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>116</v>
+      </c>
+      <c r="C99" t="n">
+        <v>116</v>
+      </c>
+      <c r="D99" t="n">
+        <v>116</v>
+      </c>
+      <c r="E99" t="n">
+        <v>116</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5369.0323</v>
+      </c>
+      <c r="G99" t="n">
+        <v>209308.653107326</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>116</v>
+      </c>
+      <c r="C100" t="n">
+        <v>116</v>
+      </c>
+      <c r="D100" t="n">
+        <v>116</v>
+      </c>
+      <c r="E100" t="n">
+        <v>116</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14148.9302</v>
+      </c>
+      <c r="G100" t="n">
+        <v>209308.653107326</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>116</v>
+      </c>
+      <c r="C101" t="n">
+        <v>115</v>
+      </c>
+      <c r="D101" t="n">
+        <v>116</v>
+      </c>
+      <c r="E101" t="n">
+        <v>115</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1113.9191</v>
+      </c>
+      <c r="G101" t="n">
+        <v>208194.734007326</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>116</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>119</v>
-      </c>
-      <c r="C82" t="n">
-        <v>119</v>
-      </c>
-      <c r="D82" t="n">
-        <v>119</v>
-      </c>
-      <c r="E82" t="n">
-        <v>119</v>
-      </c>
-      <c r="F82" t="n">
-        <v>22441.9458</v>
-      </c>
-      <c r="G82" t="n">
-        <v>223303.4226714286</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>119</v>
-      </c>
-      <c r="J82" t="n">
-        <v>119</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>119</v>
-      </c>
-      <c r="C83" t="n">
-        <v>119</v>
-      </c>
-      <c r="D83" t="n">
-        <v>119</v>
-      </c>
-      <c r="E83" t="n">
-        <v>119</v>
-      </c>
-      <c r="F83" t="n">
-        <v>200</v>
-      </c>
-      <c r="G83" t="n">
-        <v>223303.4226714286</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>119</v>
-      </c>
-      <c r="J83" t="n">
-        <v>119</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>119</v>
-      </c>
-      <c r="C84" t="n">
-        <v>119</v>
-      </c>
-      <c r="D84" t="n">
-        <v>119</v>
-      </c>
-      <c r="E84" t="n">
-        <v>119</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3025.546528571429</v>
-      </c>
-      <c r="G84" t="n">
-        <v>223303.4226714286</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>119</v>
-      </c>
-      <c r="J84" t="n">
-        <v>119</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>119</v>
-      </c>
-      <c r="C85" t="n">
-        <v>119</v>
-      </c>
-      <c r="D85" t="n">
-        <v>119</v>
-      </c>
-      <c r="E85" t="n">
-        <v>119</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1617.1452</v>
-      </c>
-      <c r="G85" t="n">
-        <v>223303.4226714286</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>119</v>
-      </c>
-      <c r="J85" t="n">
-        <v>119</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>119</v>
-      </c>
-      <c r="C86" t="n">
-        <v>119</v>
-      </c>
-      <c r="D86" t="n">
-        <v>119</v>
-      </c>
-      <c r="E86" t="n">
-        <v>119</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G86" t="n">
-        <v>223303.4226714286</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>119</v>
-      </c>
-      <c r="J86" t="n">
-        <v>119</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>118</v>
-      </c>
-      <c r="C87" t="n">
-        <v>118</v>
-      </c>
-      <c r="D87" t="n">
-        <v>118</v>
-      </c>
-      <c r="E87" t="n">
-        <v>118</v>
-      </c>
-      <c r="F87" t="n">
-        <v>482.1281</v>
-      </c>
-      <c r="G87" t="n">
-        <v>222821.2945714286</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>119</v>
-      </c>
-      <c r="J87" t="n">
-        <v>119</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>117</v>
-      </c>
-      <c r="C88" t="n">
-        <v>118</v>
-      </c>
-      <c r="D88" t="n">
-        <v>118</v>
-      </c>
-      <c r="E88" t="n">
-        <v>117</v>
-      </c>
-      <c r="F88" t="n">
-        <v>710.3899</v>
-      </c>
-      <c r="G88" t="n">
-        <v>222821.2945714286</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>118</v>
-      </c>
-      <c r="J88" t="n">
-        <v>119</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>117</v>
-      </c>
-      <c r="C89" t="n">
-        <v>117</v>
-      </c>
-      <c r="D89" t="n">
-        <v>117</v>
-      </c>
-      <c r="E89" t="n">
-        <v>117</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2639.7702</v>
-      </c>
-      <c r="G89" t="n">
-        <v>220181.5243714286</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>118</v>
-      </c>
-      <c r="J89" t="n">
-        <v>119</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>117</v>
-      </c>
-      <c r="C90" t="n">
-        <v>117</v>
-      </c>
-      <c r="D90" t="n">
-        <v>117</v>
-      </c>
-      <c r="E90" t="n">
-        <v>117</v>
-      </c>
-      <c r="F90" t="n">
-        <v>50</v>
-      </c>
-      <c r="G90" t="n">
-        <v>220181.5243714286</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>117</v>
-      </c>
-      <c r="J90" t="n">
-        <v>119</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>117</v>
-      </c>
-      <c r="C91" t="n">
-        <v>117</v>
-      </c>
-      <c r="D91" t="n">
-        <v>117</v>
-      </c>
-      <c r="E91" t="n">
-        <v>117</v>
-      </c>
-      <c r="F91" t="n">
-        <v>8570.625899999999</v>
-      </c>
-      <c r="G91" t="n">
-        <v>220181.5243714286</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>117</v>
-      </c>
-      <c r="J91" t="n">
-        <v>119</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>117</v>
-      </c>
-      <c r="C92" t="n">
-        <v>117</v>
-      </c>
-      <c r="D92" t="n">
-        <v>117</v>
-      </c>
-      <c r="E92" t="n">
-        <v>117</v>
-      </c>
-      <c r="F92" t="n">
-        <v>4439.4269</v>
-      </c>
-      <c r="G92" t="n">
-        <v>220181.5243714286</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>117</v>
-      </c>
-      <c r="J92" t="n">
-        <v>119</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>117</v>
-      </c>
-      <c r="C93" t="n">
-        <v>117</v>
-      </c>
-      <c r="D93" t="n">
-        <v>117</v>
-      </c>
-      <c r="E93" t="n">
-        <v>117</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3358.3395</v>
-      </c>
-      <c r="G93" t="n">
-        <v>220181.5243714286</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>117</v>
-      </c>
-      <c r="J93" t="n">
-        <v>119</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>119</v>
-      </c>
-      <c r="C94" t="n">
-        <v>119</v>
-      </c>
-      <c r="D94" t="n">
-        <v>119</v>
-      </c>
-      <c r="E94" t="n">
-        <v>119</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5</v>
-      </c>
-      <c r="G94" t="n">
-        <v>220186.5243714286</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>117</v>
-      </c>
-      <c r="J94" t="n">
-        <v>119</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>118</v>
-      </c>
-      <c r="C95" t="n">
-        <v>118</v>
-      </c>
-      <c r="D95" t="n">
-        <v>118</v>
-      </c>
-      <c r="E95" t="n">
-        <v>118</v>
-      </c>
-      <c r="F95" t="n">
-        <v>11.4099</v>
-      </c>
-      <c r="G95" t="n">
-        <v>220175.1144714286</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>119</v>
-      </c>
-      <c r="J95" t="n">
-        <v>119</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>117</v>
-      </c>
-      <c r="C96" t="n">
-        <v>117</v>
-      </c>
-      <c r="D96" t="n">
-        <v>117</v>
-      </c>
-      <c r="E96" t="n">
-        <v>117</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5520.727164102565</v>
-      </c>
-      <c r="G96" t="n">
-        <v>214654.387307326</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>118</v>
-      </c>
-      <c r="J96" t="n">
-        <v>119</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>117</v>
-      </c>
-      <c r="C97" t="n">
-        <v>117</v>
-      </c>
-      <c r="D97" t="n">
-        <v>117</v>
-      </c>
-      <c r="E97" t="n">
-        <v>117</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5561.203435897436</v>
-      </c>
-      <c r="G97" t="n">
-        <v>214654.387307326</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>117</v>
-      </c>
-      <c r="J97" t="n">
-        <v>119</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>118</v>
-      </c>
-      <c r="C98" t="n">
-        <v>118</v>
-      </c>
-      <c r="D98" t="n">
-        <v>118</v>
-      </c>
-      <c r="E98" t="n">
-        <v>118</v>
-      </c>
-      <c r="F98" t="n">
-        <v>23.2981</v>
-      </c>
-      <c r="G98" t="n">
-        <v>214677.685407326</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>117</v>
-      </c>
-      <c r="J98" t="n">
-        <v>119</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>116</v>
-      </c>
-      <c r="C99" t="n">
-        <v>116</v>
-      </c>
-      <c r="D99" t="n">
-        <v>116</v>
-      </c>
-      <c r="E99" t="n">
-        <v>116</v>
-      </c>
-      <c r="F99" t="n">
-        <v>5369.0323</v>
-      </c>
-      <c r="G99" t="n">
-        <v>209308.653107326</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>118</v>
-      </c>
-      <c r="J99" t="n">
-        <v>119</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>116</v>
-      </c>
-      <c r="C100" t="n">
-        <v>116</v>
-      </c>
-      <c r="D100" t="n">
-        <v>116</v>
-      </c>
-      <c r="E100" t="n">
-        <v>116</v>
-      </c>
-      <c r="F100" t="n">
-        <v>14148.9302</v>
-      </c>
-      <c r="G100" t="n">
-        <v>209308.653107326</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>119</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>116</v>
-      </c>
-      <c r="C101" t="n">
-        <v>115</v>
-      </c>
-      <c r="D101" t="n">
-        <v>116</v>
-      </c>
-      <c r="E101" t="n">
-        <v>115</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1113.9191</v>
-      </c>
-      <c r="G101" t="n">
-        <v>208194.734007326</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>116</v>
-      </c>
-      <c r="J101" t="n">
-        <v>119</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3968,9 +3762,7 @@
       <c r="I102" t="n">
         <v>115</v>
       </c>
-      <c r="J102" t="n">
-        <v>119</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,9 +3801,7 @@
       <c r="I103" t="n">
         <v>116</v>
       </c>
-      <c r="J103" t="n">
-        <v>119</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,9 +3840,7 @@
       <c r="I104" t="n">
         <v>116</v>
       </c>
-      <c r="J104" t="n">
-        <v>119</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4091,9 +3879,7 @@
       <c r="I105" t="n">
         <v>118</v>
       </c>
-      <c r="J105" t="n">
-        <v>119</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4127,14 +3913,10 @@
         <v>207810.001207326</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>118</v>
-      </c>
-      <c r="J106" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,9 +3955,7 @@
       <c r="I107" t="n">
         <v>115</v>
       </c>
-      <c r="J107" t="n">
-        <v>119</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,14 +3989,10 @@
         <v>215640.707607326</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>117</v>
-      </c>
-      <c r="J108" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4250,14 +4026,10 @@
         <v>215541.707607326</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>117</v>
-      </c>
-      <c r="J109" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,9 +4068,7 @@
       <c r="I110" t="n">
         <v>116</v>
       </c>
-      <c r="J110" t="n">
-        <v>119</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4337,9 +4107,7 @@
       <c r="I111" t="n">
         <v>115</v>
       </c>
-      <c r="J111" t="n">
-        <v>119</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4378,9 +4146,7 @@
       <c r="I112" t="n">
         <v>115</v>
       </c>
-      <c r="J112" t="n">
-        <v>119</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,9 +4185,7 @@
       <c r="I113" t="n">
         <v>115</v>
       </c>
-      <c r="J113" t="n">
-        <v>119</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,9 +4224,7 @@
       <c r="I114" t="n">
         <v>114</v>
       </c>
-      <c r="J114" t="n">
-        <v>119</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,9 +4263,7 @@
       <c r="I115" t="n">
         <v>116</v>
       </c>
-      <c r="J115" t="n">
-        <v>119</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,9 +4302,7 @@
       <c r="I116" t="n">
         <v>114</v>
       </c>
-      <c r="J116" t="n">
-        <v>119</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,9 +4341,7 @@
       <c r="I117" t="n">
         <v>115</v>
       </c>
-      <c r="J117" t="n">
-        <v>119</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,9 +4380,7 @@
       <c r="I118" t="n">
         <v>114</v>
       </c>
-      <c r="J118" t="n">
-        <v>119</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,9 +4419,7 @@
       <c r="I119" t="n">
         <v>116</v>
       </c>
-      <c r="J119" t="n">
-        <v>119</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,9 +4458,7 @@
       <c r="I120" t="n">
         <v>117</v>
       </c>
-      <c r="J120" t="n">
-        <v>119</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,9 +4497,7 @@
       <c r="I121" t="n">
         <v>117</v>
       </c>
-      <c r="J121" t="n">
-        <v>119</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,9 +4536,7 @@
       <c r="I122" t="n">
         <v>117</v>
       </c>
-      <c r="J122" t="n">
-        <v>119</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,9 +4575,7 @@
       <c r="I123" t="n">
         <v>118</v>
       </c>
-      <c r="J123" t="n">
-        <v>119</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,9 +4614,7 @@
       <c r="I124" t="n">
         <v>118</v>
       </c>
-      <c r="J124" t="n">
-        <v>119</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,9 +4653,7 @@
       <c r="I125" t="n">
         <v>116</v>
       </c>
-      <c r="J125" t="n">
-        <v>119</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4952,9 +4692,7 @@
       <c r="I126" t="n">
         <v>116</v>
       </c>
-      <c r="J126" t="n">
-        <v>119</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4993,9 +4731,7 @@
       <c r="I127" t="n">
         <v>117</v>
       </c>
-      <c r="J127" t="n">
-        <v>119</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,9 +4770,7 @@
       <c r="I128" t="n">
         <v>118</v>
       </c>
-      <c r="J128" t="n">
-        <v>119</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,9 +4809,7 @@
       <c r="I129" t="n">
         <v>116</v>
       </c>
-      <c r="J129" t="n">
-        <v>119</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5116,9 +4848,7 @@
       <c r="I130" t="n">
         <v>116</v>
       </c>
-      <c r="J130" t="n">
-        <v>119</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5157,9 +4887,7 @@
       <c r="I131" t="n">
         <v>117</v>
       </c>
-      <c r="J131" t="n">
-        <v>119</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5198,9 +4926,7 @@
       <c r="I132" t="n">
         <v>116</v>
       </c>
-      <c r="J132" t="n">
-        <v>119</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,9 +4965,7 @@
       <c r="I133" t="n">
         <v>117</v>
       </c>
-      <c r="J133" t="n">
-        <v>119</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5275,14 +4999,10 @@
         <v>233283.212907326</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>117</v>
-      </c>
-      <c r="J134" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5316,14 +5036,10 @@
         <v>233283.212907326</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>117</v>
-      </c>
-      <c r="J135" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,14 +5073,10 @@
         <v>233278.212907326</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>117</v>
-      </c>
-      <c r="J136" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5403,9 +5115,7 @@
       <c r="I137" t="n">
         <v>116</v>
       </c>
-      <c r="J137" t="n">
-        <v>119</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5439,14 +5149,10 @@
         <v>244825.922507326</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>116</v>
-      </c>
-      <c r="J138" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5480,14 +5186,10 @@
         <v>241542.299007326</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>117</v>
-      </c>
-      <c r="J139" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5521,14 +5223,10 @@
         <v>241547.299007326</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>116</v>
-      </c>
-      <c r="J140" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5562,14 +5260,10 @@
         <v>232798.800507326</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>117</v>
-      </c>
-      <c r="J141" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,14 +5297,10 @@
         <v>242672.665707326</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>115</v>
-      </c>
-      <c r="J142" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5649,9 +5339,7 @@
       <c r="I143" t="n">
         <v>116</v>
       </c>
-      <c r="J143" t="n">
-        <v>119</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5690,9 +5378,7 @@
       <c r="I144" t="n">
         <v>116</v>
       </c>
-      <c r="J144" t="n">
-        <v>119</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5731,9 +5417,7 @@
       <c r="I145" t="n">
         <v>116</v>
       </c>
-      <c r="J145" t="n">
-        <v>119</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5772,9 +5456,7 @@
       <c r="I146" t="n">
         <v>116</v>
       </c>
-      <c r="J146" t="n">
-        <v>119</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,9 +5495,7 @@
       <c r="I147" t="n">
         <v>116</v>
       </c>
-      <c r="J147" t="n">
-        <v>119</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,9 +5534,7 @@
       <c r="I148" t="n">
         <v>115</v>
       </c>
-      <c r="J148" t="n">
-        <v>119</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5895,9 +5573,7 @@
       <c r="I149" t="n">
         <v>117</v>
       </c>
-      <c r="J149" t="n">
-        <v>119</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,14 +5607,10 @@
         <v>214729.874907326</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>116</v>
-      </c>
-      <c r="J150" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5977,9 +5649,7 @@
       <c r="I151" t="n">
         <v>116</v>
       </c>
-      <c r="J151" t="n">
-        <v>119</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6018,9 +5688,7 @@
       <c r="I152" t="n">
         <v>117</v>
       </c>
-      <c r="J152" t="n">
-        <v>119</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6059,9 +5727,7 @@
       <c r="I153" t="n">
         <v>116</v>
       </c>
-      <c r="J153" t="n">
-        <v>119</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,9 +5766,7 @@
       <c r="I154" t="n">
         <v>115</v>
       </c>
-      <c r="J154" t="n">
-        <v>119</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6141,9 +5805,7 @@
       <c r="I155" t="n">
         <v>117</v>
       </c>
-      <c r="J155" t="n">
-        <v>119</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6177,14 +5839,10 @@
         <v>203930.641407326</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>117</v>
-      </c>
-      <c r="J156" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,9 +5881,7 @@
       <c r="I157" t="n">
         <v>117</v>
       </c>
-      <c r="J157" t="n">
-        <v>119</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6259,14 +5915,10 @@
         <v>203930.641407326</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>117</v>
-      </c>
-      <c r="J158" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,9 +5957,7 @@
       <c r="I159" t="n">
         <v>117</v>
       </c>
-      <c r="J159" t="n">
-        <v>119</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,9 +5996,7 @@
       <c r="I160" t="n">
         <v>116</v>
       </c>
-      <c r="J160" t="n">
-        <v>119</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,14 +6030,10 @@
         <v>203739.091507326</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>118</v>
-      </c>
-      <c r="J161" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6423,14 +6067,10 @@
         <v>241431.184607326</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>118</v>
-      </c>
-      <c r="J162" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,14 +6104,10 @@
         <v>208107.646907326</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>121</v>
-      </c>
-      <c r="J163" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6505,14 +6141,10 @@
         <v>217540.5047073259</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>120</v>
-      </c>
-      <c r="J164" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,14 +6178,10 @@
         <v>282956.5389073259</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>122</v>
-      </c>
-      <c r="J165" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,14 +6215,10 @@
         <v>351047.3227073259</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>125</v>
-      </c>
-      <c r="J166" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,9 +6255,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>119</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,9 +6292,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>119</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,9 +6329,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>119</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6748,9 +6366,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>119</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6787,9 +6403,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>119</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,9 +6440,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>119</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6865,9 +6477,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>119</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,9 +6514,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>119</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6943,9 +6551,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>119</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,9 +6588,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>119</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7018,20 +6622,16 @@
         <v>424849.7788073259</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>119</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -7057,17 +6657,11 @@
         <v>474089.3782073259</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>119</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7096,17 +6690,11 @@
         <v>456932.4164073259</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>119</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7135,17 +6723,11 @@
         <v>460238.3833073259</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>119</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7174,17 +6756,11 @@
         <v>514621.7535776963</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>119</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7216,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>119</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7255,14 +6825,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>119</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7294,14 +6858,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>119</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7333,14 +6891,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>119</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7372,14 +6924,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>119</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7408,19 +6954,11 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>129</v>
-      </c>
-      <c r="J187" t="n">
-        <v>119</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7449,19 +6987,11 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>128</v>
-      </c>
-      <c r="J188" t="n">
-        <v>119</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7490,19 +7020,11 @@
         <v>515822.3176776962</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>128</v>
-      </c>
-      <c r="J189" t="n">
-        <v>119</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7531,19 +7053,11 @@
         <v>511468.2350776962</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>129</v>
-      </c>
-      <c r="J190" t="n">
-        <v>119</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7572,19 +7086,11 @@
         <v>511468.2350776962</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>128</v>
-      </c>
-      <c r="J191" t="n">
-        <v>119</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7613,19 +7119,11 @@
         <v>511568.2350776962</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>128</v>
-      </c>
-      <c r="J192" t="n">
-        <v>119</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7654,19 +7152,11 @@
         <v>511568.2350776962</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>130</v>
-      </c>
-      <c r="J193" t="n">
-        <v>119</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7695,19 +7185,11 @@
         <v>511564.2350776962</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>130</v>
-      </c>
-      <c r="J194" t="n">
-        <v>119</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7736,19 +7218,11 @@
         <v>511564.2350776962</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>128</v>
-      </c>
-      <c r="J195" t="n">
-        <v>119</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7777,19 +7251,11 @@
         <v>514818.0597776962</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>128</v>
-      </c>
-      <c r="J196" t="n">
-        <v>119</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7818,19 +7284,11 @@
         <v>465065.4576776962</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>129</v>
-      </c>
-      <c r="J197" t="n">
-        <v>119</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7859,19 +7317,11 @@
         <v>486800.6550776962</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>121</v>
-      </c>
-      <c r="J198" t="n">
-        <v>119</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7900,19 +7350,11 @@
         <v>513795.2611483729</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>123</v>
-      </c>
-      <c r="J199" t="n">
-        <v>119</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7941,19 +7383,11 @@
         <v>501989.1128483729</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>133</v>
-      </c>
-      <c r="J200" t="n">
-        <v>119</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7982,19 +7416,11 @@
         <v>501989.1128483729</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>129</v>
-      </c>
-      <c r="J201" t="n">
-        <v>119</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8023,19 +7449,11 @@
         <v>494272.5756483729</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>129</v>
-      </c>
-      <c r="J202" t="n">
-        <v>119</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8064,19 +7482,11 @@
         <v>507710.8023430699</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>125</v>
-      </c>
-      <c r="J203" t="n">
-        <v>119</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8105,19 +7515,11 @@
         <v>507474.3713430699</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>132</v>
-      </c>
-      <c r="J204" t="n">
-        <v>119</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8146,19 +7548,11 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>128</v>
-      </c>
-      <c r="J205" t="n">
-        <v>119</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8187,19 +7581,11 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>126</v>
-      </c>
-      <c r="J206" t="n">
-        <v>119</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8228,19 +7614,11 @@
         <v>503245.0808430699</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>126</v>
-      </c>
-      <c r="J207" t="n">
-        <v>119</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8269,19 +7647,11 @@
         <v>503258.0808430699</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>129</v>
-      </c>
-      <c r="J208" t="n">
-        <v>119</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8310,17 +7680,11 @@
         <v>503180.7997430699</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>119</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8349,17 +7713,11 @@
         <v>510925.2848599929</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>119</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8388,17 +7746,11 @@
         <v>510925.2848599929</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>119</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8427,17 +7779,11 @@
         <v>510028.6789599929</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>119</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8469,14 +7815,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>119</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8508,14 +7848,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>119</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8547,14 +7881,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>119</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8586,14 +7914,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>119</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8625,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>119</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8664,14 +7980,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>119</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8703,14 +8013,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>119</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8742,14 +8046,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>119</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8781,14 +8079,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>119</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8820,14 +8112,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>119</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8859,14 +8145,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>119</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8898,14 +8178,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>119</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8937,14 +8211,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>119</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8976,14 +8244,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>119</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9015,14 +8277,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>119</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9054,14 +8310,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>119</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9093,14 +8343,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>119</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9132,14 +8376,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>119</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9171,14 +8409,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>119</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9210,14 +8442,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>119</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9249,14 +8475,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>119</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9288,14 +8508,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>119</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9327,14 +8541,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>119</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9366,14 +8574,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>119</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9405,14 +8607,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>119</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9444,14 +8640,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>119</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9483,14 +8673,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>119</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9522,14 +8706,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>119</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9561,14 +8739,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>119</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9600,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>119</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9639,14 +8805,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>119</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9678,14 +8838,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>119</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9717,14 +8871,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>119</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9756,14 +8904,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>119</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9795,14 +8937,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>119</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9834,14 +8970,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>119</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9873,14 +9003,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>119</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9912,14 +9036,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>119</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9951,14 +9069,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>119</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9990,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>119</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10029,14 +9135,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>119</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10068,14 +9168,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>119</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10107,14 +9201,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>119</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10146,14 +9234,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>119</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10185,14 +9267,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>119</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10224,14 +9300,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>119</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10263,14 +9333,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>119</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10302,14 +9366,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>119</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10341,14 +9399,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>119</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10380,14 +9432,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>119</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10419,14 +9465,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>119</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10458,14 +9498,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>119</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10497,14 +9531,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>119</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10536,14 +9564,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>119</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10575,14 +9597,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>119</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10614,14 +9630,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>119</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10653,14 +9663,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>119</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10692,14 +9696,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>119</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10731,14 +9729,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>119</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10770,14 +9762,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>119</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10809,14 +9795,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>119</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10848,14 +9828,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>119</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10887,14 +9861,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>119</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10926,14 +9894,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>119</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10965,14 +9927,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>119</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11004,14 +9960,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>119</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11043,14 +9993,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>119</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11082,14 +10026,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>119</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11121,14 +10059,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>119</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11160,14 +10092,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>119</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11199,14 +10125,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>119</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11238,14 +10158,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>119</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11277,14 +10191,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>119</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11316,14 +10224,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>119</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11355,14 +10257,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>119</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11394,14 +10290,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>119</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11433,14 +10323,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>119</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11472,14 +10356,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>119</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11511,14 +10389,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>119</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11550,14 +10422,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>119</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11589,14 +10455,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>119</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11628,14 +10488,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>119</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11667,14 +10521,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>119</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11706,14 +10554,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>119</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11745,14 +10587,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>119</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11784,14 +10620,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>119</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11823,14 +10653,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>119</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11862,14 +10686,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>119</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11901,14 +10719,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>119</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11940,14 +10752,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>119</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11979,14 +10785,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>119</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12018,14 +10818,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>119</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12057,14 +10851,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>119</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12096,14 +10884,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>119</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12135,14 +10917,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>119</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12174,14 +10950,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>119</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12213,14 +10983,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>119</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12252,14 +11016,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>119</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12291,14 +11049,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>119</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12330,14 +11082,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>119</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12369,14 +11115,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>119</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12408,14 +11148,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>119</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12447,14 +11181,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>119</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12486,14 +11214,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>119</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12525,14 +11247,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>119</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12564,14 +11280,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>119</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12603,14 +11313,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>119</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12642,14 +11346,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>119</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12681,14 +11379,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>119</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12720,14 +11412,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>119</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12759,14 +11445,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>119</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12798,14 +11478,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>119</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12834,23 +11508,15 @@
         <v>677587.4840482239</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>119</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
-        <v>1.154663865546219</v>
-      </c>
-      <c r="M325" t="n">
-        <v>1.100917431192661</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12875,7 +11541,7 @@
         <v>697485.535848224</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12908,7 +11574,7 @@
         <v>732338.317348224</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12941,7 +11607,7 @@
         <v>799442.482048224</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12974,7 +11640,7 @@
         <v>721489.720948224</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13007,7 +11673,7 @@
         <v>766015.819548224</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13040,7 +11706,7 @@
         <v>803527.1027482239</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13073,7 +11739,7 @@
         <v>779925.0318482239</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13106,7 +11772,7 @@
         <v>902624.3630482239</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13139,7 +11805,7 @@
         <v>1174171.402048224</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13172,7 +11838,7 @@
         <v>1125345.815148224</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13304,7 +11970,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13337,7 +12003,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13370,7 +12036,7 @@
         <v>1087003.575748224</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13403,7 +12069,7 @@
         <v>1105569.896548224</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13414,6 +12080,6 @@
       <c r="M342" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest FX.xlsx
+++ b/BackTest/2019-11-17 BackTest FX.xlsx
@@ -2134,10 +2134,14 @@
         <v>187030.8226</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>115</v>
+      </c>
+      <c r="J53" t="n">
+        <v>115</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2170,8 +2174,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>115</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2213,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>115</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2252,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>115</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2288,19 @@
         <v>178095.434</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>113</v>
+      </c>
+      <c r="J57" t="n">
+        <v>115</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2329,19 @@
         <v>182173.1827711864</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>113</v>
+      </c>
+      <c r="J58" t="n">
+        <v>115</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2370,19 @@
         <v>182168.7827711864</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>118</v>
+      </c>
+      <c r="J59" t="n">
+        <v>115</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>115</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2450,19 @@
         <v>195714.1856</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>118</v>
+      </c>
+      <c r="J61" t="n">
+        <v>115</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>115</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2533,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>115</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2572,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>115</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2608,19 @@
         <v>195709.7856</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>119</v>
+      </c>
+      <c r="J65" t="n">
+        <v>115</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2652,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>115</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2688,19 @@
         <v>195378.4606</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>115</v>
+      </c>
+      <c r="J67" t="n">
+        <v>115</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>115</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2768,19 @@
         <v>194680.4324</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>117</v>
+      </c>
+      <c r="J69" t="n">
+        <v>115</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2809,19 @@
         <v>194685.1079</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>116</v>
+      </c>
+      <c r="J70" t="n">
+        <v>115</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2850,19 @@
         <v>194685.1079</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>117</v>
+      </c>
+      <c r="J71" t="n">
+        <v>115</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2891,19 @@
         <v>199093.348</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>117</v>
+      </c>
+      <c r="J72" t="n">
+        <v>115</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2932,19 @@
         <v>199093.348</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>118</v>
+      </c>
+      <c r="J73" t="n">
+        <v>115</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2976,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>115</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3015,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>115</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3054,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>115</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3090,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>119</v>
+      </c>
+      <c r="J77" t="n">
+        <v>115</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3131,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>119</v>
+      </c>
+      <c r="J78" t="n">
+        <v>115</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3172,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>119</v>
+      </c>
+      <c r="J79" t="n">
+        <v>115</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3213,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>119</v>
+      </c>
+      <c r="J80" t="n">
+        <v>115</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3254,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>119</v>
+      </c>
+      <c r="J81" t="n">
+        <v>115</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3295,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>119</v>
+      </c>
+      <c r="J82" t="n">
+        <v>115</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3336,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>119</v>
+      </c>
+      <c r="J83" t="n">
+        <v>115</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3377,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>119</v>
+      </c>
+      <c r="J84" t="n">
+        <v>115</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3418,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>119</v>
+      </c>
+      <c r="J85" t="n">
+        <v>115</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3459,19 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>119</v>
+      </c>
+      <c r="J86" t="n">
+        <v>115</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3500,19 @@
         <v>222821.2945714286</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>119</v>
+      </c>
+      <c r="J87" t="n">
+        <v>115</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3541,19 @@
         <v>222821.2945714286</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>118</v>
+      </c>
+      <c r="J88" t="n">
+        <v>115</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3582,19 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>118</v>
+      </c>
+      <c r="J89" t="n">
+        <v>115</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3623,19 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>117</v>
+      </c>
+      <c r="J90" t="n">
+        <v>115</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3664,19 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>117</v>
+      </c>
+      <c r="J91" t="n">
+        <v>115</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3705,19 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>117</v>
+      </c>
+      <c r="J92" t="n">
+        <v>115</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3746,19 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>117</v>
+      </c>
+      <c r="J93" t="n">
+        <v>115</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3787,19 @@
         <v>220186.5243714286</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>117</v>
+      </c>
+      <c r="J94" t="n">
+        <v>115</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3828,19 @@
         <v>220175.1144714286</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>119</v>
+      </c>
+      <c r="J95" t="n">
+        <v>115</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3869,19 @@
         <v>214654.387307326</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>118</v>
+      </c>
+      <c r="J96" t="n">
+        <v>115</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3910,19 @@
         <v>214654.387307326</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>117</v>
+      </c>
+      <c r="J97" t="n">
+        <v>115</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3951,19 @@
         <v>214677.685407326</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>115</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3992,19 @@
         <v>209308.653107326</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>118</v>
+      </c>
+      <c r="J99" t="n">
+        <v>115</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4033,19 @@
         <v>209308.653107326</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>116</v>
+      </c>
+      <c r="J100" t="n">
+        <v>115</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3723,10 +4079,12 @@
       <c r="I101" t="n">
         <v>116</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>115</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3762,7 +4120,9 @@
       <c r="I102" t="n">
         <v>115</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>115</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3801,7 +4161,9 @@
       <c r="I103" t="n">
         <v>116</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>115</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3840,7 +4202,9 @@
       <c r="I104" t="n">
         <v>116</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>115</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3879,7 +4243,9 @@
       <c r="I105" t="n">
         <v>118</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>115</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,10 +4279,14 @@
         <v>207810.001207326</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>118</v>
+      </c>
+      <c r="J106" t="n">
+        <v>115</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3955,7 +4325,9 @@
       <c r="I107" t="n">
         <v>115</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>115</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,10 +4361,14 @@
         <v>215640.707607326</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>117</v>
+      </c>
+      <c r="J108" t="n">
+        <v>115</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,10 +4402,14 @@
         <v>215541.707607326</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>117</v>
+      </c>
+      <c r="J109" t="n">
+        <v>115</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4068,7 +4448,9 @@
       <c r="I110" t="n">
         <v>116</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>115</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4107,7 +4489,9 @@
       <c r="I111" t="n">
         <v>115</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>115</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,7 +4530,9 @@
       <c r="I112" t="n">
         <v>115</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>115</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,7 +4571,9 @@
       <c r="I113" t="n">
         <v>115</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>115</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4224,7 +4612,9 @@
       <c r="I114" t="n">
         <v>114</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>115</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4258,12 +4648,12 @@
         <v>207925.111607326</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>116</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>115</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,7 +4692,9 @@
       <c r="I116" t="n">
         <v>114</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>115</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,7 +4733,9 @@
       <c r="I117" t="n">
         <v>115</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>115</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4380,7 +4774,9 @@
       <c r="I118" t="n">
         <v>114</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>115</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,7 +4815,9 @@
       <c r="I119" t="n">
         <v>116</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>115</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,7 +4856,9 @@
       <c r="I120" t="n">
         <v>117</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>115</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,12 +4892,12 @@
         <v>209334.306507326</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>117</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>115</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4531,12 +4931,12 @@
         <v>209338.606507326</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>117</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>115</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,12 +4970,12 @@
         <v>209338.606507326</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>118</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>115</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4609,12 +5009,12 @@
         <v>209059.661707326</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>118</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>115</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4648,12 +5048,12 @@
         <v>209059.661707326</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>116</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>115</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4687,12 +5087,12 @@
         <v>211934.920407326</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>116</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>115</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4726,12 +5126,12 @@
         <v>230168.284907326</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>117</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>115</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,12 +5165,12 @@
         <v>229988.949307326</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>118</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>115</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4804,12 +5204,12 @@
         <v>229988.949307326</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>116</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>115</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4843,12 +5243,12 @@
         <v>229993.949307326</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>116</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>115</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4882,12 +5282,12 @@
         <v>229955.212907326</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>117</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>115</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4921,12 +5321,12 @@
         <v>233283.212907326</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>116</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>115</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4960,12 +5360,12 @@
         <v>233283.212907326</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>117</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>115</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5002,7 +5402,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>115</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5039,7 +5441,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>115</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5076,7 +5480,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>115</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,12 +5516,12 @@
         <v>233278.212907326</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>116</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>115</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,7 +5558,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>115</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,7 +5597,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>115</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5226,7 +5636,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>115</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5263,7 +5675,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>115</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5300,7 +5714,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>115</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,12 +5750,12 @@
         <v>242672.665707326</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>116</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>115</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,12 +5789,12 @@
         <v>242672.665707326</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>116</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>115</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,12 +5828,12 @@
         <v>242672.665707326</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>116</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>115</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,12 +5867,12 @@
         <v>242672.665707326</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>116</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>115</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5490,12 +5906,12 @@
         <v>227462.185707326</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>116</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>115</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,12 +5945,12 @@
         <v>227467.185707326</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>115</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>115</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,12 +5984,12 @@
         <v>214729.874907326</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>117</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>115</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5610,7 +6026,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>115</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5644,12 +6062,12 @@
         <v>214913.170607326</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>116</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>115</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5683,12 +6101,12 @@
         <v>212557.012907326</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>117</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>115</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5722,12 +6140,12 @@
         <v>203925.641407326</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>116</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>115</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5766,7 +6184,9 @@
       <c r="I154" t="n">
         <v>115</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>115</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5800,12 +6220,12 @@
         <v>203930.641407326</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>117</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>115</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5842,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>115</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,12 +6298,12 @@
         <v>203930.641407326</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>117</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>115</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5918,7 +6340,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>115</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,12 +6376,12 @@
         <v>197747.692807326</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>117</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>115</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,7 +6420,9 @@
       <c r="I160" t="n">
         <v>116</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>115</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6033,7 +6459,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>115</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6070,7 +6498,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>115</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6107,7 +6537,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>115</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6144,7 +6576,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>115</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6181,7 +6615,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>115</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6218,7 +6654,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>115</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6255,7 +6693,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>115</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6292,7 +6732,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>115</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6329,7 +6771,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>115</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6366,7 +6810,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>115</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6403,7 +6849,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>115</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,7 +6888,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>115</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6477,7 +6927,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>115</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,7 +6966,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>115</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6551,7 +7005,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>115</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6588,7 +7044,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>115</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6622,16 +7080,20 @@
         <v>424849.7788073259</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>115</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
       <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -6657,11 +7119,17 @@
         <v>474089.3782073259</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>115</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6690,11 +7158,17 @@
         <v>456932.4164073259</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>115</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6723,11 +7197,17 @@
         <v>460238.3833073259</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>115</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6756,11 +7236,17 @@
         <v>514621.7535776963</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>115</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7278,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>115</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6825,8 +7317,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>115</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6858,8 +7356,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>115</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6891,8 +7395,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>115</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6924,8 +7434,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>115</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6954,11 +7470,17 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>115</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6987,11 +7509,17 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>115</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7020,11 +7548,17 @@
         <v>515822.3176776962</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>115</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7053,11 +7587,17 @@
         <v>511468.2350776962</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>115</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7086,11 +7626,17 @@
         <v>511468.2350776962</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>115</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7119,11 +7665,17 @@
         <v>511568.2350776962</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>115</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7152,11 +7704,17 @@
         <v>511568.2350776962</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>115</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7185,11 +7743,17 @@
         <v>511564.2350776962</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>115</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7218,11 +7782,17 @@
         <v>511564.2350776962</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>115</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7251,11 +7821,17 @@
         <v>514818.0597776962</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>115</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7284,11 +7860,17 @@
         <v>465065.4576776962</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>115</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7317,11 +7899,17 @@
         <v>486800.6550776962</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>115</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7350,11 +7938,17 @@
         <v>513795.2611483729</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>115</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7383,11 +7977,17 @@
         <v>501989.1128483729</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>115</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7416,11 +8016,17 @@
         <v>501989.1128483729</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>115</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7449,11 +8055,17 @@
         <v>494272.5756483729</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>115</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7482,11 +8094,17 @@
         <v>507710.8023430699</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>115</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7515,11 +8133,17 @@
         <v>507474.3713430699</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>115</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7548,11 +8172,17 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>115</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7581,11 +8211,17 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>115</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7614,11 +8250,17 @@
         <v>503245.0808430699</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>115</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7647,11 +8289,17 @@
         <v>503258.0808430699</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>115</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7680,11 +8328,17 @@
         <v>503180.7997430699</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>115</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7713,11 +8367,17 @@
         <v>510925.2848599929</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>115</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7746,11 +8406,17 @@
         <v>510925.2848599929</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>115</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +8445,17 @@
         <v>510028.6789599929</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>115</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7815,8 +8487,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>115</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7848,8 +8526,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>115</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7881,8 +8565,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>115</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7914,8 +8604,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>115</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8643,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>115</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7980,8 +8682,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>115</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8013,8 +8721,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>115</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8046,8 +8760,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>115</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8079,8 +8799,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>115</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8112,8 +8838,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>115</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8145,8 +8877,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>115</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8178,8 +8916,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>115</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8211,8 +8955,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>115</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8244,8 +8994,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>115</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8277,8 +9033,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>115</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8310,8 +9072,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>115</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8343,8 +9111,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>115</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8376,8 +9150,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>115</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8409,8 +9189,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>115</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8442,8 +9228,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>115</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8475,8 +9267,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>115</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8508,8 +9306,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>115</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8541,8 +9345,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>115</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8574,8 +9384,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>115</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8607,8 +9423,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>115</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8640,8 +9462,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>115</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8673,8 +9501,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>115</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8706,8 +9540,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>115</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8739,8 +9579,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>115</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8772,8 +9618,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>115</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8805,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>115</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8838,8 +9696,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>115</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8871,8 +9735,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>115</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8904,8 +9774,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>115</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8937,8 +9813,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>115</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8970,8 +9852,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>115</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9003,8 +9891,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>115</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9036,8 +9930,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>115</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9069,8 +9969,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>115</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9102,8 +10008,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>115</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9135,8 +10047,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>115</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +10086,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>115</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9201,8 +10125,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>115</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9234,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>115</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9267,8 +10203,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>115</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +10242,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>115</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9333,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>115</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9366,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>115</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9399,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>115</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9432,8 +10398,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>115</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9465,8 +10437,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>115</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9498,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>115</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9531,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>115</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>115</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9597,8 +10593,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>115</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9630,8 +10632,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>115</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9663,8 +10671,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>115</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9696,8 +10710,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>115</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9729,8 +10749,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>115</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9762,8 +10788,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>115</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9795,8 +10827,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>115</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9828,8 +10866,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>115</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9861,8 +10905,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>115</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9894,8 +10944,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>115</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9927,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>115</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9960,8 +11022,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>115</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9993,8 +11061,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>115</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10026,8 +11100,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>115</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10059,8 +11139,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>115</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10092,8 +11178,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>115</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10125,8 +11217,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>115</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10158,8 +11256,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>115</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10191,8 +11295,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>115</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10224,8 +11334,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>115</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10257,8 +11373,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>115</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10290,8 +11412,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>115</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10323,8 +11451,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>115</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10356,8 +11490,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>115</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10389,8 +11529,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>115</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10422,8 +11568,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>115</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10455,8 +11607,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>115</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10488,8 +11646,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>115</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10521,8 +11685,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>115</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10554,8 +11724,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>115</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10587,8 +11763,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>115</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10620,8 +11802,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>115</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10653,8 +11841,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>115</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10686,8 +11880,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>115</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10719,8 +11919,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>115</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10752,8 +11958,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>115</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10785,8 +11997,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>115</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10818,8 +12036,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>115</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10851,8 +12075,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>115</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10884,8 +12114,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>115</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10917,8 +12153,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>115</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10950,8 +12192,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>115</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10983,8 +12231,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>115</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11016,8 +12270,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>115</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11049,8 +12309,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>115</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11082,8 +12348,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>115</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11115,8 +12387,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>115</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11148,8 +12426,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>115</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11181,8 +12465,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>115</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11214,8 +12504,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>115</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11247,8 +12543,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>115</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11280,8 +12582,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>115</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11313,8 +12621,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>115</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11346,8 +12660,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>115</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11379,8 +12699,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>115</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11412,8 +12738,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>115</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11445,8 +12777,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>115</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11478,8 +12816,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>115</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11511,8 +12855,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>115</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11544,8 +12894,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>115</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11577,8 +12933,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>115</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11610,8 +12972,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>115</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11643,8 +13011,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>115</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11673,15 +13047,23 @@
         <v>766015.819548224</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>115</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+        <v>1.255869565217391</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1.055045871559633</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11739,7 +13121,7 @@
         <v>779925.0318482239</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11772,7 +13154,7 @@
         <v>902624.3630482239</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11805,7 +13187,7 @@
         <v>1174171.402048224</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11838,7 +13220,7 @@
         <v>1125345.815148224</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11871,7 +13253,7 @@
         <v>1136581.241348224</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11904,7 +13286,7 @@
         <v>1060110.635548224</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11937,7 +13319,7 @@
         <v>1060110.635548224</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11970,7 +13352,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12003,7 +13385,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12036,7 +13418,7 @@
         <v>1087003.575748224</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12069,7 +13451,7 @@
         <v>1105569.896548224</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
